--- a/app/config/tables/stdGWSForm/forms/stdGWSForm/stdGWSForm.xlsx
+++ b/app/config/tables/stdGWSForm/forms/stdGWSForm/stdGWSForm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>clause</t>
   </si>
@@ -61,6 +61,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
     <t>hideInContents</t>
   </si>
   <si>
@@ -82,7 +85,7 @@
     <t>begin screen</t>
   </si>
   <si>
-    <t>Samples/Wells</t>
+    <t>Wells/Samples</t>
   </si>
   <si>
     <t>assign</t>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Equipment</t>
+  </si>
+  <si>
+    <t>choice_item.type==='Equipment'</t>
   </si>
   <si>
     <t>linked_table</t>
@@ -281,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
@@ -321,13 +327,16 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -28408,11 +28417,11 @@
     <col customWidth="1" min="4" max="4" width="13.86"/>
     <col customWidth="1" min="5" max="5" width="20.0"/>
     <col customWidth="1" min="6" max="6" width="35.86"/>
-    <col customWidth="1" min="7" max="7" width="22.43"/>
-    <col customWidth="1" min="8" max="9" width="40.0"/>
-    <col customWidth="1" min="10" max="10" width="30.57"/>
-    <col customWidth="1" min="11" max="11" width="73.0"/>
-    <col customWidth="1" min="12" max="19" width="11.43"/>
+    <col customWidth="1" min="7" max="8" width="22.43"/>
+    <col customWidth="1" min="9" max="10" width="40.0"/>
+    <col customWidth="1" min="11" max="11" width="30.57"/>
+    <col customWidth="1" min="12" max="12" width="73.0"/>
+    <col customWidth="1" min="13" max="20" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -28437,10 +28446,10 @@
       <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -28452,31 +28461,34 @@
       <c r="L1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="8"/>
+      <c r="M1" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
     </row>
     <row r="2" ht="17.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="12"/>
-      <c r="H2" s="10"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="12"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
@@ -28484,26 +28496,27 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="13" t="s">
-        <v>23</v>
+      <c r="C3" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="12"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="14"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -28511,27 +28524,28 @@
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="13" t="s">
-        <v>26</v>
+      <c r="C4" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="14" t="s">
-        <v>24</v>
+      <c r="E4" s="15" t="s">
+        <v>25</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="9" t="s">
+      <c r="F4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="14"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -28539,30 +28553,31 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" ht="17.25" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -28570,30 +28585,33 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
     </row>
     <row r="6" ht="17.25" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="16" t="s">
-        <v>29</v>
+      <c r="C6" s="17" t="s">
+        <v>30</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -28601,25 +28619,26 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" ht="17.25" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>38</v>
+      <c r="D7" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="13" t="s">
-        <v>39</v>
+      <c r="F7" s="14" t="s">
+        <v>41</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>40</v>
+      <c r="G7" s="5"/>
+      <c r="I7" s="14" t="s">
+        <v>42</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="12"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -28629,10 +28648,11 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -28645,13 +28665,14 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="8"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="8"/>
@@ -28673,6 +28694,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="8"/>
@@ -28694,6 +28716,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="8"/>
@@ -28715,6 +28738,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="8"/>
@@ -28736,6 +28760,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="8"/>
@@ -28757,6 +28782,7 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="8"/>
@@ -28778,6 +28804,7 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="8"/>
@@ -28799,6 +28826,7 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="8"/>
@@ -28820,6 +28848,7 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="8"/>
@@ -28841,6 +28870,7 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="8"/>
@@ -28862,6 +28892,7 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="8"/>
@@ -28883,6 +28914,7 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="8"/>
@@ -28904,6 +28936,7 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
     </row>
     <row r="21">
       <c r="A21" s="8"/>
@@ -28925,6 +28958,7 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
     </row>
     <row r="22">
       <c r="A22" s="8"/>
@@ -28946,6 +28980,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="8"/>
@@ -28967,6 +29002,7 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
     </row>
     <row r="24">
       <c r="A24" s="8"/>
@@ -28988,6 +29024,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
     </row>
     <row r="25">
       <c r="A25" s="8"/>
@@ -29009,6 +29046,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
     </row>
     <row r="26">
       <c r="A26" s="8"/>
@@ -29030,6 +29068,7 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
     </row>
     <row r="27">
       <c r="A27" s="8"/>
@@ -29051,6 +29090,7 @@
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="8"/>
@@ -29072,6 +29112,7 @@
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
     </row>
     <row r="29">
       <c r="A29" s="8"/>
@@ -29093,6 +29134,7 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="8"/>
@@ -29114,6 +29156,7 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="8"/>
@@ -29135,6 +29178,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
     </row>
     <row r="32">
       <c r="A32" s="8"/>
@@ -29156,6 +29200,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
@@ -29177,6 +29222,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
     </row>
     <row r="34">
       <c r="A34" s="8"/>
@@ -29198,6 +29244,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
     </row>
     <row r="35">
       <c r="A35" s="8"/>
@@ -29219,6 +29266,7 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
     </row>
     <row r="36">
       <c r="A36" s="8"/>
@@ -29240,6 +29288,7 @@
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
     </row>
     <row r="37">
       <c r="A37" s="8"/>
@@ -29261,6 +29310,7 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
     </row>
     <row r="38">
       <c r="A38" s="8"/>
@@ -29282,6 +29332,7 @@
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="8"/>
@@ -29303,6 +29354,7 @@
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
     </row>
     <row r="40">
       <c r="A40" s="8"/>
@@ -29324,6 +29376,7 @@
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="8"/>
@@ -29345,6 +29398,7 @@
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
     </row>
     <row r="42">
       <c r="A42" s="8"/>
@@ -29366,6 +29420,7 @@
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
     </row>
     <row r="43">
       <c r="A43" s="8"/>
@@ -29387,6 +29442,7 @@
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
     </row>
     <row r="44">
       <c r="A44" s="8"/>
@@ -29408,6 +29464,7 @@
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
       <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
     </row>
     <row r="45">
       <c r="A45" s="8"/>
@@ -29429,6 +29486,7 @@
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
     </row>
     <row r="46">
       <c r="A46" s="8"/>
@@ -29450,6 +29508,7 @@
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
     </row>
     <row r="47">
       <c r="A47" s="8"/>
@@ -29471,6 +29530,7 @@
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
     </row>
     <row r="48">
       <c r="A48" s="8"/>
@@ -29492,6 +29552,7 @@
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
     </row>
     <row r="49">
       <c r="A49" s="8"/>
@@ -29513,6 +29574,7 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
     </row>
     <row r="50">
       <c r="A50" s="8"/>
@@ -29534,6 +29596,7 @@
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
     </row>
     <row r="51">
       <c r="A51" s="8"/>
@@ -29555,6 +29618,7 @@
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
     </row>
     <row r="52">
       <c r="A52" s="8"/>
@@ -29576,6 +29640,7 @@
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
     </row>
     <row r="53">
       <c r="A53" s="8"/>
@@ -29597,6 +29662,7 @@
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
     </row>
     <row r="54">
       <c r="A54" s="8"/>
@@ -29618,6 +29684,7 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
     </row>
     <row r="55">
       <c r="A55" s="8"/>
@@ -29639,6 +29706,7 @@
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
       <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
     </row>
     <row r="56">
       <c r="A56" s="8"/>
@@ -29660,6 +29728,7 @@
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
     </row>
     <row r="57">
       <c r="A57" s="8"/>
@@ -29681,6 +29750,7 @@
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
       <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
     </row>
     <row r="58">
       <c r="A58" s="8"/>
@@ -29702,6 +29772,7 @@
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
     </row>
     <row r="59">
       <c r="A59" s="8"/>
@@ -29723,6 +29794,7 @@
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
     </row>
     <row r="60">
       <c r="A60" s="8"/>
@@ -29744,6 +29816,7 @@
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
     </row>
     <row r="61">
       <c r="A61" s="8"/>
@@ -29765,6 +29838,7 @@
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
     </row>
     <row r="62">
       <c r="A62" s="8"/>
@@ -29786,6 +29860,7 @@
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
     </row>
     <row r="63">
       <c r="A63" s="8"/>
@@ -29807,6 +29882,7 @@
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
     </row>
     <row r="64">
       <c r="A64" s="8"/>
@@ -29828,6 +29904,7 @@
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
     </row>
     <row r="65">
       <c r="A65" s="8"/>
@@ -29849,6 +29926,7 @@
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
     </row>
     <row r="66">
       <c r="A66" s="8"/>
@@ -29870,6 +29948,7 @@
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
       <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
     </row>
     <row r="67">
       <c r="A67" s="8"/>
@@ -29891,6 +29970,7 @@
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
       <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
     </row>
     <row r="68">
       <c r="A68" s="8"/>
@@ -29912,6 +29992,7 @@
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
     </row>
     <row r="69">
       <c r="A69" s="8"/>
@@ -29933,6 +30014,7 @@
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
       <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
     </row>
     <row r="70">
       <c r="A70" s="8"/>
@@ -29954,6 +30036,7 @@
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
       <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
     </row>
     <row r="71">
       <c r="A71" s="8"/>
@@ -29975,6 +30058,7 @@
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
     </row>
     <row r="72">
       <c r="A72" s="8"/>
@@ -29996,6 +30080,7 @@
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
     </row>
     <row r="73">
       <c r="A73" s="8"/>
@@ -30017,6 +30102,7 @@
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
       <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
     </row>
     <row r="74">
       <c r="A74" s="8"/>
@@ -30038,6 +30124,7 @@
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
       <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
     </row>
     <row r="75">
       <c r="A75" s="8"/>
@@ -30059,6 +30146,7 @@
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
       <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
     </row>
     <row r="76">
       <c r="A76" s="8"/>
@@ -30080,6 +30168,7 @@
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
       <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
     </row>
     <row r="77">
       <c r="A77" s="8"/>
@@ -30101,6 +30190,7 @@
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
       <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
     </row>
     <row r="78">
       <c r="A78" s="8"/>
@@ -30122,6 +30212,7 @@
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
       <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
     </row>
     <row r="79">
       <c r="A79" s="8"/>
@@ -30143,6 +30234,7 @@
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
     </row>
     <row r="80">
       <c r="A80" s="8"/>
@@ -30164,6 +30256,7 @@
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
       <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
     </row>
     <row r="81">
       <c r="A81" s="8"/>
@@ -30185,6 +30278,7 @@
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
       <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
     </row>
     <row r="82">
       <c r="A82" s="8"/>
@@ -30206,6 +30300,7 @@
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
     </row>
     <row r="83">
       <c r="A83" s="8"/>
@@ -30227,6 +30322,7 @@
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
     </row>
     <row r="84">
       <c r="A84" s="8"/>
@@ -30248,6 +30344,7 @@
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
       <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
     </row>
     <row r="85">
       <c r="A85" s="8"/>
@@ -30269,6 +30366,7 @@
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
     </row>
     <row r="86">
       <c r="A86" s="8"/>
@@ -30290,6 +30388,7 @@
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
       <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
     </row>
     <row r="87">
       <c r="A87" s="8"/>
@@ -30311,6 +30410,7 @@
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
       <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
     </row>
     <row r="88">
       <c r="A88" s="8"/>
@@ -30332,6 +30432,7 @@
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
       <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
     </row>
     <row r="89">
       <c r="A89" s="8"/>
@@ -30353,6 +30454,7 @@
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
       <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
     </row>
     <row r="90">
       <c r="A90" s="8"/>
@@ -30374,6 +30476,7 @@
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
     </row>
     <row r="91">
       <c r="A91" s="8"/>
@@ -30395,6 +30498,7 @@
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
     </row>
     <row r="92">
       <c r="A92" s="8"/>
@@ -30416,6 +30520,7 @@
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
     </row>
     <row r="93">
       <c r="A93" s="8"/>
@@ -30437,6 +30542,7 @@
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
     </row>
     <row r="94">
       <c r="A94" s="8"/>
@@ -30458,6 +30564,7 @@
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
       <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
     </row>
     <row r="95">
       <c r="A95" s="8"/>
@@ -30479,6 +30586,7 @@
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
       <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
     </row>
     <row r="96">
       <c r="A96" s="8"/>
@@ -30500,6 +30608,7 @@
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
       <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
     </row>
     <row r="97">
       <c r="A97" s="8"/>
@@ -30521,6 +30630,7 @@
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
       <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
     </row>
     <row r="98">
       <c r="A98" s="8"/>
@@ -30542,6 +30652,7 @@
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
       <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
     </row>
     <row r="99">
       <c r="A99" s="8"/>
@@ -30563,6 +30674,7 @@
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
       <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
     </row>
     <row r="100">
       <c r="A100" s="8"/>
@@ -30584,6 +30696,7 @@
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
       <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
     </row>
     <row r="101">
       <c r="A101" s="8"/>
@@ -30605,6 +30718,7 @@
       <c r="Q101" s="8"/>
       <c r="R101" s="8"/>
       <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
     </row>
     <row r="102">
       <c r="A102" s="8"/>
@@ -30626,6 +30740,7 @@
       <c r="Q102" s="8"/>
       <c r="R102" s="8"/>
       <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
     </row>
     <row r="103">
       <c r="A103" s="8"/>
@@ -30647,6 +30762,7 @@
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
       <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
     </row>
     <row r="104">
       <c r="A104" s="8"/>
@@ -30668,6 +30784,7 @@
       <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
       <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
     </row>
     <row r="105">
       <c r="A105" s="8"/>
@@ -30689,6 +30806,7 @@
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
       <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
     </row>
     <row r="106">
       <c r="A106" s="8"/>
@@ -30710,6 +30828,7 @@
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
       <c r="S106" s="8"/>
+      <c r="T106" s="8"/>
     </row>
     <row r="107">
       <c r="A107" s="8"/>
@@ -30731,6 +30850,7 @@
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
       <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
     </row>
     <row r="108">
       <c r="A108" s="8"/>
@@ -30752,6 +30872,7 @@
       <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
       <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
     </row>
     <row r="109">
       <c r="A109" s="8"/>
@@ -30773,6 +30894,7 @@
       <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
       <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
     </row>
     <row r="110">
       <c r="A110" s="8"/>
@@ -30794,6 +30916,7 @@
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
       <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
     </row>
     <row r="111">
       <c r="A111" s="8"/>
@@ -30815,6 +30938,7 @@
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
       <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
     </row>
     <row r="112">
       <c r="A112" s="8"/>
@@ -30836,6 +30960,7 @@
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
       <c r="S112" s="8"/>
+      <c r="T112" s="8"/>
     </row>
     <row r="113">
       <c r="A113" s="8"/>
@@ -30857,6 +30982,7 @@
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
       <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
     </row>
     <row r="114">
       <c r="A114" s="8"/>
@@ -30878,6 +31004,7 @@
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
       <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
     </row>
     <row r="115">
       <c r="A115" s="8"/>
@@ -30899,6 +31026,7 @@
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
       <c r="S115" s="8"/>
+      <c r="T115" s="8"/>
     </row>
     <row r="116">
       <c r="A116" s="8"/>
@@ -30920,6 +31048,7 @@
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
       <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
     </row>
     <row r="117">
       <c r="A117" s="8"/>
@@ -30941,6 +31070,7 @@
       <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
       <c r="S117" s="8"/>
+      <c r="T117" s="8"/>
     </row>
     <row r="118">
       <c r="A118" s="8"/>
@@ -30962,6 +31092,7 @@
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
       <c r="S118" s="8"/>
+      <c r="T118" s="8"/>
     </row>
     <row r="119">
       <c r="A119" s="8"/>
@@ -30983,6 +31114,7 @@
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
       <c r="S119" s="8"/>
+      <c r="T119" s="8"/>
     </row>
     <row r="120">
       <c r="A120" s="8"/>
@@ -31004,6 +31136,7 @@
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
       <c r="S120" s="8"/>
+      <c r="T120" s="8"/>
     </row>
     <row r="121">
       <c r="A121" s="8"/>
@@ -31025,6 +31158,7 @@
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
       <c r="S121" s="8"/>
+      <c r="T121" s="8"/>
     </row>
     <row r="122">
       <c r="A122" s="8"/>
@@ -31046,6 +31180,7 @@
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
       <c r="S122" s="8"/>
+      <c r="T122" s="8"/>
     </row>
     <row r="123">
       <c r="A123" s="8"/>
@@ -31067,6 +31202,7 @@
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
       <c r="S123" s="8"/>
+      <c r="T123" s="8"/>
     </row>
     <row r="124">
       <c r="A124" s="8"/>
@@ -31088,6 +31224,7 @@
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
       <c r="S124" s="8"/>
+      <c r="T124" s="8"/>
     </row>
     <row r="125">
       <c r="A125" s="8"/>
@@ -31109,6 +31246,7 @@
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
       <c r="S125" s="8"/>
+      <c r="T125" s="8"/>
     </row>
     <row r="126">
       <c r="A126" s="8"/>
@@ -31130,6 +31268,7 @@
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
       <c r="S126" s="8"/>
+      <c r="T126" s="8"/>
     </row>
     <row r="127">
       <c r="A127" s="8"/>
@@ -31151,6 +31290,7 @@
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
       <c r="S127" s="8"/>
+      <c r="T127" s="8"/>
     </row>
     <row r="128">
       <c r="A128" s="8"/>
@@ -31172,6 +31312,7 @@
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
       <c r="S128" s="8"/>
+      <c r="T128" s="8"/>
     </row>
     <row r="129">
       <c r="A129" s="8"/>
@@ -31193,6 +31334,7 @@
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
       <c r="S129" s="8"/>
+      <c r="T129" s="8"/>
     </row>
     <row r="130">
       <c r="A130" s="8"/>
@@ -31214,6 +31356,7 @@
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
       <c r="S130" s="8"/>
+      <c r="T130" s="8"/>
     </row>
     <row r="131">
       <c r="A131" s="8"/>
@@ -31235,6 +31378,7 @@
       <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
       <c r="S131" s="8"/>
+      <c r="T131" s="8"/>
     </row>
     <row r="132">
       <c r="A132" s="8"/>
@@ -31256,6 +31400,7 @@
       <c r="Q132" s="8"/>
       <c r="R132" s="8"/>
       <c r="S132" s="8"/>
+      <c r="T132" s="8"/>
     </row>
     <row r="133">
       <c r="A133" s="8"/>
@@ -31277,6 +31422,7 @@
       <c r="Q133" s="8"/>
       <c r="R133" s="8"/>
       <c r="S133" s="8"/>
+      <c r="T133" s="8"/>
     </row>
     <row r="134">
       <c r="A134" s="8"/>
@@ -31298,6 +31444,7 @@
       <c r="Q134" s="8"/>
       <c r="R134" s="8"/>
       <c r="S134" s="8"/>
+      <c r="T134" s="8"/>
     </row>
     <row r="135">
       <c r="A135" s="8"/>
@@ -31319,6 +31466,7 @@
       <c r="Q135" s="8"/>
       <c r="R135" s="8"/>
       <c r="S135" s="8"/>
+      <c r="T135" s="8"/>
     </row>
     <row r="136">
       <c r="A136" s="8"/>
@@ -31340,6 +31488,7 @@
       <c r="Q136" s="8"/>
       <c r="R136" s="8"/>
       <c r="S136" s="8"/>
+      <c r="T136" s="8"/>
     </row>
     <row r="137">
       <c r="A137" s="8"/>
@@ -31361,6 +31510,7 @@
       <c r="Q137" s="8"/>
       <c r="R137" s="8"/>
       <c r="S137" s="8"/>
+      <c r="T137" s="8"/>
     </row>
     <row r="138">
       <c r="A138" s="8"/>
@@ -31382,6 +31532,7 @@
       <c r="Q138" s="8"/>
       <c r="R138" s="8"/>
       <c r="S138" s="8"/>
+      <c r="T138" s="8"/>
     </row>
     <row r="139">
       <c r="A139" s="8"/>
@@ -31403,6 +31554,7 @@
       <c r="Q139" s="8"/>
       <c r="R139" s="8"/>
       <c r="S139" s="8"/>
+      <c r="T139" s="8"/>
     </row>
     <row r="140">
       <c r="A140" s="8"/>
@@ -31424,6 +31576,7 @@
       <c r="Q140" s="8"/>
       <c r="R140" s="8"/>
       <c r="S140" s="8"/>
+      <c r="T140" s="8"/>
     </row>
     <row r="141">
       <c r="A141" s="8"/>
@@ -31445,6 +31598,7 @@
       <c r="Q141" s="8"/>
       <c r="R141" s="8"/>
       <c r="S141" s="8"/>
+      <c r="T141" s="8"/>
     </row>
     <row r="142">
       <c r="A142" s="8"/>
@@ -31466,6 +31620,7 @@
       <c r="Q142" s="8"/>
       <c r="R142" s="8"/>
       <c r="S142" s="8"/>
+      <c r="T142" s="8"/>
     </row>
     <row r="143">
       <c r="A143" s="8"/>
@@ -31487,6 +31642,7 @@
       <c r="Q143" s="8"/>
       <c r="R143" s="8"/>
       <c r="S143" s="8"/>
+      <c r="T143" s="8"/>
     </row>
     <row r="144">
       <c r="A144" s="8"/>
@@ -31508,6 +31664,7 @@
       <c r="Q144" s="8"/>
       <c r="R144" s="8"/>
       <c r="S144" s="8"/>
+      <c r="T144" s="8"/>
     </row>
     <row r="145">
       <c r="A145" s="8"/>
@@ -31529,6 +31686,7 @@
       <c r="Q145" s="8"/>
       <c r="R145" s="8"/>
       <c r="S145" s="8"/>
+      <c r="T145" s="8"/>
     </row>
     <row r="146">
       <c r="A146" s="8"/>
@@ -31550,6 +31708,7 @@
       <c r="Q146" s="8"/>
       <c r="R146" s="8"/>
       <c r="S146" s="8"/>
+      <c r="T146" s="8"/>
     </row>
     <row r="147">
       <c r="A147" s="8"/>
@@ -31571,6 +31730,7 @@
       <c r="Q147" s="8"/>
       <c r="R147" s="8"/>
       <c r="S147" s="8"/>
+      <c r="T147" s="8"/>
     </row>
     <row r="148">
       <c r="A148" s="8"/>
@@ -31592,6 +31752,7 @@
       <c r="Q148" s="8"/>
       <c r="R148" s="8"/>
       <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
     </row>
     <row r="149">
       <c r="A149" s="8"/>
@@ -31613,6 +31774,7 @@
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
       <c r="S149" s="8"/>
+      <c r="T149" s="8"/>
     </row>
     <row r="150">
       <c r="A150" s="8"/>
@@ -31634,6 +31796,7 @@
       <c r="Q150" s="8"/>
       <c r="R150" s="8"/>
       <c r="S150" s="8"/>
+      <c r="T150" s="8"/>
     </row>
     <row r="151">
       <c r="A151" s="8"/>
@@ -31655,6 +31818,7 @@
       <c r="Q151" s="8"/>
       <c r="R151" s="8"/>
       <c r="S151" s="8"/>
+      <c r="T151" s="8"/>
     </row>
     <row r="152">
       <c r="A152" s="8"/>
@@ -31676,6 +31840,7 @@
       <c r="Q152" s="8"/>
       <c r="R152" s="8"/>
       <c r="S152" s="8"/>
+      <c r="T152" s="8"/>
     </row>
     <row r="153">
       <c r="A153" s="8"/>
@@ -31697,6 +31862,7 @@
       <c r="Q153" s="8"/>
       <c r="R153" s="8"/>
       <c r="S153" s="8"/>
+      <c r="T153" s="8"/>
     </row>
     <row r="154">
       <c r="A154" s="8"/>
@@ -31718,6 +31884,7 @@
       <c r="Q154" s="8"/>
       <c r="R154" s="8"/>
       <c r="S154" s="8"/>
+      <c r="T154" s="8"/>
     </row>
     <row r="155">
       <c r="A155" s="8"/>
@@ -31739,6 +31906,7 @@
       <c r="Q155" s="8"/>
       <c r="R155" s="8"/>
       <c r="S155" s="8"/>
+      <c r="T155" s="8"/>
     </row>
     <row r="156">
       <c r="A156" s="8"/>
@@ -31760,6 +31928,7 @@
       <c r="Q156" s="8"/>
       <c r="R156" s="8"/>
       <c r="S156" s="8"/>
+      <c r="T156" s="8"/>
     </row>
     <row r="157">
       <c r="A157" s="8"/>
@@ -31781,6 +31950,7 @@
       <c r="Q157" s="8"/>
       <c r="R157" s="8"/>
       <c r="S157" s="8"/>
+      <c r="T157" s="8"/>
     </row>
     <row r="158">
       <c r="A158" s="8"/>
@@ -31802,6 +31972,7 @@
       <c r="Q158" s="8"/>
       <c r="R158" s="8"/>
       <c r="S158" s="8"/>
+      <c r="T158" s="8"/>
     </row>
     <row r="159">
       <c r="A159" s="8"/>
@@ -31823,6 +31994,7 @@
       <c r="Q159" s="8"/>
       <c r="R159" s="8"/>
       <c r="S159" s="8"/>
+      <c r="T159" s="8"/>
     </row>
     <row r="160">
       <c r="A160" s="8"/>
@@ -31844,6 +32016,7 @@
       <c r="Q160" s="8"/>
       <c r="R160" s="8"/>
       <c r="S160" s="8"/>
+      <c r="T160" s="8"/>
     </row>
     <row r="161">
       <c r="A161" s="8"/>
@@ -31865,6 +32038,7 @@
       <c r="Q161" s="8"/>
       <c r="R161" s="8"/>
       <c r="S161" s="8"/>
+      <c r="T161" s="8"/>
     </row>
     <row r="162">
       <c r="A162" s="8"/>
@@ -31886,6 +32060,7 @@
       <c r="Q162" s="8"/>
       <c r="R162" s="8"/>
       <c r="S162" s="8"/>
+      <c r="T162" s="8"/>
     </row>
     <row r="163">
       <c r="A163" s="8"/>
@@ -31907,6 +32082,7 @@
       <c r="Q163" s="8"/>
       <c r="R163" s="8"/>
       <c r="S163" s="8"/>
+      <c r="T163" s="8"/>
     </row>
     <row r="164">
       <c r="A164" s="8"/>
@@ -31928,6 +32104,7 @@
       <c r="Q164" s="8"/>
       <c r="R164" s="8"/>
       <c r="S164" s="8"/>
+      <c r="T164" s="8"/>
     </row>
     <row r="165">
       <c r="A165" s="8"/>
@@ -31949,6 +32126,7 @@
       <c r="Q165" s="8"/>
       <c r="R165" s="8"/>
       <c r="S165" s="8"/>
+      <c r="T165" s="8"/>
     </row>
     <row r="166">
       <c r="A166" s="8"/>
@@ -31970,6 +32148,7 @@
       <c r="Q166" s="8"/>
       <c r="R166" s="8"/>
       <c r="S166" s="8"/>
+      <c r="T166" s="8"/>
     </row>
     <row r="167">
       <c r="A167" s="8"/>
@@ -31991,6 +32170,7 @@
       <c r="Q167" s="8"/>
       <c r="R167" s="8"/>
       <c r="S167" s="8"/>
+      <c r="T167" s="8"/>
     </row>
     <row r="168">
       <c r="A168" s="8"/>
@@ -32012,6 +32192,7 @@
       <c r="Q168" s="8"/>
       <c r="R168" s="8"/>
       <c r="S168" s="8"/>
+      <c r="T168" s="8"/>
     </row>
     <row r="169">
       <c r="A169" s="8"/>
@@ -32033,6 +32214,7 @@
       <c r="Q169" s="8"/>
       <c r="R169" s="8"/>
       <c r="S169" s="8"/>
+      <c r="T169" s="8"/>
     </row>
     <row r="170">
       <c r="A170" s="8"/>
@@ -32054,6 +32236,7 @@
       <c r="Q170" s="8"/>
       <c r="R170" s="8"/>
       <c r="S170" s="8"/>
+      <c r="T170" s="8"/>
     </row>
     <row r="171">
       <c r="A171" s="8"/>
@@ -32075,6 +32258,7 @@
       <c r="Q171" s="8"/>
       <c r="R171" s="8"/>
       <c r="S171" s="8"/>
+      <c r="T171" s="8"/>
     </row>
     <row r="172">
       <c r="A172" s="8"/>
@@ -32096,6 +32280,7 @@
       <c r="Q172" s="8"/>
       <c r="R172" s="8"/>
       <c r="S172" s="8"/>
+      <c r="T172" s="8"/>
     </row>
     <row r="173">
       <c r="A173" s="8"/>
@@ -32117,6 +32302,7 @@
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
       <c r="S173" s="8"/>
+      <c r="T173" s="8"/>
     </row>
     <row r="174">
       <c r="A174" s="8"/>
@@ -32138,6 +32324,7 @@
       <c r="Q174" s="8"/>
       <c r="R174" s="8"/>
       <c r="S174" s="8"/>
+      <c r="T174" s="8"/>
     </row>
     <row r="175">
       <c r="A175" s="8"/>
@@ -32159,6 +32346,7 @@
       <c r="Q175" s="8"/>
       <c r="R175" s="8"/>
       <c r="S175" s="8"/>
+      <c r="T175" s="8"/>
     </row>
     <row r="176">
       <c r="A176" s="8"/>
@@ -32180,6 +32368,7 @@
       <c r="Q176" s="8"/>
       <c r="R176" s="8"/>
       <c r="S176" s="8"/>
+      <c r="T176" s="8"/>
     </row>
     <row r="177">
       <c r="A177" s="8"/>
@@ -32201,6 +32390,7 @@
       <c r="Q177" s="8"/>
       <c r="R177" s="8"/>
       <c r="S177" s="8"/>
+      <c r="T177" s="8"/>
     </row>
     <row r="178">
       <c r="A178" s="8"/>
@@ -32222,6 +32412,7 @@
       <c r="Q178" s="8"/>
       <c r="R178" s="8"/>
       <c r="S178" s="8"/>
+      <c r="T178" s="8"/>
     </row>
     <row r="179">
       <c r="A179" s="8"/>
@@ -32243,6 +32434,7 @@
       <c r="Q179" s="8"/>
       <c r="R179" s="8"/>
       <c r="S179" s="8"/>
+      <c r="T179" s="8"/>
     </row>
     <row r="180">
       <c r="A180" s="8"/>
@@ -32264,6 +32456,7 @@
       <c r="Q180" s="8"/>
       <c r="R180" s="8"/>
       <c r="S180" s="8"/>
+      <c r="T180" s="8"/>
     </row>
     <row r="181">
       <c r="A181" s="8"/>
@@ -32285,6 +32478,7 @@
       <c r="Q181" s="8"/>
       <c r="R181" s="8"/>
       <c r="S181" s="8"/>
+      <c r="T181" s="8"/>
     </row>
     <row r="182">
       <c r="A182" s="8"/>
@@ -32306,6 +32500,7 @@
       <c r="Q182" s="8"/>
       <c r="R182" s="8"/>
       <c r="S182" s="8"/>
+      <c r="T182" s="8"/>
     </row>
     <row r="183">
       <c r="A183" s="8"/>
@@ -32327,6 +32522,7 @@
       <c r="Q183" s="8"/>
       <c r="R183" s="8"/>
       <c r="S183" s="8"/>
+      <c r="T183" s="8"/>
     </row>
     <row r="184">
       <c r="A184" s="8"/>
@@ -32348,6 +32544,7 @@
       <c r="Q184" s="8"/>
       <c r="R184" s="8"/>
       <c r="S184" s="8"/>
+      <c r="T184" s="8"/>
     </row>
     <row r="185">
       <c r="A185" s="8"/>
@@ -32369,6 +32566,7 @@
       <c r="Q185" s="8"/>
       <c r="R185" s="8"/>
       <c r="S185" s="8"/>
+      <c r="T185" s="8"/>
     </row>
     <row r="186">
       <c r="A186" s="8"/>
@@ -32390,6 +32588,7 @@
       <c r="Q186" s="8"/>
       <c r="R186" s="8"/>
       <c r="S186" s="8"/>
+      <c r="T186" s="8"/>
     </row>
     <row r="187">
       <c r="A187" s="8"/>
@@ -32411,6 +32610,7 @@
       <c r="Q187" s="8"/>
       <c r="R187" s="8"/>
       <c r="S187" s="8"/>
+      <c r="T187" s="8"/>
     </row>
     <row r="188">
       <c r="A188" s="8"/>
@@ -32432,6 +32632,7 @@
       <c r="Q188" s="8"/>
       <c r="R188" s="8"/>
       <c r="S188" s="8"/>
+      <c r="T188" s="8"/>
     </row>
     <row r="189">
       <c r="A189" s="8"/>
@@ -32453,6 +32654,7 @@
       <c r="Q189" s="8"/>
       <c r="R189" s="8"/>
       <c r="S189" s="8"/>
+      <c r="T189" s="8"/>
     </row>
     <row r="190">
       <c r="A190" s="8"/>
@@ -32474,6 +32676,7 @@
       <c r="Q190" s="8"/>
       <c r="R190" s="8"/>
       <c r="S190" s="8"/>
+      <c r="T190" s="8"/>
     </row>
     <row r="191">
       <c r="A191" s="8"/>
@@ -32495,6 +32698,7 @@
       <c r="Q191" s="8"/>
       <c r="R191" s="8"/>
       <c r="S191" s="8"/>
+      <c r="T191" s="8"/>
     </row>
     <row r="192">
       <c r="A192" s="8"/>
@@ -32516,6 +32720,7 @@
       <c r="Q192" s="8"/>
       <c r="R192" s="8"/>
       <c r="S192" s="8"/>
+      <c r="T192" s="8"/>
     </row>
     <row r="193">
       <c r="A193" s="8"/>
@@ -32537,6 +32742,7 @@
       <c r="Q193" s="8"/>
       <c r="R193" s="8"/>
       <c r="S193" s="8"/>
+      <c r="T193" s="8"/>
     </row>
     <row r="194">
       <c r="A194" s="8"/>
@@ -32558,6 +32764,7 @@
       <c r="Q194" s="8"/>
       <c r="R194" s="8"/>
       <c r="S194" s="8"/>
+      <c r="T194" s="8"/>
     </row>
     <row r="195">
       <c r="A195" s="8"/>
@@ -32579,6 +32786,7 @@
       <c r="Q195" s="8"/>
       <c r="R195" s="8"/>
       <c r="S195" s="8"/>
+      <c r="T195" s="8"/>
     </row>
     <row r="196">
       <c r="A196" s="8"/>
@@ -32600,6 +32808,7 @@
       <c r="Q196" s="8"/>
       <c r="R196" s="8"/>
       <c r="S196" s="8"/>
+      <c r="T196" s="8"/>
     </row>
     <row r="197">
       <c r="A197" s="8"/>
@@ -32621,6 +32830,7 @@
       <c r="Q197" s="8"/>
       <c r="R197" s="8"/>
       <c r="S197" s="8"/>
+      <c r="T197" s="8"/>
     </row>
     <row r="198">
       <c r="A198" s="8"/>
@@ -32642,6 +32852,7 @@
       <c r="Q198" s="8"/>
       <c r="R198" s="8"/>
       <c r="S198" s="8"/>
+      <c r="T198" s="8"/>
     </row>
     <row r="199">
       <c r="A199" s="8"/>
@@ -32663,6 +32874,7 @@
       <c r="Q199" s="8"/>
       <c r="R199" s="8"/>
       <c r="S199" s="8"/>
+      <c r="T199" s="8"/>
     </row>
     <row r="200">
       <c r="A200" s="8"/>
@@ -32684,6 +32896,7 @@
       <c r="Q200" s="8"/>
       <c r="R200" s="8"/>
       <c r="S200" s="8"/>
+      <c r="T200" s="8"/>
     </row>
     <row r="201">
       <c r="A201" s="8"/>
@@ -32705,6 +32918,7 @@
       <c r="Q201" s="8"/>
       <c r="R201" s="8"/>
       <c r="S201" s="8"/>
+      <c r="T201" s="8"/>
     </row>
     <row r="202">
       <c r="A202" s="8"/>
@@ -32726,6 +32940,7 @@
       <c r="Q202" s="8"/>
       <c r="R202" s="8"/>
       <c r="S202" s="8"/>
+      <c r="T202" s="8"/>
     </row>
     <row r="203">
       <c r="A203" s="8"/>
@@ -32747,6 +32962,7 @@
       <c r="Q203" s="8"/>
       <c r="R203" s="8"/>
       <c r="S203" s="8"/>
+      <c r="T203" s="8"/>
     </row>
     <row r="204">
       <c r="A204" s="8"/>
@@ -32768,6 +32984,7 @@
       <c r="Q204" s="8"/>
       <c r="R204" s="8"/>
       <c r="S204" s="8"/>
+      <c r="T204" s="8"/>
     </row>
     <row r="205">
       <c r="A205" s="8"/>
@@ -32789,6 +33006,7 @@
       <c r="Q205" s="8"/>
       <c r="R205" s="8"/>
       <c r="S205" s="8"/>
+      <c r="T205" s="8"/>
     </row>
     <row r="206">
       <c r="A206" s="8"/>
@@ -32810,6 +33028,7 @@
       <c r="Q206" s="8"/>
       <c r="R206" s="8"/>
       <c r="S206" s="8"/>
+      <c r="T206" s="8"/>
     </row>
     <row r="207">
       <c r="A207" s="8"/>
@@ -32831,6 +33050,7 @@
       <c r="Q207" s="8"/>
       <c r="R207" s="8"/>
       <c r="S207" s="8"/>
+      <c r="T207" s="8"/>
     </row>
     <row r="208">
       <c r="A208" s="8"/>
@@ -32852,6 +33072,7 @@
       <c r="Q208" s="8"/>
       <c r="R208" s="8"/>
       <c r="S208" s="8"/>
+      <c r="T208" s="8"/>
     </row>
     <row r="209">
       <c r="A209" s="8"/>
@@ -32873,6 +33094,7 @@
       <c r="Q209" s="8"/>
       <c r="R209" s="8"/>
       <c r="S209" s="8"/>
+      <c r="T209" s="8"/>
     </row>
     <row r="210">
       <c r="A210" s="8"/>
@@ -32894,6 +33116,7 @@
       <c r="Q210" s="8"/>
       <c r="R210" s="8"/>
       <c r="S210" s="8"/>
+      <c r="T210" s="8"/>
     </row>
     <row r="211">
       <c r="A211" s="8"/>
@@ -32915,6 +33138,7 @@
       <c r="Q211" s="8"/>
       <c r="R211" s="8"/>
       <c r="S211" s="8"/>
+      <c r="T211" s="8"/>
     </row>
     <row r="212">
       <c r="A212" s="8"/>
@@ -32936,6 +33160,7 @@
       <c r="Q212" s="8"/>
       <c r="R212" s="8"/>
       <c r="S212" s="8"/>
+      <c r="T212" s="8"/>
     </row>
     <row r="213">
       <c r="A213" s="8"/>
@@ -32957,6 +33182,7 @@
       <c r="Q213" s="8"/>
       <c r="R213" s="8"/>
       <c r="S213" s="8"/>
+      <c r="T213" s="8"/>
     </row>
     <row r="214">
       <c r="A214" s="8"/>
@@ -32978,6 +33204,7 @@
       <c r="Q214" s="8"/>
       <c r="R214" s="8"/>
       <c r="S214" s="8"/>
+      <c r="T214" s="8"/>
     </row>
     <row r="215">
       <c r="A215" s="8"/>
@@ -32999,6 +33226,7 @@
       <c r="Q215" s="8"/>
       <c r="R215" s="8"/>
       <c r="S215" s="8"/>
+      <c r="T215" s="8"/>
     </row>
     <row r="216">
       <c r="A216" s="8"/>
@@ -33020,6 +33248,7 @@
       <c r="Q216" s="8"/>
       <c r="R216" s="8"/>
       <c r="S216" s="8"/>
+      <c r="T216" s="8"/>
     </row>
     <row r="217">
       <c r="A217" s="8"/>
@@ -33041,6 +33270,7 @@
       <c r="Q217" s="8"/>
       <c r="R217" s="8"/>
       <c r="S217" s="8"/>
+      <c r="T217" s="8"/>
     </row>
     <row r="218">
       <c r="A218" s="8"/>
@@ -33062,6 +33292,7 @@
       <c r="Q218" s="8"/>
       <c r="R218" s="8"/>
       <c r="S218" s="8"/>
+      <c r="T218" s="8"/>
     </row>
     <row r="219">
       <c r="A219" s="8"/>
@@ -33083,6 +33314,7 @@
       <c r="Q219" s="8"/>
       <c r="R219" s="8"/>
       <c r="S219" s="8"/>
+      <c r="T219" s="8"/>
     </row>
     <row r="220">
       <c r="A220" s="8"/>
@@ -33104,6 +33336,7 @@
       <c r="Q220" s="8"/>
       <c r="R220" s="8"/>
       <c r="S220" s="8"/>
+      <c r="T220" s="8"/>
     </row>
     <row r="221">
       <c r="A221" s="8"/>
@@ -33125,6 +33358,7 @@
       <c r="Q221" s="8"/>
       <c r="R221" s="8"/>
       <c r="S221" s="8"/>
+      <c r="T221" s="8"/>
     </row>
     <row r="222">
       <c r="A222" s="8"/>
@@ -33146,6 +33380,7 @@
       <c r="Q222" s="8"/>
       <c r="R222" s="8"/>
       <c r="S222" s="8"/>
+      <c r="T222" s="8"/>
     </row>
     <row r="223">
       <c r="A223" s="8"/>
@@ -33167,6 +33402,7 @@
       <c r="Q223" s="8"/>
       <c r="R223" s="8"/>
       <c r="S223" s="8"/>
+      <c r="T223" s="8"/>
     </row>
     <row r="224">
       <c r="A224" s="8"/>
@@ -33188,6 +33424,7 @@
       <c r="Q224" s="8"/>
       <c r="R224" s="8"/>
       <c r="S224" s="8"/>
+      <c r="T224" s="8"/>
     </row>
     <row r="225">
       <c r="A225" s="8"/>
@@ -33209,6 +33446,7 @@
       <c r="Q225" s="8"/>
       <c r="R225" s="8"/>
       <c r="S225" s="8"/>
+      <c r="T225" s="8"/>
     </row>
     <row r="226">
       <c r="A226" s="8"/>
@@ -33230,6 +33468,7 @@
       <c r="Q226" s="8"/>
       <c r="R226" s="8"/>
       <c r="S226" s="8"/>
+      <c r="T226" s="8"/>
     </row>
     <row r="227">
       <c r="A227" s="8"/>
@@ -33251,6 +33490,7 @@
       <c r="Q227" s="8"/>
       <c r="R227" s="8"/>
       <c r="S227" s="8"/>
+      <c r="T227" s="8"/>
     </row>
     <row r="228">
       <c r="A228" s="8"/>
@@ -33272,6 +33512,7 @@
       <c r="Q228" s="8"/>
       <c r="R228" s="8"/>
       <c r="S228" s="8"/>
+      <c r="T228" s="8"/>
     </row>
     <row r="229">
       <c r="A229" s="8"/>
@@ -33293,6 +33534,7 @@
       <c r="Q229" s="8"/>
       <c r="R229" s="8"/>
       <c r="S229" s="8"/>
+      <c r="T229" s="8"/>
     </row>
     <row r="230">
       <c r="A230" s="8"/>
@@ -33314,6 +33556,7 @@
       <c r="Q230" s="8"/>
       <c r="R230" s="8"/>
       <c r="S230" s="8"/>
+      <c r="T230" s="8"/>
     </row>
     <row r="231">
       <c r="A231" s="8"/>
@@ -33335,6 +33578,7 @@
       <c r="Q231" s="8"/>
       <c r="R231" s="8"/>
       <c r="S231" s="8"/>
+      <c r="T231" s="8"/>
     </row>
     <row r="232">
       <c r="A232" s="8"/>
@@ -33356,6 +33600,7 @@
       <c r="Q232" s="8"/>
       <c r="R232" s="8"/>
       <c r="S232" s="8"/>
+      <c r="T232" s="8"/>
     </row>
     <row r="233">
       <c r="A233" s="8"/>
@@ -33377,6 +33622,7 @@
       <c r="Q233" s="8"/>
       <c r="R233" s="8"/>
       <c r="S233" s="8"/>
+      <c r="T233" s="8"/>
     </row>
     <row r="234">
       <c r="A234" s="8"/>
@@ -33398,6 +33644,7 @@
       <c r="Q234" s="8"/>
       <c r="R234" s="8"/>
       <c r="S234" s="8"/>
+      <c r="T234" s="8"/>
     </row>
     <row r="235">
       <c r="A235" s="8"/>
@@ -33419,6 +33666,7 @@
       <c r="Q235" s="8"/>
       <c r="R235" s="8"/>
       <c r="S235" s="8"/>
+      <c r="T235" s="8"/>
     </row>
     <row r="236">
       <c r="A236" s="8"/>
@@ -33440,6 +33688,7 @@
       <c r="Q236" s="8"/>
       <c r="R236" s="8"/>
       <c r="S236" s="8"/>
+      <c r="T236" s="8"/>
     </row>
     <row r="237">
       <c r="A237" s="8"/>
@@ -33461,6 +33710,7 @@
       <c r="Q237" s="8"/>
       <c r="R237" s="8"/>
       <c r="S237" s="8"/>
+      <c r="T237" s="8"/>
     </row>
     <row r="238">
       <c r="A238" s="8"/>
@@ -33482,6 +33732,7 @@
       <c r="Q238" s="8"/>
       <c r="R238" s="8"/>
       <c r="S238" s="8"/>
+      <c r="T238" s="8"/>
     </row>
     <row r="239">
       <c r="A239" s="8"/>
@@ -33503,6 +33754,7 @@
       <c r="Q239" s="8"/>
       <c r="R239" s="8"/>
       <c r="S239" s="8"/>
+      <c r="T239" s="8"/>
     </row>
     <row r="240">
       <c r="A240" s="8"/>
@@ -33524,6 +33776,7 @@
       <c r="Q240" s="8"/>
       <c r="R240" s="8"/>
       <c r="S240" s="8"/>
+      <c r="T240" s="8"/>
     </row>
     <row r="241">
       <c r="A241" s="8"/>
@@ -33545,6 +33798,7 @@
       <c r="Q241" s="8"/>
       <c r="R241" s="8"/>
       <c r="S241" s="8"/>
+      <c r="T241" s="8"/>
     </row>
     <row r="242">
       <c r="A242" s="8"/>
@@ -33566,6 +33820,7 @@
       <c r="Q242" s="8"/>
       <c r="R242" s="8"/>
       <c r="S242" s="8"/>
+      <c r="T242" s="8"/>
     </row>
     <row r="243">
       <c r="A243" s="8"/>
@@ -33587,6 +33842,7 @@
       <c r="Q243" s="8"/>
       <c r="R243" s="8"/>
       <c r="S243" s="8"/>
+      <c r="T243" s="8"/>
     </row>
     <row r="244">
       <c r="A244" s="8"/>
@@ -33608,6 +33864,7 @@
       <c r="Q244" s="8"/>
       <c r="R244" s="8"/>
       <c r="S244" s="8"/>
+      <c r="T244" s="8"/>
     </row>
     <row r="245">
       <c r="A245" s="8"/>
@@ -33629,6 +33886,7 @@
       <c r="Q245" s="8"/>
       <c r="R245" s="8"/>
       <c r="S245" s="8"/>
+      <c r="T245" s="8"/>
     </row>
     <row r="246">
       <c r="A246" s="8"/>
@@ -33650,6 +33908,7 @@
       <c r="Q246" s="8"/>
       <c r="R246" s="8"/>
       <c r="S246" s="8"/>
+      <c r="T246" s="8"/>
     </row>
     <row r="247">
       <c r="A247" s="8"/>
@@ -33671,6 +33930,7 @@
       <c r="Q247" s="8"/>
       <c r="R247" s="8"/>
       <c r="S247" s="8"/>
+      <c r="T247" s="8"/>
     </row>
     <row r="248">
       <c r="A248" s="8"/>
@@ -33692,6 +33952,7 @@
       <c r="Q248" s="8"/>
       <c r="R248" s="8"/>
       <c r="S248" s="8"/>
+      <c r="T248" s="8"/>
     </row>
     <row r="249">
       <c r="A249" s="8"/>
@@ -33713,6 +33974,7 @@
       <c r="Q249" s="8"/>
       <c r="R249" s="8"/>
       <c r="S249" s="8"/>
+      <c r="T249" s="8"/>
     </row>
     <row r="250">
       <c r="A250" s="8"/>
@@ -33734,6 +33996,7 @@
       <c r="Q250" s="8"/>
       <c r="R250" s="8"/>
       <c r="S250" s="8"/>
+      <c r="T250" s="8"/>
     </row>
     <row r="251">
       <c r="A251" s="8"/>
@@ -33755,6 +34018,7 @@
       <c r="Q251" s="8"/>
       <c r="R251" s="8"/>
       <c r="S251" s="8"/>
+      <c r="T251" s="8"/>
     </row>
     <row r="252">
       <c r="A252" s="8"/>
@@ -33776,6 +34040,7 @@
       <c r="Q252" s="8"/>
       <c r="R252" s="8"/>
       <c r="S252" s="8"/>
+      <c r="T252" s="8"/>
     </row>
     <row r="253">
       <c r="A253" s="8"/>
@@ -33797,6 +34062,7 @@
       <c r="Q253" s="8"/>
       <c r="R253" s="8"/>
       <c r="S253" s="8"/>
+      <c r="T253" s="8"/>
     </row>
     <row r="254">
       <c r="A254" s="8"/>
@@ -33818,6 +34084,7 @@
       <c r="Q254" s="8"/>
       <c r="R254" s="8"/>
       <c r="S254" s="8"/>
+      <c r="T254" s="8"/>
     </row>
     <row r="255">
       <c r="A255" s="8"/>
@@ -33839,6 +34106,7 @@
       <c r="Q255" s="8"/>
       <c r="R255" s="8"/>
       <c r="S255" s="8"/>
+      <c r="T255" s="8"/>
     </row>
     <row r="256">
       <c r="A256" s="8"/>
@@ -33860,6 +34128,7 @@
       <c r="Q256" s="8"/>
       <c r="R256" s="8"/>
       <c r="S256" s="8"/>
+      <c r="T256" s="8"/>
     </row>
     <row r="257">
       <c r="A257" s="8"/>
@@ -33881,6 +34150,7 @@
       <c r="Q257" s="8"/>
       <c r="R257" s="8"/>
       <c r="S257" s="8"/>
+      <c r="T257" s="8"/>
     </row>
     <row r="258">
       <c r="A258" s="8"/>
@@ -33902,6 +34172,7 @@
       <c r="Q258" s="8"/>
       <c r="R258" s="8"/>
       <c r="S258" s="8"/>
+      <c r="T258" s="8"/>
     </row>
     <row r="259">
       <c r="A259" s="8"/>
@@ -33923,6 +34194,7 @@
       <c r="Q259" s="8"/>
       <c r="R259" s="8"/>
       <c r="S259" s="8"/>
+      <c r="T259" s="8"/>
     </row>
     <row r="260">
       <c r="A260" s="8"/>
@@ -33944,6 +34216,7 @@
       <c r="Q260" s="8"/>
       <c r="R260" s="8"/>
       <c r="S260" s="8"/>
+      <c r="T260" s="8"/>
     </row>
     <row r="261">
       <c r="A261" s="8"/>
@@ -33965,6 +34238,7 @@
       <c r="Q261" s="8"/>
       <c r="R261" s="8"/>
       <c r="S261" s="8"/>
+      <c r="T261" s="8"/>
     </row>
     <row r="262">
       <c r="A262" s="8"/>
@@ -33986,6 +34260,7 @@
       <c r="Q262" s="8"/>
       <c r="R262" s="8"/>
       <c r="S262" s="8"/>
+      <c r="T262" s="8"/>
     </row>
     <row r="263">
       <c r="A263" s="8"/>
@@ -34007,6 +34282,7 @@
       <c r="Q263" s="8"/>
       <c r="R263" s="8"/>
       <c r="S263" s="8"/>
+      <c r="T263" s="8"/>
     </row>
     <row r="264">
       <c r="A264" s="8"/>
@@ -34028,6 +34304,7 @@
       <c r="Q264" s="8"/>
       <c r="R264" s="8"/>
       <c r="S264" s="8"/>
+      <c r="T264" s="8"/>
     </row>
     <row r="265">
       <c r="A265" s="8"/>
@@ -34049,6 +34326,7 @@
       <c r="Q265" s="8"/>
       <c r="R265" s="8"/>
       <c r="S265" s="8"/>
+      <c r="T265" s="8"/>
     </row>
     <row r="266">
       <c r="A266" s="8"/>
@@ -34070,6 +34348,7 @@
       <c r="Q266" s="8"/>
       <c r="R266" s="8"/>
       <c r="S266" s="8"/>
+      <c r="T266" s="8"/>
     </row>
     <row r="267">
       <c r="A267" s="8"/>
@@ -34091,6 +34370,7 @@
       <c r="Q267" s="8"/>
       <c r="R267" s="8"/>
       <c r="S267" s="8"/>
+      <c r="T267" s="8"/>
     </row>
     <row r="268">
       <c r="A268" s="8"/>
@@ -34112,6 +34392,7 @@
       <c r="Q268" s="8"/>
       <c r="R268" s="8"/>
       <c r="S268" s="8"/>
+      <c r="T268" s="8"/>
     </row>
     <row r="269">
       <c r="A269" s="8"/>
@@ -34133,6 +34414,7 @@
       <c r="Q269" s="8"/>
       <c r="R269" s="8"/>
       <c r="S269" s="8"/>
+      <c r="T269" s="8"/>
     </row>
     <row r="270">
       <c r="A270" s="8"/>
@@ -34154,6 +34436,7 @@
       <c r="Q270" s="8"/>
       <c r="R270" s="8"/>
       <c r="S270" s="8"/>
+      <c r="T270" s="8"/>
     </row>
     <row r="271">
       <c r="A271" s="8"/>
@@ -34175,6 +34458,7 @@
       <c r="Q271" s="8"/>
       <c r="R271" s="8"/>
       <c r="S271" s="8"/>
+      <c r="T271" s="8"/>
     </row>
     <row r="272">
       <c r="A272" s="8"/>
@@ -34196,6 +34480,7 @@
       <c r="Q272" s="8"/>
       <c r="R272" s="8"/>
       <c r="S272" s="8"/>
+      <c r="T272" s="8"/>
     </row>
     <row r="273">
       <c r="A273" s="8"/>
@@ -34217,6 +34502,7 @@
       <c r="Q273" s="8"/>
       <c r="R273" s="8"/>
       <c r="S273" s="8"/>
+      <c r="T273" s="8"/>
     </row>
     <row r="274">
       <c r="A274" s="8"/>
@@ -34238,6 +34524,7 @@
       <c r="Q274" s="8"/>
       <c r="R274" s="8"/>
       <c r="S274" s="8"/>
+      <c r="T274" s="8"/>
     </row>
     <row r="275">
       <c r="A275" s="8"/>
@@ -34259,6 +34546,7 @@
       <c r="Q275" s="8"/>
       <c r="R275" s="8"/>
       <c r="S275" s="8"/>
+      <c r="T275" s="8"/>
     </row>
     <row r="276">
       <c r="A276" s="8"/>
@@ -34280,6 +34568,7 @@
       <c r="Q276" s="8"/>
       <c r="R276" s="8"/>
       <c r="S276" s="8"/>
+      <c r="T276" s="8"/>
     </row>
     <row r="277">
       <c r="A277" s="8"/>
@@ -34301,6 +34590,7 @@
       <c r="Q277" s="8"/>
       <c r="R277" s="8"/>
       <c r="S277" s="8"/>
+      <c r="T277" s="8"/>
     </row>
     <row r="278">
       <c r="A278" s="8"/>
@@ -34322,6 +34612,7 @@
       <c r="Q278" s="8"/>
       <c r="R278" s="8"/>
       <c r="S278" s="8"/>
+      <c r="T278" s="8"/>
     </row>
     <row r="279">
       <c r="A279" s="8"/>
@@ -34343,6 +34634,7 @@
       <c r="Q279" s="8"/>
       <c r="R279" s="8"/>
       <c r="S279" s="8"/>
+      <c r="T279" s="8"/>
     </row>
     <row r="280">
       <c r="A280" s="8"/>
@@ -34364,6 +34656,7 @@
       <c r="Q280" s="8"/>
       <c r="R280" s="8"/>
       <c r="S280" s="8"/>
+      <c r="T280" s="8"/>
     </row>
     <row r="281">
       <c r="A281" s="8"/>
@@ -34385,6 +34678,7 @@
       <c r="Q281" s="8"/>
       <c r="R281" s="8"/>
       <c r="S281" s="8"/>
+      <c r="T281" s="8"/>
     </row>
     <row r="282">
       <c r="A282" s="8"/>
@@ -34406,6 +34700,7 @@
       <c r="Q282" s="8"/>
       <c r="R282" s="8"/>
       <c r="S282" s="8"/>
+      <c r="T282" s="8"/>
     </row>
     <row r="283">
       <c r="A283" s="8"/>
@@ -34427,6 +34722,7 @@
       <c r="Q283" s="8"/>
       <c r="R283" s="8"/>
       <c r="S283" s="8"/>
+      <c r="T283" s="8"/>
     </row>
     <row r="284">
       <c r="A284" s="8"/>
@@ -34448,6 +34744,7 @@
       <c r="Q284" s="8"/>
       <c r="R284" s="8"/>
       <c r="S284" s="8"/>
+      <c r="T284" s="8"/>
     </row>
     <row r="285">
       <c r="A285" s="8"/>
@@ -34469,6 +34766,7 @@
       <c r="Q285" s="8"/>
       <c r="R285" s="8"/>
       <c r="S285" s="8"/>
+      <c r="T285" s="8"/>
     </row>
     <row r="286">
       <c r="A286" s="8"/>
@@ -34490,6 +34788,7 @@
       <c r="Q286" s="8"/>
       <c r="R286" s="8"/>
       <c r="S286" s="8"/>
+      <c r="T286" s="8"/>
     </row>
     <row r="287">
       <c r="A287" s="8"/>
@@ -34511,6 +34810,7 @@
       <c r="Q287" s="8"/>
       <c r="R287" s="8"/>
       <c r="S287" s="8"/>
+      <c r="T287" s="8"/>
     </row>
     <row r="288">
       <c r="A288" s="8"/>
@@ -34532,6 +34832,7 @@
       <c r="Q288" s="8"/>
       <c r="R288" s="8"/>
       <c r="S288" s="8"/>
+      <c r="T288" s="8"/>
     </row>
     <row r="289">
       <c r="A289" s="8"/>
@@ -34553,6 +34854,7 @@
       <c r="Q289" s="8"/>
       <c r="R289" s="8"/>
       <c r="S289" s="8"/>
+      <c r="T289" s="8"/>
     </row>
     <row r="290">
       <c r="A290" s="8"/>
@@ -34574,6 +34876,7 @@
       <c r="Q290" s="8"/>
       <c r="R290" s="8"/>
       <c r="S290" s="8"/>
+      <c r="T290" s="8"/>
     </row>
     <row r="291">
       <c r="A291" s="8"/>
@@ -34595,6 +34898,7 @@
       <c r="Q291" s="8"/>
       <c r="R291" s="8"/>
       <c r="S291" s="8"/>
+      <c r="T291" s="8"/>
     </row>
     <row r="292">
       <c r="A292" s="8"/>
@@ -34616,6 +34920,7 @@
       <c r="Q292" s="8"/>
       <c r="R292" s="8"/>
       <c r="S292" s="8"/>
+      <c r="T292" s="8"/>
     </row>
     <row r="293">
       <c r="A293" s="8"/>
@@ -34637,6 +34942,7 @@
       <c r="Q293" s="8"/>
       <c r="R293" s="8"/>
       <c r="S293" s="8"/>
+      <c r="T293" s="8"/>
     </row>
     <row r="294">
       <c r="A294" s="8"/>
@@ -34658,6 +34964,7 @@
       <c r="Q294" s="8"/>
       <c r="R294" s="8"/>
       <c r="S294" s="8"/>
+      <c r="T294" s="8"/>
     </row>
     <row r="295">
       <c r="A295" s="8"/>
@@ -34679,6 +34986,7 @@
       <c r="Q295" s="8"/>
       <c r="R295" s="8"/>
       <c r="S295" s="8"/>
+      <c r="T295" s="8"/>
     </row>
     <row r="296">
       <c r="A296" s="8"/>
@@ -34700,6 +35008,7 @@
       <c r="Q296" s="8"/>
       <c r="R296" s="8"/>
       <c r="S296" s="8"/>
+      <c r="T296" s="8"/>
     </row>
     <row r="297">
       <c r="A297" s="8"/>
@@ -34721,6 +35030,7 @@
       <c r="Q297" s="8"/>
       <c r="R297" s="8"/>
       <c r="S297" s="8"/>
+      <c r="T297" s="8"/>
     </row>
     <row r="298">
       <c r="A298" s="8"/>
@@ -34742,6 +35052,7 @@
       <c r="Q298" s="8"/>
       <c r="R298" s="8"/>
       <c r="S298" s="8"/>
+      <c r="T298" s="8"/>
     </row>
     <row r="299">
       <c r="A299" s="8"/>
@@ -34763,6 +35074,7 @@
       <c r="Q299" s="8"/>
       <c r="R299" s="8"/>
       <c r="S299" s="8"/>
+      <c r="T299" s="8"/>
     </row>
     <row r="300">
       <c r="A300" s="8"/>
@@ -34784,6 +35096,7 @@
       <c r="Q300" s="8"/>
       <c r="R300" s="8"/>
       <c r="S300" s="8"/>
+      <c r="T300" s="8"/>
     </row>
     <row r="301">
       <c r="A301" s="8"/>
@@ -34805,6 +35118,7 @@
       <c r="Q301" s="8"/>
       <c r="R301" s="8"/>
       <c r="S301" s="8"/>
+      <c r="T301" s="8"/>
     </row>
     <row r="302">
       <c r="A302" s="8"/>
@@ -34826,6 +35140,7 @@
       <c r="Q302" s="8"/>
       <c r="R302" s="8"/>
       <c r="S302" s="8"/>
+      <c r="T302" s="8"/>
     </row>
     <row r="303">
       <c r="A303" s="8"/>
@@ -34847,6 +35162,7 @@
       <c r="Q303" s="8"/>
       <c r="R303" s="8"/>
       <c r="S303" s="8"/>
+      <c r="T303" s="8"/>
     </row>
     <row r="304">
       <c r="A304" s="8"/>
@@ -34868,6 +35184,7 @@
       <c r="Q304" s="8"/>
       <c r="R304" s="8"/>
       <c r="S304" s="8"/>
+      <c r="T304" s="8"/>
     </row>
     <row r="305">
       <c r="A305" s="8"/>
@@ -34889,6 +35206,7 @@
       <c r="Q305" s="8"/>
       <c r="R305" s="8"/>
       <c r="S305" s="8"/>
+      <c r="T305" s="8"/>
     </row>
     <row r="306">
       <c r="A306" s="8"/>
@@ -34910,6 +35228,7 @@
       <c r="Q306" s="8"/>
       <c r="R306" s="8"/>
       <c r="S306" s="8"/>
+      <c r="T306" s="8"/>
     </row>
     <row r="307">
       <c r="A307" s="8"/>
@@ -34931,6 +35250,7 @@
       <c r="Q307" s="8"/>
       <c r="R307" s="8"/>
       <c r="S307" s="8"/>
+      <c r="T307" s="8"/>
     </row>
     <row r="308">
       <c r="A308" s="8"/>
@@ -34952,6 +35272,7 @@
       <c r="Q308" s="8"/>
       <c r="R308" s="8"/>
       <c r="S308" s="8"/>
+      <c r="T308" s="8"/>
     </row>
     <row r="309">
       <c r="A309" s="8"/>
@@ -34973,6 +35294,7 @@
       <c r="Q309" s="8"/>
       <c r="R309" s="8"/>
       <c r="S309" s="8"/>
+      <c r="T309" s="8"/>
     </row>
     <row r="310">
       <c r="A310" s="8"/>
@@ -34994,6 +35316,7 @@
       <c r="Q310" s="8"/>
       <c r="R310" s="8"/>
       <c r="S310" s="8"/>
+      <c r="T310" s="8"/>
     </row>
     <row r="311">
       <c r="A311" s="8"/>
@@ -35015,6 +35338,7 @@
       <c r="Q311" s="8"/>
       <c r="R311" s="8"/>
       <c r="S311" s="8"/>
+      <c r="T311" s="8"/>
     </row>
     <row r="312">
       <c r="A312" s="8"/>
@@ -35036,6 +35360,7 @@
       <c r="Q312" s="8"/>
       <c r="R312" s="8"/>
       <c r="S312" s="8"/>
+      <c r="T312" s="8"/>
     </row>
     <row r="313">
       <c r="A313" s="8"/>
@@ -35057,6 +35382,7 @@
       <c r="Q313" s="8"/>
       <c r="R313" s="8"/>
       <c r="S313" s="8"/>
+      <c r="T313" s="8"/>
     </row>
     <row r="314">
       <c r="A314" s="8"/>
@@ -35078,6 +35404,7 @@
       <c r="Q314" s="8"/>
       <c r="R314" s="8"/>
       <c r="S314" s="8"/>
+      <c r="T314" s="8"/>
     </row>
     <row r="315">
       <c r="A315" s="8"/>
@@ -35099,6 +35426,7 @@
       <c r="Q315" s="8"/>
       <c r="R315" s="8"/>
       <c r="S315" s="8"/>
+      <c r="T315" s="8"/>
     </row>
     <row r="316">
       <c r="A316" s="8"/>
@@ -35120,6 +35448,7 @@
       <c r="Q316" s="8"/>
       <c r="R316" s="8"/>
       <c r="S316" s="8"/>
+      <c r="T316" s="8"/>
     </row>
     <row r="317">
       <c r="A317" s="8"/>
@@ -35141,6 +35470,7 @@
       <c r="Q317" s="8"/>
       <c r="R317" s="8"/>
       <c r="S317" s="8"/>
+      <c r="T317" s="8"/>
     </row>
     <row r="318">
       <c r="A318" s="8"/>
@@ -35162,6 +35492,7 @@
       <c r="Q318" s="8"/>
       <c r="R318" s="8"/>
       <c r="S318" s="8"/>
+      <c r="T318" s="8"/>
     </row>
     <row r="319">
       <c r="A319" s="8"/>
@@ -35183,6 +35514,7 @@
       <c r="Q319" s="8"/>
       <c r="R319" s="8"/>
       <c r="S319" s="8"/>
+      <c r="T319" s="8"/>
     </row>
     <row r="320">
       <c r="A320" s="8"/>
@@ -35204,6 +35536,7 @@
       <c r="Q320" s="8"/>
       <c r="R320" s="8"/>
       <c r="S320" s="8"/>
+      <c r="T320" s="8"/>
     </row>
     <row r="321">
       <c r="A321" s="8"/>
@@ -35225,6 +35558,7 @@
       <c r="Q321" s="8"/>
       <c r="R321" s="8"/>
       <c r="S321" s="8"/>
+      <c r="T321" s="8"/>
     </row>
     <row r="322">
       <c r="A322" s="8"/>
@@ -35246,6 +35580,7 @@
       <c r="Q322" s="8"/>
       <c r="R322" s="8"/>
       <c r="S322" s="8"/>
+      <c r="T322" s="8"/>
     </row>
     <row r="323">
       <c r="A323" s="8"/>
@@ -35267,6 +35602,7 @@
       <c r="Q323" s="8"/>
       <c r="R323" s="8"/>
       <c r="S323" s="8"/>
+      <c r="T323" s="8"/>
     </row>
     <row r="324">
       <c r="A324" s="8"/>
@@ -35288,6 +35624,7 @@
       <c r="Q324" s="8"/>
       <c r="R324" s="8"/>
       <c r="S324" s="8"/>
+      <c r="T324" s="8"/>
     </row>
     <row r="325">
       <c r="A325" s="8"/>
@@ -35309,6 +35646,7 @@
       <c r="Q325" s="8"/>
       <c r="R325" s="8"/>
       <c r="S325" s="8"/>
+      <c r="T325" s="8"/>
     </row>
     <row r="326">
       <c r="A326" s="8"/>
@@ -35330,6 +35668,7 @@
       <c r="Q326" s="8"/>
       <c r="R326" s="8"/>
       <c r="S326" s="8"/>
+      <c r="T326" s="8"/>
     </row>
     <row r="327">
       <c r="A327" s="8"/>
@@ -35351,6 +35690,7 @@
       <c r="Q327" s="8"/>
       <c r="R327" s="8"/>
       <c r="S327" s="8"/>
+      <c r="T327" s="8"/>
     </row>
     <row r="328">
       <c r="A328" s="8"/>
@@ -35372,6 +35712,7 @@
       <c r="Q328" s="8"/>
       <c r="R328" s="8"/>
       <c r="S328" s="8"/>
+      <c r="T328" s="8"/>
     </row>
     <row r="329">
       <c r="A329" s="8"/>
@@ -35393,6 +35734,7 @@
       <c r="Q329" s="8"/>
       <c r="R329" s="8"/>
       <c r="S329" s="8"/>
+      <c r="T329" s="8"/>
     </row>
     <row r="330">
       <c r="A330" s="8"/>
@@ -35414,6 +35756,7 @@
       <c r="Q330" s="8"/>
       <c r="R330" s="8"/>
       <c r="S330" s="8"/>
+      <c r="T330" s="8"/>
     </row>
     <row r="331">
       <c r="A331" s="8"/>
@@ -35435,6 +35778,7 @@
       <c r="Q331" s="8"/>
       <c r="R331" s="8"/>
       <c r="S331" s="8"/>
+      <c r="T331" s="8"/>
     </row>
     <row r="332">
       <c r="A332" s="8"/>
@@ -35456,6 +35800,7 @@
       <c r="Q332" s="8"/>
       <c r="R332" s="8"/>
       <c r="S332" s="8"/>
+      <c r="T332" s="8"/>
     </row>
     <row r="333">
       <c r="A333" s="8"/>
@@ -35477,6 +35822,7 @@
       <c r="Q333" s="8"/>
       <c r="R333" s="8"/>
       <c r="S333" s="8"/>
+      <c r="T333" s="8"/>
     </row>
     <row r="334">
       <c r="A334" s="8"/>
@@ -35498,6 +35844,7 @@
       <c r="Q334" s="8"/>
       <c r="R334" s="8"/>
       <c r="S334" s="8"/>
+      <c r="T334" s="8"/>
     </row>
     <row r="335">
       <c r="A335" s="8"/>
@@ -35519,6 +35866,7 @@
       <c r="Q335" s="8"/>
       <c r="R335" s="8"/>
       <c r="S335" s="8"/>
+      <c r="T335" s="8"/>
     </row>
     <row r="336">
       <c r="A336" s="8"/>
@@ -35540,6 +35888,7 @@
       <c r="Q336" s="8"/>
       <c r="R336" s="8"/>
       <c r="S336" s="8"/>
+      <c r="T336" s="8"/>
     </row>
     <row r="337">
       <c r="A337" s="8"/>
@@ -35561,6 +35910,7 @@
       <c r="Q337" s="8"/>
       <c r="R337" s="8"/>
       <c r="S337" s="8"/>
+      <c r="T337" s="8"/>
     </row>
     <row r="338">
       <c r="A338" s="8"/>
@@ -35582,6 +35932,7 @@
       <c r="Q338" s="8"/>
       <c r="R338" s="8"/>
       <c r="S338" s="8"/>
+      <c r="T338" s="8"/>
     </row>
     <row r="339">
       <c r="A339" s="8"/>
@@ -35603,6 +35954,7 @@
       <c r="Q339" s="8"/>
       <c r="R339" s="8"/>
       <c r="S339" s="8"/>
+      <c r="T339" s="8"/>
     </row>
     <row r="340">
       <c r="A340" s="8"/>
@@ -35624,6 +35976,7 @@
       <c r="Q340" s="8"/>
       <c r="R340" s="8"/>
       <c r="S340" s="8"/>
+      <c r="T340" s="8"/>
     </row>
     <row r="341">
       <c r="A341" s="8"/>
@@ -35645,6 +35998,7 @@
       <c r="Q341" s="8"/>
       <c r="R341" s="8"/>
       <c r="S341" s="8"/>
+      <c r="T341" s="8"/>
     </row>
     <row r="342">
       <c r="A342" s="8"/>
@@ -35666,6 +36020,7 @@
       <c r="Q342" s="8"/>
       <c r="R342" s="8"/>
       <c r="S342" s="8"/>
+      <c r="T342" s="8"/>
     </row>
     <row r="343">
       <c r="A343" s="8"/>
@@ -35687,6 +36042,7 @@
       <c r="Q343" s="8"/>
       <c r="R343" s="8"/>
       <c r="S343" s="8"/>
+      <c r="T343" s="8"/>
     </row>
     <row r="344">
       <c r="A344" s="8"/>
@@ -35708,6 +36064,7 @@
       <c r="Q344" s="8"/>
       <c r="R344" s="8"/>
       <c r="S344" s="8"/>
+      <c r="T344" s="8"/>
     </row>
     <row r="345">
       <c r="A345" s="8"/>
@@ -35729,6 +36086,7 @@
       <c r="Q345" s="8"/>
       <c r="R345" s="8"/>
       <c r="S345" s="8"/>
+      <c r="T345" s="8"/>
     </row>
     <row r="346">
       <c r="A346" s="8"/>
@@ -35750,6 +36108,7 @@
       <c r="Q346" s="8"/>
       <c r="R346" s="8"/>
       <c r="S346" s="8"/>
+      <c r="T346" s="8"/>
     </row>
     <row r="347">
       <c r="A347" s="8"/>
@@ -35771,6 +36130,7 @@
       <c r="Q347" s="8"/>
       <c r="R347" s="8"/>
       <c r="S347" s="8"/>
+      <c r="T347" s="8"/>
     </row>
     <row r="348">
       <c r="A348" s="8"/>
@@ -35792,6 +36152,7 @@
       <c r="Q348" s="8"/>
       <c r="R348" s="8"/>
       <c r="S348" s="8"/>
+      <c r="T348" s="8"/>
     </row>
     <row r="349">
       <c r="A349" s="8"/>
@@ -35813,6 +36174,7 @@
       <c r="Q349" s="8"/>
       <c r="R349" s="8"/>
       <c r="S349" s="8"/>
+      <c r="T349" s="8"/>
     </row>
     <row r="350">
       <c r="A350" s="8"/>
@@ -35834,6 +36196,7 @@
       <c r="Q350" s="8"/>
       <c r="R350" s="8"/>
       <c r="S350" s="8"/>
+      <c r="T350" s="8"/>
     </row>
     <row r="351">
       <c r="A351" s="8"/>
@@ -35855,6 +36218,7 @@
       <c r="Q351" s="8"/>
       <c r="R351" s="8"/>
       <c r="S351" s="8"/>
+      <c r="T351" s="8"/>
     </row>
     <row r="352">
       <c r="A352" s="8"/>
@@ -35876,6 +36240,7 @@
       <c r="Q352" s="8"/>
       <c r="R352" s="8"/>
       <c r="S352" s="8"/>
+      <c r="T352" s="8"/>
     </row>
     <row r="353">
       <c r="A353" s="8"/>
@@ -35897,6 +36262,7 @@
       <c r="Q353" s="8"/>
       <c r="R353" s="8"/>
       <c r="S353" s="8"/>
+      <c r="T353" s="8"/>
     </row>
     <row r="354">
       <c r="A354" s="8"/>
@@ -35918,6 +36284,7 @@
       <c r="Q354" s="8"/>
       <c r="R354" s="8"/>
       <c r="S354" s="8"/>
+      <c r="T354" s="8"/>
     </row>
     <row r="355">
       <c r="A355" s="8"/>
@@ -35939,6 +36306,7 @@
       <c r="Q355" s="8"/>
       <c r="R355" s="8"/>
       <c r="S355" s="8"/>
+      <c r="T355" s="8"/>
     </row>
     <row r="356">
       <c r="A356" s="8"/>
@@ -35960,6 +36328,7 @@
       <c r="Q356" s="8"/>
       <c r="R356" s="8"/>
       <c r="S356" s="8"/>
+      <c r="T356" s="8"/>
     </row>
     <row r="357">
       <c r="A357" s="8"/>
@@ -35981,6 +36350,7 @@
       <c r="Q357" s="8"/>
       <c r="R357" s="8"/>
       <c r="S357" s="8"/>
+      <c r="T357" s="8"/>
     </row>
     <row r="358">
       <c r="A358" s="8"/>
@@ -36002,6 +36372,7 @@
       <c r="Q358" s="8"/>
       <c r="R358" s="8"/>
       <c r="S358" s="8"/>
+      <c r="T358" s="8"/>
     </row>
     <row r="359">
       <c r="A359" s="8"/>
@@ -36023,6 +36394,7 @@
       <c r="Q359" s="8"/>
       <c r="R359" s="8"/>
       <c r="S359" s="8"/>
+      <c r="T359" s="8"/>
     </row>
     <row r="360">
       <c r="A360" s="8"/>
@@ -36044,6 +36416,7 @@
       <c r="Q360" s="8"/>
       <c r="R360" s="8"/>
       <c r="S360" s="8"/>
+      <c r="T360" s="8"/>
     </row>
     <row r="361">
       <c r="A361" s="8"/>
@@ -36065,6 +36438,7 @@
       <c r="Q361" s="8"/>
       <c r="R361" s="8"/>
       <c r="S361" s="8"/>
+      <c r="T361" s="8"/>
     </row>
     <row r="362">
       <c r="A362" s="8"/>
@@ -36086,6 +36460,7 @@
       <c r="Q362" s="8"/>
       <c r="R362" s="8"/>
       <c r="S362" s="8"/>
+      <c r="T362" s="8"/>
     </row>
     <row r="363">
       <c r="A363" s="8"/>
@@ -36107,6 +36482,7 @@
       <c r="Q363" s="8"/>
       <c r="R363" s="8"/>
       <c r="S363" s="8"/>
+      <c r="T363" s="8"/>
     </row>
     <row r="364">
       <c r="A364" s="8"/>
@@ -36128,6 +36504,7 @@
       <c r="Q364" s="8"/>
       <c r="R364" s="8"/>
       <c r="S364" s="8"/>
+      <c r="T364" s="8"/>
     </row>
     <row r="365">
       <c r="A365" s="8"/>
@@ -36149,6 +36526,7 @@
       <c r="Q365" s="8"/>
       <c r="R365" s="8"/>
       <c r="S365" s="8"/>
+      <c r="T365" s="8"/>
     </row>
     <row r="366">
       <c r="A366" s="8"/>
@@ -36170,6 +36548,7 @@
       <c r="Q366" s="8"/>
       <c r="R366" s="8"/>
       <c r="S366" s="8"/>
+      <c r="T366" s="8"/>
     </row>
     <row r="367">
       <c r="A367" s="8"/>
@@ -36191,6 +36570,7 @@
       <c r="Q367" s="8"/>
       <c r="R367" s="8"/>
       <c r="S367" s="8"/>
+      <c r="T367" s="8"/>
     </row>
     <row r="368">
       <c r="A368" s="8"/>
@@ -36212,6 +36592,7 @@
       <c r="Q368" s="8"/>
       <c r="R368" s="8"/>
       <c r="S368" s="8"/>
+      <c r="T368" s="8"/>
     </row>
     <row r="369">
       <c r="A369" s="8"/>
@@ -36233,6 +36614,7 @@
       <c r="Q369" s="8"/>
       <c r="R369" s="8"/>
       <c r="S369" s="8"/>
+      <c r="T369" s="8"/>
     </row>
     <row r="370">
       <c r="A370" s="8"/>
@@ -36254,6 +36636,7 @@
       <c r="Q370" s="8"/>
       <c r="R370" s="8"/>
       <c r="S370" s="8"/>
+      <c r="T370" s="8"/>
     </row>
     <row r="371">
       <c r="A371" s="8"/>
@@ -36275,6 +36658,7 @@
       <c r="Q371" s="8"/>
       <c r="R371" s="8"/>
       <c r="S371" s="8"/>
+      <c r="T371" s="8"/>
     </row>
     <row r="372">
       <c r="A372" s="8"/>
@@ -36296,6 +36680,7 @@
       <c r="Q372" s="8"/>
       <c r="R372" s="8"/>
       <c r="S372" s="8"/>
+      <c r="T372" s="8"/>
     </row>
     <row r="373">
       <c r="A373" s="8"/>
@@ -36317,6 +36702,7 @@
       <c r="Q373" s="8"/>
       <c r="R373" s="8"/>
       <c r="S373" s="8"/>
+      <c r="T373" s="8"/>
     </row>
     <row r="374">
       <c r="A374" s="8"/>
@@ -36338,6 +36724,7 @@
       <c r="Q374" s="8"/>
       <c r="R374" s="8"/>
       <c r="S374" s="8"/>
+      <c r="T374" s="8"/>
     </row>
     <row r="375">
       <c r="A375" s="8"/>
@@ -36359,6 +36746,7 @@
       <c r="Q375" s="8"/>
       <c r="R375" s="8"/>
       <c r="S375" s="8"/>
+      <c r="T375" s="8"/>
     </row>
     <row r="376">
       <c r="A376" s="8"/>
@@ -36380,6 +36768,7 @@
       <c r="Q376" s="8"/>
       <c r="R376" s="8"/>
       <c r="S376" s="8"/>
+      <c r="T376" s="8"/>
     </row>
     <row r="377">
       <c r="A377" s="8"/>
@@ -36401,6 +36790,7 @@
       <c r="Q377" s="8"/>
       <c r="R377" s="8"/>
       <c r="S377" s="8"/>
+      <c r="T377" s="8"/>
     </row>
     <row r="378">
       <c r="A378" s="8"/>
@@ -36422,6 +36812,7 @@
       <c r="Q378" s="8"/>
       <c r="R378" s="8"/>
       <c r="S378" s="8"/>
+      <c r="T378" s="8"/>
     </row>
     <row r="379">
       <c r="A379" s="8"/>
@@ -36443,6 +36834,7 @@
       <c r="Q379" s="8"/>
       <c r="R379" s="8"/>
       <c r="S379" s="8"/>
+      <c r="T379" s="8"/>
     </row>
     <row r="380">
       <c r="A380" s="8"/>
@@ -36464,6 +36856,7 @@
       <c r="Q380" s="8"/>
       <c r="R380" s="8"/>
       <c r="S380" s="8"/>
+      <c r="T380" s="8"/>
     </row>
     <row r="381">
       <c r="A381" s="8"/>
@@ -36485,6 +36878,7 @@
       <c r="Q381" s="8"/>
       <c r="R381" s="8"/>
       <c r="S381" s="8"/>
+      <c r="T381" s="8"/>
     </row>
     <row r="382">
       <c r="A382" s="8"/>
@@ -36506,6 +36900,7 @@
       <c r="Q382" s="8"/>
       <c r="R382" s="8"/>
       <c r="S382" s="8"/>
+      <c r="T382" s="8"/>
     </row>
     <row r="383">
       <c r="A383" s="8"/>
@@ -36527,6 +36922,7 @@
       <c r="Q383" s="8"/>
       <c r="R383" s="8"/>
       <c r="S383" s="8"/>
+      <c r="T383" s="8"/>
     </row>
     <row r="384">
       <c r="A384" s="8"/>
@@ -36548,6 +36944,7 @@
       <c r="Q384" s="8"/>
       <c r="R384" s="8"/>
       <c r="S384" s="8"/>
+      <c r="T384" s="8"/>
     </row>
     <row r="385">
       <c r="A385" s="8"/>
@@ -36569,6 +36966,7 @@
       <c r="Q385" s="8"/>
       <c r="R385" s="8"/>
       <c r="S385" s="8"/>
+      <c r="T385" s="8"/>
     </row>
     <row r="386">
       <c r="A386" s="8"/>
@@ -36590,6 +36988,7 @@
       <c r="Q386" s="8"/>
       <c r="R386" s="8"/>
       <c r="S386" s="8"/>
+      <c r="T386" s="8"/>
     </row>
     <row r="387">
       <c r="A387" s="8"/>
@@ -36611,6 +37010,7 @@
       <c r="Q387" s="8"/>
       <c r="R387" s="8"/>
       <c r="S387" s="8"/>
+      <c r="T387" s="8"/>
     </row>
     <row r="388">
       <c r="A388" s="8"/>
@@ -36632,6 +37032,7 @@
       <c r="Q388" s="8"/>
       <c r="R388" s="8"/>
       <c r="S388" s="8"/>
+      <c r="T388" s="8"/>
     </row>
     <row r="389">
       <c r="A389" s="8"/>
@@ -36653,6 +37054,7 @@
       <c r="Q389" s="8"/>
       <c r="R389" s="8"/>
       <c r="S389" s="8"/>
+      <c r="T389" s="8"/>
     </row>
     <row r="390">
       <c r="A390" s="8"/>
@@ -36674,6 +37076,7 @@
       <c r="Q390" s="8"/>
       <c r="R390" s="8"/>
       <c r="S390" s="8"/>
+      <c r="T390" s="8"/>
     </row>
     <row r="391">
       <c r="A391" s="8"/>
@@ -36695,6 +37098,7 @@
       <c r="Q391" s="8"/>
       <c r="R391" s="8"/>
       <c r="S391" s="8"/>
+      <c r="T391" s="8"/>
     </row>
     <row r="392">
       <c r="A392" s="8"/>
@@ -36716,6 +37120,7 @@
       <c r="Q392" s="8"/>
       <c r="R392" s="8"/>
       <c r="S392" s="8"/>
+      <c r="T392" s="8"/>
     </row>
     <row r="393">
       <c r="A393" s="8"/>
@@ -36737,6 +37142,7 @@
       <c r="Q393" s="8"/>
       <c r="R393" s="8"/>
       <c r="S393" s="8"/>
+      <c r="T393" s="8"/>
     </row>
     <row r="394">
       <c r="A394" s="8"/>
@@ -36758,6 +37164,7 @@
       <c r="Q394" s="8"/>
       <c r="R394" s="8"/>
       <c r="S394" s="8"/>
+      <c r="T394" s="8"/>
     </row>
     <row r="395">
       <c r="A395" s="8"/>
@@ -36779,6 +37186,7 @@
       <c r="Q395" s="8"/>
       <c r="R395" s="8"/>
       <c r="S395" s="8"/>
+      <c r="T395" s="8"/>
     </row>
     <row r="396">
       <c r="A396" s="8"/>
@@ -36800,6 +37208,7 @@
       <c r="Q396" s="8"/>
       <c r="R396" s="8"/>
       <c r="S396" s="8"/>
+      <c r="T396" s="8"/>
     </row>
     <row r="397">
       <c r="A397" s="8"/>
@@ -36821,6 +37230,7 @@
       <c r="Q397" s="8"/>
       <c r="R397" s="8"/>
       <c r="S397" s="8"/>
+      <c r="T397" s="8"/>
     </row>
     <row r="398">
       <c r="A398" s="8"/>
@@ -36842,6 +37252,7 @@
       <c r="Q398" s="8"/>
       <c r="R398" s="8"/>
       <c r="S398" s="8"/>
+      <c r="T398" s="8"/>
     </row>
     <row r="399">
       <c r="A399" s="8"/>
@@ -36863,6 +37274,7 @@
       <c r="Q399" s="8"/>
       <c r="R399" s="8"/>
       <c r="S399" s="8"/>
+      <c r="T399" s="8"/>
     </row>
     <row r="400">
       <c r="A400" s="8"/>
@@ -36884,6 +37296,7 @@
       <c r="Q400" s="8"/>
       <c r="R400" s="8"/>
       <c r="S400" s="8"/>
+      <c r="T400" s="8"/>
     </row>
     <row r="401">
       <c r="A401" s="8"/>
@@ -36905,6 +37318,7 @@
       <c r="Q401" s="8"/>
       <c r="R401" s="8"/>
       <c r="S401" s="8"/>
+      <c r="T401" s="8"/>
     </row>
     <row r="402">
       <c r="A402" s="8"/>
@@ -36926,6 +37340,7 @@
       <c r="Q402" s="8"/>
       <c r="R402" s="8"/>
       <c r="S402" s="8"/>
+      <c r="T402" s="8"/>
     </row>
     <row r="403">
       <c r="A403" s="8"/>
@@ -36947,6 +37362,7 @@
       <c r="Q403" s="8"/>
       <c r="R403" s="8"/>
       <c r="S403" s="8"/>
+      <c r="T403" s="8"/>
     </row>
     <row r="404">
       <c r="A404" s="8"/>
@@ -36968,6 +37384,7 @@
       <c r="Q404" s="8"/>
       <c r="R404" s="8"/>
       <c r="S404" s="8"/>
+      <c r="T404" s="8"/>
     </row>
     <row r="405">
       <c r="A405" s="8"/>
@@ -36989,6 +37406,7 @@
       <c r="Q405" s="8"/>
       <c r="R405" s="8"/>
       <c r="S405" s="8"/>
+      <c r="T405" s="8"/>
     </row>
     <row r="406">
       <c r="A406" s="8"/>
@@ -37010,6 +37428,7 @@
       <c r="Q406" s="8"/>
       <c r="R406" s="8"/>
       <c r="S406" s="8"/>
+      <c r="T406" s="8"/>
     </row>
     <row r="407">
       <c r="A407" s="8"/>
@@ -37031,6 +37450,7 @@
       <c r="Q407" s="8"/>
       <c r="R407" s="8"/>
       <c r="S407" s="8"/>
+      <c r="T407" s="8"/>
     </row>
     <row r="408">
       <c r="A408" s="8"/>
@@ -37052,6 +37472,7 @@
       <c r="Q408" s="8"/>
       <c r="R408" s="8"/>
       <c r="S408" s="8"/>
+      <c r="T408" s="8"/>
     </row>
     <row r="409">
       <c r="A409" s="8"/>
@@ -37073,6 +37494,7 @@
       <c r="Q409" s="8"/>
       <c r="R409" s="8"/>
       <c r="S409" s="8"/>
+      <c r="T409" s="8"/>
     </row>
     <row r="410">
       <c r="A410" s="8"/>
@@ -37094,6 +37516,7 @@
       <c r="Q410" s="8"/>
       <c r="R410" s="8"/>
       <c r="S410" s="8"/>
+      <c r="T410" s="8"/>
     </row>
     <row r="411">
       <c r="A411" s="8"/>
@@ -37115,6 +37538,7 @@
       <c r="Q411" s="8"/>
       <c r="R411" s="8"/>
       <c r="S411" s="8"/>
+      <c r="T411" s="8"/>
     </row>
     <row r="412">
       <c r="A412" s="8"/>
@@ -37136,6 +37560,7 @@
       <c r="Q412" s="8"/>
       <c r="R412" s="8"/>
       <c r="S412" s="8"/>
+      <c r="T412" s="8"/>
     </row>
     <row r="413">
       <c r="A413" s="8"/>
@@ -37157,6 +37582,7 @@
       <c r="Q413" s="8"/>
       <c r="R413" s="8"/>
       <c r="S413" s="8"/>
+      <c r="T413" s="8"/>
     </row>
     <row r="414">
       <c r="A414" s="8"/>
@@ -37178,6 +37604,7 @@
       <c r="Q414" s="8"/>
       <c r="R414" s="8"/>
       <c r="S414" s="8"/>
+      <c r="T414" s="8"/>
     </row>
     <row r="415">
       <c r="A415" s="8"/>
@@ -37199,6 +37626,7 @@
       <c r="Q415" s="8"/>
       <c r="R415" s="8"/>
       <c r="S415" s="8"/>
+      <c r="T415" s="8"/>
     </row>
     <row r="416">
       <c r="A416" s="8"/>
@@ -37220,6 +37648,7 @@
       <c r="Q416" s="8"/>
       <c r="R416" s="8"/>
       <c r="S416" s="8"/>
+      <c r="T416" s="8"/>
     </row>
     <row r="417">
       <c r="A417" s="8"/>
@@ -37241,6 +37670,7 @@
       <c r="Q417" s="8"/>
       <c r="R417" s="8"/>
       <c r="S417" s="8"/>
+      <c r="T417" s="8"/>
     </row>
     <row r="418">
       <c r="A418" s="8"/>
@@ -37262,6 +37692,7 @@
       <c r="Q418" s="8"/>
       <c r="R418" s="8"/>
       <c r="S418" s="8"/>
+      <c r="T418" s="8"/>
     </row>
     <row r="419">
       <c r="A419" s="8"/>
@@ -37283,6 +37714,7 @@
       <c r="Q419" s="8"/>
       <c r="R419" s="8"/>
       <c r="S419" s="8"/>
+      <c r="T419" s="8"/>
     </row>
     <row r="420">
       <c r="A420" s="8"/>
@@ -37304,6 +37736,7 @@
       <c r="Q420" s="8"/>
       <c r="R420" s="8"/>
       <c r="S420" s="8"/>
+      <c r="T420" s="8"/>
     </row>
     <row r="421">
       <c r="A421" s="8"/>
@@ -37325,6 +37758,7 @@
       <c r="Q421" s="8"/>
       <c r="R421" s="8"/>
       <c r="S421" s="8"/>
+      <c r="T421" s="8"/>
     </row>
     <row r="422">
       <c r="A422" s="8"/>
@@ -37346,6 +37780,7 @@
       <c r="Q422" s="8"/>
       <c r="R422" s="8"/>
       <c r="S422" s="8"/>
+      <c r="T422" s="8"/>
     </row>
     <row r="423">
       <c r="A423" s="8"/>
@@ -37367,6 +37802,7 @@
       <c r="Q423" s="8"/>
       <c r="R423" s="8"/>
       <c r="S423" s="8"/>
+      <c r="T423" s="8"/>
     </row>
     <row r="424">
       <c r="A424" s="8"/>
@@ -37388,6 +37824,7 @@
       <c r="Q424" s="8"/>
       <c r="R424" s="8"/>
       <c r="S424" s="8"/>
+      <c r="T424" s="8"/>
     </row>
     <row r="425">
       <c r="A425" s="8"/>
@@ -37409,6 +37846,7 @@
       <c r="Q425" s="8"/>
       <c r="R425" s="8"/>
       <c r="S425" s="8"/>
+      <c r="T425" s="8"/>
     </row>
     <row r="426">
       <c r="A426" s="8"/>
@@ -37430,6 +37868,7 @@
       <c r="Q426" s="8"/>
       <c r="R426" s="8"/>
       <c r="S426" s="8"/>
+      <c r="T426" s="8"/>
     </row>
     <row r="427">
       <c r="A427" s="8"/>
@@ -37451,6 +37890,7 @@
       <c r="Q427" s="8"/>
       <c r="R427" s="8"/>
       <c r="S427" s="8"/>
+      <c r="T427" s="8"/>
     </row>
     <row r="428">
       <c r="A428" s="8"/>
@@ -37472,6 +37912,7 @@
       <c r="Q428" s="8"/>
       <c r="R428" s="8"/>
       <c r="S428" s="8"/>
+      <c r="T428" s="8"/>
     </row>
     <row r="429">
       <c r="A429" s="8"/>
@@ -37493,6 +37934,7 @@
       <c r="Q429" s="8"/>
       <c r="R429" s="8"/>
       <c r="S429" s="8"/>
+      <c r="T429" s="8"/>
     </row>
     <row r="430">
       <c r="A430" s="8"/>
@@ -37514,6 +37956,7 @@
       <c r="Q430" s="8"/>
       <c r="R430" s="8"/>
       <c r="S430" s="8"/>
+      <c r="T430" s="8"/>
     </row>
     <row r="431">
       <c r="A431" s="8"/>
@@ -37535,6 +37978,7 @@
       <c r="Q431" s="8"/>
       <c r="R431" s="8"/>
       <c r="S431" s="8"/>
+      <c r="T431" s="8"/>
     </row>
     <row r="432">
       <c r="A432" s="8"/>
@@ -37556,6 +38000,7 @@
       <c r="Q432" s="8"/>
       <c r="R432" s="8"/>
       <c r="S432" s="8"/>
+      <c r="T432" s="8"/>
     </row>
     <row r="433">
       <c r="A433" s="8"/>
@@ -37577,6 +38022,7 @@
       <c r="Q433" s="8"/>
       <c r="R433" s="8"/>
       <c r="S433" s="8"/>
+      <c r="T433" s="8"/>
     </row>
     <row r="434">
       <c r="A434" s="8"/>
@@ -37598,6 +38044,7 @@
       <c r="Q434" s="8"/>
       <c r="R434" s="8"/>
       <c r="S434" s="8"/>
+      <c r="T434" s="8"/>
     </row>
     <row r="435">
       <c r="A435" s="8"/>
@@ -37619,6 +38066,7 @@
       <c r="Q435" s="8"/>
       <c r="R435" s="8"/>
       <c r="S435" s="8"/>
+      <c r="T435" s="8"/>
     </row>
     <row r="436">
       <c r="A436" s="8"/>
@@ -37640,6 +38088,7 @@
       <c r="Q436" s="8"/>
       <c r="R436" s="8"/>
       <c r="S436" s="8"/>
+      <c r="T436" s="8"/>
     </row>
     <row r="437">
       <c r="A437" s="8"/>
@@ -37661,6 +38110,7 @@
       <c r="Q437" s="8"/>
       <c r="R437" s="8"/>
       <c r="S437" s="8"/>
+      <c r="T437" s="8"/>
     </row>
     <row r="438">
       <c r="A438" s="8"/>
@@ -37682,6 +38132,7 @@
       <c r="Q438" s="8"/>
       <c r="R438" s="8"/>
       <c r="S438" s="8"/>
+      <c r="T438" s="8"/>
     </row>
     <row r="439">
       <c r="A439" s="8"/>
@@ -37703,6 +38154,7 @@
       <c r="Q439" s="8"/>
       <c r="R439" s="8"/>
       <c r="S439" s="8"/>
+      <c r="T439" s="8"/>
     </row>
     <row r="440">
       <c r="A440" s="8"/>
@@ -37724,6 +38176,7 @@
       <c r="Q440" s="8"/>
       <c r="R440" s="8"/>
       <c r="S440" s="8"/>
+      <c r="T440" s="8"/>
     </row>
     <row r="441">
       <c r="A441" s="8"/>
@@ -37745,6 +38198,7 @@
       <c r="Q441" s="8"/>
       <c r="R441" s="8"/>
       <c r="S441" s="8"/>
+      <c r="T441" s="8"/>
     </row>
     <row r="442">
       <c r="A442" s="8"/>
@@ -37766,6 +38220,7 @@
       <c r="Q442" s="8"/>
       <c r="R442" s="8"/>
       <c r="S442" s="8"/>
+      <c r="T442" s="8"/>
     </row>
     <row r="443">
       <c r="A443" s="8"/>
@@ -37787,6 +38242,7 @@
       <c r="Q443" s="8"/>
       <c r="R443" s="8"/>
       <c r="S443" s="8"/>
+      <c r="T443" s="8"/>
     </row>
     <row r="444">
       <c r="A444" s="8"/>
@@ -37808,6 +38264,7 @@
       <c r="Q444" s="8"/>
       <c r="R444" s="8"/>
       <c r="S444" s="8"/>
+      <c r="T444" s="8"/>
     </row>
     <row r="445">
       <c r="A445" s="8"/>
@@ -37829,6 +38286,7 @@
       <c r="Q445" s="8"/>
       <c r="R445" s="8"/>
       <c r="S445" s="8"/>
+      <c r="T445" s="8"/>
     </row>
     <row r="446">
       <c r="A446" s="8"/>
@@ -37850,6 +38308,7 @@
       <c r="Q446" s="8"/>
       <c r="R446" s="8"/>
       <c r="S446" s="8"/>
+      <c r="T446" s="8"/>
     </row>
     <row r="447">
       <c r="A447" s="8"/>
@@ -37871,6 +38330,7 @@
       <c r="Q447" s="8"/>
       <c r="R447" s="8"/>
       <c r="S447" s="8"/>
+      <c r="T447" s="8"/>
     </row>
     <row r="448">
       <c r="A448" s="8"/>
@@ -37892,6 +38352,7 @@
       <c r="Q448" s="8"/>
       <c r="R448" s="8"/>
       <c r="S448" s="8"/>
+      <c r="T448" s="8"/>
     </row>
     <row r="449">
       <c r="A449" s="8"/>
@@ -37913,6 +38374,7 @@
       <c r="Q449" s="8"/>
       <c r="R449" s="8"/>
       <c r="S449" s="8"/>
+      <c r="T449" s="8"/>
     </row>
     <row r="450">
       <c r="A450" s="8"/>
@@ -37934,6 +38396,7 @@
       <c r="Q450" s="8"/>
       <c r="R450" s="8"/>
       <c r="S450" s="8"/>
+      <c r="T450" s="8"/>
     </row>
     <row r="451">
       <c r="A451" s="8"/>
@@ -37955,6 +38418,7 @@
       <c r="Q451" s="8"/>
       <c r="R451" s="8"/>
       <c r="S451" s="8"/>
+      <c r="T451" s="8"/>
     </row>
     <row r="452">
       <c r="A452" s="8"/>
@@ -37976,6 +38440,7 @@
       <c r="Q452" s="8"/>
       <c r="R452" s="8"/>
       <c r="S452" s="8"/>
+      <c r="T452" s="8"/>
     </row>
     <row r="453">
       <c r="A453" s="8"/>
@@ -37997,6 +38462,7 @@
       <c r="Q453" s="8"/>
       <c r="R453" s="8"/>
       <c r="S453" s="8"/>
+      <c r="T453" s="8"/>
     </row>
     <row r="454">
       <c r="A454" s="8"/>
@@ -38018,6 +38484,7 @@
       <c r="Q454" s="8"/>
       <c r="R454" s="8"/>
       <c r="S454" s="8"/>
+      <c r="T454" s="8"/>
     </row>
     <row r="455">
       <c r="A455" s="8"/>
@@ -38039,6 +38506,7 @@
       <c r="Q455" s="8"/>
       <c r="R455" s="8"/>
       <c r="S455" s="8"/>
+      <c r="T455" s="8"/>
     </row>
     <row r="456">
       <c r="A456" s="8"/>
@@ -38060,6 +38528,7 @@
       <c r="Q456" s="8"/>
       <c r="R456" s="8"/>
       <c r="S456" s="8"/>
+      <c r="T456" s="8"/>
     </row>
     <row r="457">
       <c r="A457" s="8"/>
@@ -38081,6 +38550,7 @@
       <c r="Q457" s="8"/>
       <c r="R457" s="8"/>
       <c r="S457" s="8"/>
+      <c r="T457" s="8"/>
     </row>
     <row r="458">
       <c r="A458" s="8"/>
@@ -38102,6 +38572,7 @@
       <c r="Q458" s="8"/>
       <c r="R458" s="8"/>
       <c r="S458" s="8"/>
+      <c r="T458" s="8"/>
     </row>
     <row r="459">
       <c r="A459" s="8"/>
@@ -38123,6 +38594,7 @@
       <c r="Q459" s="8"/>
       <c r="R459" s="8"/>
       <c r="S459" s="8"/>
+      <c r="T459" s="8"/>
     </row>
     <row r="460">
       <c r="A460" s="8"/>
@@ -38144,6 +38616,7 @@
       <c r="Q460" s="8"/>
       <c r="R460" s="8"/>
       <c r="S460" s="8"/>
+      <c r="T460" s="8"/>
     </row>
     <row r="461">
       <c r="A461" s="8"/>
@@ -38165,6 +38638,7 @@
       <c r="Q461" s="8"/>
       <c r="R461" s="8"/>
       <c r="S461" s="8"/>
+      <c r="T461" s="8"/>
     </row>
     <row r="462">
       <c r="A462" s="8"/>
@@ -38186,6 +38660,7 @@
       <c r="Q462" s="8"/>
       <c r="R462" s="8"/>
       <c r="S462" s="8"/>
+      <c r="T462" s="8"/>
     </row>
     <row r="463">
       <c r="A463" s="8"/>
@@ -38207,6 +38682,7 @@
       <c r="Q463" s="8"/>
       <c r="R463" s="8"/>
       <c r="S463" s="8"/>
+      <c r="T463" s="8"/>
     </row>
     <row r="464">
       <c r="A464" s="8"/>
@@ -38228,6 +38704,7 @@
       <c r="Q464" s="8"/>
       <c r="R464" s="8"/>
       <c r="S464" s="8"/>
+      <c r="T464" s="8"/>
     </row>
     <row r="465">
       <c r="A465" s="8"/>
@@ -38249,6 +38726,7 @@
       <c r="Q465" s="8"/>
       <c r="R465" s="8"/>
       <c r="S465" s="8"/>
+      <c r="T465" s="8"/>
     </row>
     <row r="466">
       <c r="A466" s="8"/>
@@ -38270,6 +38748,7 @@
       <c r="Q466" s="8"/>
       <c r="R466" s="8"/>
       <c r="S466" s="8"/>
+      <c r="T466" s="8"/>
     </row>
     <row r="467">
       <c r="A467" s="8"/>
@@ -38291,6 +38770,7 @@
       <c r="Q467" s="8"/>
       <c r="R467" s="8"/>
       <c r="S467" s="8"/>
+      <c r="T467" s="8"/>
     </row>
     <row r="468">
       <c r="A468" s="8"/>
@@ -38312,6 +38792,7 @@
       <c r="Q468" s="8"/>
       <c r="R468" s="8"/>
       <c r="S468" s="8"/>
+      <c r="T468" s="8"/>
     </row>
     <row r="469">
       <c r="A469" s="8"/>
@@ -38333,6 +38814,7 @@
       <c r="Q469" s="8"/>
       <c r="R469" s="8"/>
       <c r="S469" s="8"/>
+      <c r="T469" s="8"/>
     </row>
     <row r="470">
       <c r="A470" s="8"/>
@@ -38354,6 +38836,7 @@
       <c r="Q470" s="8"/>
       <c r="R470" s="8"/>
       <c r="S470" s="8"/>
+      <c r="T470" s="8"/>
     </row>
     <row r="471">
       <c r="A471" s="8"/>
@@ -38375,6 +38858,7 @@
       <c r="Q471" s="8"/>
       <c r="R471" s="8"/>
       <c r="S471" s="8"/>
+      <c r="T471" s="8"/>
     </row>
     <row r="472">
       <c r="A472" s="8"/>
@@ -38396,6 +38880,7 @@
       <c r="Q472" s="8"/>
       <c r="R472" s="8"/>
       <c r="S472" s="8"/>
+      <c r="T472" s="8"/>
     </row>
     <row r="473">
       <c r="A473" s="8"/>
@@ -38417,6 +38902,7 @@
       <c r="Q473" s="8"/>
       <c r="R473" s="8"/>
       <c r="S473" s="8"/>
+      <c r="T473" s="8"/>
     </row>
     <row r="474">
       <c r="A474" s="8"/>
@@ -38438,6 +38924,7 @@
       <c r="Q474" s="8"/>
       <c r="R474" s="8"/>
       <c r="S474" s="8"/>
+      <c r="T474" s="8"/>
     </row>
     <row r="475">
       <c r="A475" s="8"/>
@@ -38459,6 +38946,7 @@
       <c r="Q475" s="8"/>
       <c r="R475" s="8"/>
       <c r="S475" s="8"/>
+      <c r="T475" s="8"/>
     </row>
     <row r="476">
       <c r="A476" s="8"/>
@@ -38480,6 +38968,7 @@
       <c r="Q476" s="8"/>
       <c r="R476" s="8"/>
       <c r="S476" s="8"/>
+      <c r="T476" s="8"/>
     </row>
     <row r="477">
       <c r="A477" s="8"/>
@@ -38501,6 +38990,7 @@
       <c r="Q477" s="8"/>
       <c r="R477" s="8"/>
       <c r="S477" s="8"/>
+      <c r="T477" s="8"/>
     </row>
     <row r="478">
       <c r="A478" s="8"/>
@@ -38522,6 +39012,7 @@
       <c r="Q478" s="8"/>
       <c r="R478" s="8"/>
       <c r="S478" s="8"/>
+      <c r="T478" s="8"/>
     </row>
     <row r="479">
       <c r="A479" s="8"/>
@@ -38543,6 +39034,7 @@
       <c r="Q479" s="8"/>
       <c r="R479" s="8"/>
       <c r="S479" s="8"/>
+      <c r="T479" s="8"/>
     </row>
     <row r="480">
       <c r="A480" s="8"/>
@@ -38564,6 +39056,7 @@
       <c r="Q480" s="8"/>
       <c r="R480" s="8"/>
       <c r="S480" s="8"/>
+      <c r="T480" s="8"/>
     </row>
     <row r="481">
       <c r="A481" s="8"/>
@@ -38585,6 +39078,7 @@
       <c r="Q481" s="8"/>
       <c r="R481" s="8"/>
       <c r="S481" s="8"/>
+      <c r="T481" s="8"/>
     </row>
     <row r="482">
       <c r="A482" s="8"/>
@@ -38606,6 +39100,7 @@
       <c r="Q482" s="8"/>
       <c r="R482" s="8"/>
       <c r="S482" s="8"/>
+      <c r="T482" s="8"/>
     </row>
     <row r="483">
       <c r="A483" s="8"/>
@@ -38627,6 +39122,7 @@
       <c r="Q483" s="8"/>
       <c r="R483" s="8"/>
       <c r="S483" s="8"/>
+      <c r="T483" s="8"/>
     </row>
     <row r="484">
       <c r="A484" s="8"/>
@@ -38648,6 +39144,7 @@
       <c r="Q484" s="8"/>
       <c r="R484" s="8"/>
       <c r="S484" s="8"/>
+      <c r="T484" s="8"/>
     </row>
     <row r="485">
       <c r="A485" s="8"/>
@@ -38669,6 +39166,7 @@
       <c r="Q485" s="8"/>
       <c r="R485" s="8"/>
       <c r="S485" s="8"/>
+      <c r="T485" s="8"/>
     </row>
     <row r="486">
       <c r="A486" s="8"/>
@@ -38690,6 +39188,7 @@
       <c r="Q486" s="8"/>
       <c r="R486" s="8"/>
       <c r="S486" s="8"/>
+      <c r="T486" s="8"/>
     </row>
     <row r="487">
       <c r="A487" s="8"/>
@@ -38711,6 +39210,7 @@
       <c r="Q487" s="8"/>
       <c r="R487" s="8"/>
       <c r="S487" s="8"/>
+      <c r="T487" s="8"/>
     </row>
     <row r="488">
       <c r="A488" s="8"/>
@@ -38732,6 +39232,7 @@
       <c r="Q488" s="8"/>
       <c r="R488" s="8"/>
       <c r="S488" s="8"/>
+      <c r="T488" s="8"/>
     </row>
     <row r="489">
       <c r="A489" s="8"/>
@@ -38753,6 +39254,7 @@
       <c r="Q489" s="8"/>
       <c r="R489" s="8"/>
       <c r="S489" s="8"/>
+      <c r="T489" s="8"/>
     </row>
     <row r="490">
       <c r="A490" s="8"/>
@@ -38774,6 +39276,7 @@
       <c r="Q490" s="8"/>
       <c r="R490" s="8"/>
       <c r="S490" s="8"/>
+      <c r="T490" s="8"/>
     </row>
     <row r="491">
       <c r="A491" s="8"/>
@@ -38795,6 +39298,7 @@
       <c r="Q491" s="8"/>
       <c r="R491" s="8"/>
       <c r="S491" s="8"/>
+      <c r="T491" s="8"/>
     </row>
     <row r="492">
       <c r="A492" s="8"/>
@@ -38816,6 +39320,7 @@
       <c r="Q492" s="8"/>
       <c r="R492" s="8"/>
       <c r="S492" s="8"/>
+      <c r="T492" s="8"/>
     </row>
     <row r="493">
       <c r="A493" s="8"/>
@@ -38837,6 +39342,7 @@
       <c r="Q493" s="8"/>
       <c r="R493" s="8"/>
       <c r="S493" s="8"/>
+      <c r="T493" s="8"/>
     </row>
     <row r="494">
       <c r="A494" s="8"/>
@@ -38858,6 +39364,7 @@
       <c r="Q494" s="8"/>
       <c r="R494" s="8"/>
       <c r="S494" s="8"/>
+      <c r="T494" s="8"/>
     </row>
     <row r="495">
       <c r="A495" s="8"/>
@@ -38879,6 +39386,7 @@
       <c r="Q495" s="8"/>
       <c r="R495" s="8"/>
       <c r="S495" s="8"/>
+      <c r="T495" s="8"/>
     </row>
     <row r="496">
       <c r="A496" s="8"/>
@@ -38900,6 +39408,7 @@
       <c r="Q496" s="8"/>
       <c r="R496" s="8"/>
       <c r="S496" s="8"/>
+      <c r="T496" s="8"/>
     </row>
     <row r="497">
       <c r="A497" s="8"/>
@@ -38921,6 +39430,7 @@
       <c r="Q497" s="8"/>
       <c r="R497" s="8"/>
       <c r="S497" s="8"/>
+      <c r="T497" s="8"/>
     </row>
     <row r="498">
       <c r="A498" s="8"/>
@@ -38942,6 +39452,7 @@
       <c r="Q498" s="8"/>
       <c r="R498" s="8"/>
       <c r="S498" s="8"/>
+      <c r="T498" s="8"/>
     </row>
     <row r="499">
       <c r="A499" s="8"/>
@@ -38963,6 +39474,7 @@
       <c r="Q499" s="8"/>
       <c r="R499" s="8"/>
       <c r="S499" s="8"/>
+      <c r="T499" s="8"/>
     </row>
     <row r="500">
       <c r="A500" s="8"/>
@@ -38984,6 +39496,7 @@
       <c r="Q500" s="8"/>
       <c r="R500" s="8"/>
       <c r="S500" s="8"/>
+      <c r="T500" s="8"/>
     </row>
     <row r="501">
       <c r="A501" s="8"/>
@@ -39005,6 +39518,7 @@
       <c r="Q501" s="8"/>
       <c r="R501" s="8"/>
       <c r="S501" s="8"/>
+      <c r="T501" s="8"/>
     </row>
     <row r="502">
       <c r="A502" s="8"/>
@@ -39026,6 +39540,7 @@
       <c r="Q502" s="8"/>
       <c r="R502" s="8"/>
       <c r="S502" s="8"/>
+      <c r="T502" s="8"/>
     </row>
     <row r="503">
       <c r="A503" s="8"/>
@@ -39047,6 +39562,7 @@
       <c r="Q503" s="8"/>
       <c r="R503" s="8"/>
       <c r="S503" s="8"/>
+      <c r="T503" s="8"/>
     </row>
     <row r="504">
       <c r="A504" s="8"/>
@@ -39068,6 +39584,7 @@
       <c r="Q504" s="8"/>
       <c r="R504" s="8"/>
       <c r="S504" s="8"/>
+      <c r="T504" s="8"/>
     </row>
     <row r="505">
       <c r="A505" s="8"/>
@@ -39089,6 +39606,7 @@
       <c r="Q505" s="8"/>
       <c r="R505" s="8"/>
       <c r="S505" s="8"/>
+      <c r="T505" s="8"/>
     </row>
     <row r="506">
       <c r="A506" s="8"/>
@@ -39110,6 +39628,7 @@
       <c r="Q506" s="8"/>
       <c r="R506" s="8"/>
       <c r="S506" s="8"/>
+      <c r="T506" s="8"/>
     </row>
     <row r="507">
       <c r="A507" s="8"/>
@@ -39131,6 +39650,7 @@
       <c r="Q507" s="8"/>
       <c r="R507" s="8"/>
       <c r="S507" s="8"/>
+      <c r="T507" s="8"/>
     </row>
     <row r="508">
       <c r="A508" s="8"/>
@@ -39152,6 +39672,7 @@
       <c r="Q508" s="8"/>
       <c r="R508" s="8"/>
       <c r="S508" s="8"/>
+      <c r="T508" s="8"/>
     </row>
     <row r="509">
       <c r="A509" s="8"/>
@@ -39173,6 +39694,7 @@
       <c r="Q509" s="8"/>
       <c r="R509" s="8"/>
       <c r="S509" s="8"/>
+      <c r="T509" s="8"/>
     </row>
     <row r="510">
       <c r="A510" s="8"/>
@@ -39194,6 +39716,7 @@
       <c r="Q510" s="8"/>
       <c r="R510" s="8"/>
       <c r="S510" s="8"/>
+      <c r="T510" s="8"/>
     </row>
     <row r="511">
       <c r="A511" s="8"/>
@@ -39215,6 +39738,7 @@
       <c r="Q511" s="8"/>
       <c r="R511" s="8"/>
       <c r="S511" s="8"/>
+      <c r="T511" s="8"/>
     </row>
     <row r="512">
       <c r="A512" s="8"/>
@@ -39236,6 +39760,7 @@
       <c r="Q512" s="8"/>
       <c r="R512" s="8"/>
       <c r="S512" s="8"/>
+      <c r="T512" s="8"/>
     </row>
     <row r="513">
       <c r="A513" s="8"/>
@@ -39257,6 +39782,7 @@
       <c r="Q513" s="8"/>
       <c r="R513" s="8"/>
       <c r="S513" s="8"/>
+      <c r="T513" s="8"/>
     </row>
     <row r="514">
       <c r="A514" s="8"/>
@@ -39278,6 +39804,7 @@
       <c r="Q514" s="8"/>
       <c r="R514" s="8"/>
       <c r="S514" s="8"/>
+      <c r="T514" s="8"/>
     </row>
     <row r="515">
       <c r="A515" s="8"/>
@@ -39299,6 +39826,7 @@
       <c r="Q515" s="8"/>
       <c r="R515" s="8"/>
       <c r="S515" s="8"/>
+      <c r="T515" s="8"/>
     </row>
     <row r="516">
       <c r="A516" s="8"/>
@@ -39320,6 +39848,7 @@
       <c r="Q516" s="8"/>
       <c r="R516" s="8"/>
       <c r="S516" s="8"/>
+      <c r="T516" s="8"/>
     </row>
     <row r="517">
       <c r="A517" s="8"/>
@@ -39341,6 +39870,7 @@
       <c r="Q517" s="8"/>
       <c r="R517" s="8"/>
       <c r="S517" s="8"/>
+      <c r="T517" s="8"/>
     </row>
     <row r="518">
       <c r="A518" s="8"/>
@@ -39362,6 +39892,7 @@
       <c r="Q518" s="8"/>
       <c r="R518" s="8"/>
       <c r="S518" s="8"/>
+      <c r="T518" s="8"/>
     </row>
     <row r="519">
       <c r="A519" s="8"/>
@@ -39383,6 +39914,7 @@
       <c r="Q519" s="8"/>
       <c r="R519" s="8"/>
       <c r="S519" s="8"/>
+      <c r="T519" s="8"/>
     </row>
     <row r="520">
       <c r="A520" s="8"/>
@@ -39404,6 +39936,7 @@
       <c r="Q520" s="8"/>
       <c r="R520" s="8"/>
       <c r="S520" s="8"/>
+      <c r="T520" s="8"/>
     </row>
     <row r="521">
       <c r="A521" s="8"/>
@@ -39425,6 +39958,7 @@
       <c r="Q521" s="8"/>
       <c r="R521" s="8"/>
       <c r="S521" s="8"/>
+      <c r="T521" s="8"/>
     </row>
     <row r="522">
       <c r="A522" s="8"/>
@@ -39446,6 +39980,7 @@
       <c r="Q522" s="8"/>
       <c r="R522" s="8"/>
       <c r="S522" s="8"/>
+      <c r="T522" s="8"/>
     </row>
     <row r="523">
       <c r="A523" s="8"/>
@@ -39467,6 +40002,7 @@
       <c r="Q523" s="8"/>
       <c r="R523" s="8"/>
       <c r="S523" s="8"/>
+      <c r="T523" s="8"/>
     </row>
     <row r="524">
       <c r="A524" s="8"/>
@@ -39488,6 +40024,7 @@
       <c r="Q524" s="8"/>
       <c r="R524" s="8"/>
       <c r="S524" s="8"/>
+      <c r="T524" s="8"/>
     </row>
     <row r="525">
       <c r="A525" s="8"/>
@@ -39509,6 +40046,7 @@
       <c r="Q525" s="8"/>
       <c r="R525" s="8"/>
       <c r="S525" s="8"/>
+      <c r="T525" s="8"/>
     </row>
     <row r="526">
       <c r="A526" s="8"/>
@@ -39530,6 +40068,7 @@
       <c r="Q526" s="8"/>
       <c r="R526" s="8"/>
       <c r="S526" s="8"/>
+      <c r="T526" s="8"/>
     </row>
     <row r="527">
       <c r="A527" s="8"/>
@@ -39551,6 +40090,7 @@
       <c r="Q527" s="8"/>
       <c r="R527" s="8"/>
       <c r="S527" s="8"/>
+      <c r="T527" s="8"/>
     </row>
     <row r="528">
       <c r="A528" s="8"/>
@@ -39572,6 +40112,7 @@
       <c r="Q528" s="8"/>
       <c r="R528" s="8"/>
       <c r="S528" s="8"/>
+      <c r="T528" s="8"/>
     </row>
     <row r="529">
       <c r="A529" s="8"/>
@@ -39593,6 +40134,7 @@
       <c r="Q529" s="8"/>
       <c r="R529" s="8"/>
       <c r="S529" s="8"/>
+      <c r="T529" s="8"/>
     </row>
     <row r="530">
       <c r="A530" s="8"/>
@@ -39614,6 +40156,7 @@
       <c r="Q530" s="8"/>
       <c r="R530" s="8"/>
       <c r="S530" s="8"/>
+      <c r="T530" s="8"/>
     </row>
     <row r="531">
       <c r="A531" s="8"/>
@@ -39635,6 +40178,7 @@
       <c r="Q531" s="8"/>
       <c r="R531" s="8"/>
       <c r="S531" s="8"/>
+      <c r="T531" s="8"/>
     </row>
     <row r="532">
       <c r="A532" s="8"/>
@@ -39656,6 +40200,7 @@
       <c r="Q532" s="8"/>
       <c r="R532" s="8"/>
       <c r="S532" s="8"/>
+      <c r="T532" s="8"/>
     </row>
     <row r="533">
       <c r="A533" s="8"/>
@@ -39677,6 +40222,7 @@
       <c r="Q533" s="8"/>
       <c r="R533" s="8"/>
       <c r="S533" s="8"/>
+      <c r="T533" s="8"/>
     </row>
     <row r="534">
       <c r="A534" s="8"/>
@@ -39698,6 +40244,7 @@
       <c r="Q534" s="8"/>
       <c r="R534" s="8"/>
       <c r="S534" s="8"/>
+      <c r="T534" s="8"/>
     </row>
     <row r="535">
       <c r="A535" s="8"/>
@@ -39719,6 +40266,7 @@
       <c r="Q535" s="8"/>
       <c r="R535" s="8"/>
       <c r="S535" s="8"/>
+      <c r="T535" s="8"/>
     </row>
     <row r="536">
       <c r="A536" s="8"/>
@@ -39740,6 +40288,7 @@
       <c r="Q536" s="8"/>
       <c r="R536" s="8"/>
       <c r="S536" s="8"/>
+      <c r="T536" s="8"/>
     </row>
     <row r="537">
       <c r="A537" s="8"/>
@@ -39761,6 +40310,7 @@
       <c r="Q537" s="8"/>
       <c r="R537" s="8"/>
       <c r="S537" s="8"/>
+      <c r="T537" s="8"/>
     </row>
     <row r="538">
       <c r="A538" s="8"/>
@@ -39782,6 +40332,7 @@
       <c r="Q538" s="8"/>
       <c r="R538" s="8"/>
       <c r="S538" s="8"/>
+      <c r="T538" s="8"/>
     </row>
     <row r="539">
       <c r="A539" s="8"/>
@@ -39803,6 +40354,7 @@
       <c r="Q539" s="8"/>
       <c r="R539" s="8"/>
       <c r="S539" s="8"/>
+      <c r="T539" s="8"/>
     </row>
     <row r="540">
       <c r="A540" s="8"/>
@@ -39824,6 +40376,7 @@
       <c r="Q540" s="8"/>
       <c r="R540" s="8"/>
       <c r="S540" s="8"/>
+      <c r="T540" s="8"/>
     </row>
     <row r="541">
       <c r="A541" s="8"/>
@@ -39845,6 +40398,7 @@
       <c r="Q541" s="8"/>
       <c r="R541" s="8"/>
       <c r="S541" s="8"/>
+      <c r="T541" s="8"/>
     </row>
     <row r="542">
       <c r="A542" s="8"/>
@@ -39866,6 +40420,7 @@
       <c r="Q542" s="8"/>
       <c r="R542" s="8"/>
       <c r="S542" s="8"/>
+      <c r="T542" s="8"/>
     </row>
     <row r="543">
       <c r="A543" s="8"/>
@@ -39887,6 +40442,7 @@
       <c r="Q543" s="8"/>
       <c r="R543" s="8"/>
       <c r="S543" s="8"/>
+      <c r="T543" s="8"/>
     </row>
     <row r="544">
       <c r="A544" s="8"/>
@@ -39908,6 +40464,7 @@
       <c r="Q544" s="8"/>
       <c r="R544" s="8"/>
       <c r="S544" s="8"/>
+      <c r="T544" s="8"/>
     </row>
     <row r="545">
       <c r="A545" s="8"/>
@@ -39929,6 +40486,7 @@
       <c r="Q545" s="8"/>
       <c r="R545" s="8"/>
       <c r="S545" s="8"/>
+      <c r="T545" s="8"/>
     </row>
     <row r="546">
       <c r="A546" s="8"/>
@@ -39950,6 +40508,7 @@
       <c r="Q546" s="8"/>
       <c r="R546" s="8"/>
       <c r="S546" s="8"/>
+      <c r="T546" s="8"/>
     </row>
     <row r="547">
       <c r="A547" s="8"/>
@@ -39971,6 +40530,7 @@
       <c r="Q547" s="8"/>
       <c r="R547" s="8"/>
       <c r="S547" s="8"/>
+      <c r="T547" s="8"/>
     </row>
     <row r="548">
       <c r="A548" s="8"/>
@@ -39992,6 +40552,7 @@
       <c r="Q548" s="8"/>
       <c r="R548" s="8"/>
       <c r="S548" s="8"/>
+      <c r="T548" s="8"/>
     </row>
     <row r="549">
       <c r="A549" s="8"/>
@@ -40013,6 +40574,7 @@
       <c r="Q549" s="8"/>
       <c r="R549" s="8"/>
       <c r="S549" s="8"/>
+      <c r="T549" s="8"/>
     </row>
     <row r="550">
       <c r="A550" s="8"/>
@@ -40034,6 +40596,7 @@
       <c r="Q550" s="8"/>
       <c r="R550" s="8"/>
       <c r="S550" s="8"/>
+      <c r="T550" s="8"/>
     </row>
     <row r="551">
       <c r="A551" s="8"/>
@@ -40055,6 +40618,7 @@
       <c r="Q551" s="8"/>
       <c r="R551" s="8"/>
       <c r="S551" s="8"/>
+      <c r="T551" s="8"/>
     </row>
     <row r="552">
       <c r="A552" s="8"/>
@@ -40076,6 +40640,7 @@
       <c r="Q552" s="8"/>
       <c r="R552" s="8"/>
       <c r="S552" s="8"/>
+      <c r="T552" s="8"/>
     </row>
     <row r="553">
       <c r="A553" s="8"/>
@@ -40097,6 +40662,7 @@
       <c r="Q553" s="8"/>
       <c r="R553" s="8"/>
       <c r="S553" s="8"/>
+      <c r="T553" s="8"/>
     </row>
     <row r="554">
       <c r="A554" s="8"/>
@@ -40118,6 +40684,7 @@
       <c r="Q554" s="8"/>
       <c r="R554" s="8"/>
       <c r="S554" s="8"/>
+      <c r="T554" s="8"/>
     </row>
     <row r="555">
       <c r="A555" s="8"/>
@@ -40139,6 +40706,7 @@
       <c r="Q555" s="8"/>
       <c r="R555" s="8"/>
       <c r="S555" s="8"/>
+      <c r="T555" s="8"/>
     </row>
     <row r="556">
       <c r="A556" s="8"/>
@@ -40160,6 +40728,7 @@
       <c r="Q556" s="8"/>
       <c r="R556" s="8"/>
       <c r="S556" s="8"/>
+      <c r="T556" s="8"/>
     </row>
     <row r="557">
       <c r="A557" s="8"/>
@@ -40181,6 +40750,7 @@
       <c r="Q557" s="8"/>
       <c r="R557" s="8"/>
       <c r="S557" s="8"/>
+      <c r="T557" s="8"/>
     </row>
     <row r="558">
       <c r="A558" s="8"/>
@@ -40202,6 +40772,7 @@
       <c r="Q558" s="8"/>
       <c r="R558" s="8"/>
       <c r="S558" s="8"/>
+      <c r="T558" s="8"/>
     </row>
     <row r="559">
       <c r="A559" s="8"/>
@@ -40223,6 +40794,7 @@
       <c r="Q559" s="8"/>
       <c r="R559" s="8"/>
       <c r="S559" s="8"/>
+      <c r="T559" s="8"/>
     </row>
     <row r="560">
       <c r="A560" s="8"/>
@@ -40244,6 +40816,7 @@
       <c r="Q560" s="8"/>
       <c r="R560" s="8"/>
       <c r="S560" s="8"/>
+      <c r="T560" s="8"/>
     </row>
     <row r="561">
       <c r="A561" s="8"/>
@@ -40265,6 +40838,7 @@
       <c r="Q561" s="8"/>
       <c r="R561" s="8"/>
       <c r="S561" s="8"/>
+      <c r="T561" s="8"/>
     </row>
     <row r="562">
       <c r="A562" s="8"/>
@@ -40286,6 +40860,7 @@
       <c r="Q562" s="8"/>
       <c r="R562" s="8"/>
       <c r="S562" s="8"/>
+      <c r="T562" s="8"/>
     </row>
     <row r="563">
       <c r="A563" s="8"/>
@@ -40307,6 +40882,7 @@
       <c r="Q563" s="8"/>
       <c r="R563" s="8"/>
       <c r="S563" s="8"/>
+      <c r="T563" s="8"/>
     </row>
     <row r="564">
       <c r="A564" s="8"/>
@@ -40328,6 +40904,7 @@
       <c r="Q564" s="8"/>
       <c r="R564" s="8"/>
       <c r="S564" s="8"/>
+      <c r="T564" s="8"/>
     </row>
     <row r="565">
       <c r="A565" s="8"/>
@@ -40349,6 +40926,7 @@
       <c r="Q565" s="8"/>
       <c r="R565" s="8"/>
       <c r="S565" s="8"/>
+      <c r="T565" s="8"/>
     </row>
     <row r="566">
       <c r="A566" s="8"/>
@@ -40370,6 +40948,7 @@
       <c r="Q566" s="8"/>
       <c r="R566" s="8"/>
       <c r="S566" s="8"/>
+      <c r="T566" s="8"/>
     </row>
     <row r="567">
       <c r="A567" s="8"/>
@@ -40391,6 +40970,7 @@
       <c r="Q567" s="8"/>
       <c r="R567" s="8"/>
       <c r="S567" s="8"/>
+      <c r="T567" s="8"/>
     </row>
     <row r="568">
       <c r="A568" s="8"/>
@@ -40412,6 +40992,7 @@
       <c r="Q568" s="8"/>
       <c r="R568" s="8"/>
       <c r="S568" s="8"/>
+      <c r="T568" s="8"/>
     </row>
     <row r="569">
       <c r="A569" s="8"/>
@@ -40433,6 +41014,7 @@
       <c r="Q569" s="8"/>
       <c r="R569" s="8"/>
       <c r="S569" s="8"/>
+      <c r="T569" s="8"/>
     </row>
     <row r="570">
       <c r="A570" s="8"/>
@@ -40454,6 +41036,7 @@
       <c r="Q570" s="8"/>
       <c r="R570" s="8"/>
       <c r="S570" s="8"/>
+      <c r="T570" s="8"/>
     </row>
     <row r="571">
       <c r="A571" s="8"/>
@@ -40475,6 +41058,7 @@
       <c r="Q571" s="8"/>
       <c r="R571" s="8"/>
       <c r="S571" s="8"/>
+      <c r="T571" s="8"/>
     </row>
     <row r="572">
       <c r="A572" s="8"/>
@@ -40496,6 +41080,7 @@
       <c r="Q572" s="8"/>
       <c r="R572" s="8"/>
       <c r="S572" s="8"/>
+      <c r="T572" s="8"/>
     </row>
     <row r="573">
       <c r="A573" s="8"/>
@@ -40517,6 +41102,7 @@
       <c r="Q573" s="8"/>
       <c r="R573" s="8"/>
       <c r="S573" s="8"/>
+      <c r="T573" s="8"/>
     </row>
     <row r="574">
       <c r="A574" s="8"/>
@@ -40538,6 +41124,7 @@
       <c r="Q574" s="8"/>
       <c r="R574" s="8"/>
       <c r="S574" s="8"/>
+      <c r="T574" s="8"/>
     </row>
     <row r="575">
       <c r="A575" s="8"/>
@@ -40559,6 +41146,7 @@
       <c r="Q575" s="8"/>
       <c r="R575" s="8"/>
       <c r="S575" s="8"/>
+      <c r="T575" s="8"/>
     </row>
     <row r="576">
       <c r="A576" s="8"/>
@@ -40580,6 +41168,7 @@
       <c r="Q576" s="8"/>
       <c r="R576" s="8"/>
       <c r="S576" s="8"/>
+      <c r="T576" s="8"/>
     </row>
     <row r="577">
       <c r="A577" s="8"/>
@@ -40601,6 +41190,7 @@
       <c r="Q577" s="8"/>
       <c r="R577" s="8"/>
       <c r="S577" s="8"/>
+      <c r="T577" s="8"/>
     </row>
     <row r="578">
       <c r="A578" s="8"/>
@@ -40622,6 +41212,7 @@
       <c r="Q578" s="8"/>
       <c r="R578" s="8"/>
       <c r="S578" s="8"/>
+      <c r="T578" s="8"/>
     </row>
     <row r="579">
       <c r="A579" s="8"/>
@@ -40643,6 +41234,7 @@
       <c r="Q579" s="8"/>
       <c r="R579" s="8"/>
       <c r="S579" s="8"/>
+      <c r="T579" s="8"/>
     </row>
     <row r="580">
       <c r="A580" s="8"/>
@@ -40664,6 +41256,7 @@
       <c r="Q580" s="8"/>
       <c r="R580" s="8"/>
       <c r="S580" s="8"/>
+      <c r="T580" s="8"/>
     </row>
     <row r="581">
       <c r="A581" s="8"/>
@@ -40685,6 +41278,7 @@
       <c r="Q581" s="8"/>
       <c r="R581" s="8"/>
       <c r="S581" s="8"/>
+      <c r="T581" s="8"/>
     </row>
     <row r="582">
       <c r="A582" s="8"/>
@@ -40706,6 +41300,7 @@
       <c r="Q582" s="8"/>
       <c r="R582" s="8"/>
       <c r="S582" s="8"/>
+      <c r="T582" s="8"/>
     </row>
     <row r="583">
       <c r="A583" s="8"/>
@@ -40727,6 +41322,7 @@
       <c r="Q583" s="8"/>
       <c r="R583" s="8"/>
       <c r="S583" s="8"/>
+      <c r="T583" s="8"/>
     </row>
     <row r="584">
       <c r="A584" s="8"/>
@@ -40748,6 +41344,7 @@
       <c r="Q584" s="8"/>
       <c r="R584" s="8"/>
       <c r="S584" s="8"/>
+      <c r="T584" s="8"/>
     </row>
     <row r="585">
       <c r="A585" s="8"/>
@@ -40769,6 +41366,7 @@
       <c r="Q585" s="8"/>
       <c r="R585" s="8"/>
       <c r="S585" s="8"/>
+      <c r="T585" s="8"/>
     </row>
     <row r="586">
       <c r="A586" s="8"/>
@@ -40790,6 +41388,7 @@
       <c r="Q586" s="8"/>
       <c r="R586" s="8"/>
       <c r="S586" s="8"/>
+      <c r="T586" s="8"/>
     </row>
     <row r="587">
       <c r="A587" s="8"/>
@@ -40811,6 +41410,7 @@
       <c r="Q587" s="8"/>
       <c r="R587" s="8"/>
       <c r="S587" s="8"/>
+      <c r="T587" s="8"/>
     </row>
     <row r="588">
       <c r="A588" s="8"/>
@@ -40832,6 +41432,7 @@
       <c r="Q588" s="8"/>
       <c r="R588" s="8"/>
       <c r="S588" s="8"/>
+      <c r="T588" s="8"/>
     </row>
     <row r="589">
       <c r="A589" s="8"/>
@@ -40853,6 +41454,7 @@
       <c r="Q589" s="8"/>
       <c r="R589" s="8"/>
       <c r="S589" s="8"/>
+      <c r="T589" s="8"/>
     </row>
     <row r="590">
       <c r="A590" s="8"/>
@@ -40874,6 +41476,7 @@
       <c r="Q590" s="8"/>
       <c r="R590" s="8"/>
       <c r="S590" s="8"/>
+      <c r="T590" s="8"/>
     </row>
     <row r="591">
       <c r="A591" s="8"/>
@@ -40895,6 +41498,7 @@
       <c r="Q591" s="8"/>
       <c r="R591" s="8"/>
       <c r="S591" s="8"/>
+      <c r="T591" s="8"/>
     </row>
     <row r="592">
       <c r="A592" s="8"/>
@@ -40916,6 +41520,7 @@
       <c r="Q592" s="8"/>
       <c r="R592" s="8"/>
       <c r="S592" s="8"/>
+      <c r="T592" s="8"/>
     </row>
     <row r="593">
       <c r="A593" s="8"/>
@@ -40937,6 +41542,7 @@
       <c r="Q593" s="8"/>
       <c r="R593" s="8"/>
       <c r="S593" s="8"/>
+      <c r="T593" s="8"/>
     </row>
     <row r="594">
       <c r="A594" s="8"/>
@@ -40958,6 +41564,7 @@
       <c r="Q594" s="8"/>
       <c r="R594" s="8"/>
       <c r="S594" s="8"/>
+      <c r="T594" s="8"/>
     </row>
     <row r="595">
       <c r="A595" s="8"/>
@@ -40979,6 +41586,7 @@
       <c r="Q595" s="8"/>
       <c r="R595" s="8"/>
       <c r="S595" s="8"/>
+      <c r="T595" s="8"/>
     </row>
     <row r="596">
       <c r="A596" s="8"/>
@@ -41000,6 +41608,7 @@
       <c r="Q596" s="8"/>
       <c r="R596" s="8"/>
       <c r="S596" s="8"/>
+      <c r="T596" s="8"/>
     </row>
     <row r="597">
       <c r="A597" s="8"/>
@@ -41021,6 +41630,7 @@
       <c r="Q597" s="8"/>
       <c r="R597" s="8"/>
       <c r="S597" s="8"/>
+      <c r="T597" s="8"/>
     </row>
     <row r="598">
       <c r="A598" s="8"/>
@@ -41042,6 +41652,7 @@
       <c r="Q598" s="8"/>
       <c r="R598" s="8"/>
       <c r="S598" s="8"/>
+      <c r="T598" s="8"/>
     </row>
     <row r="599">
       <c r="A599" s="8"/>
@@ -41063,6 +41674,7 @@
       <c r="Q599" s="8"/>
       <c r="R599" s="8"/>
       <c r="S599" s="8"/>
+      <c r="T599" s="8"/>
     </row>
     <row r="600">
       <c r="A600" s="8"/>
@@ -41084,6 +41696,7 @@
       <c r="Q600" s="8"/>
       <c r="R600" s="8"/>
       <c r="S600" s="8"/>
+      <c r="T600" s="8"/>
     </row>
     <row r="601">
       <c r="A601" s="8"/>
@@ -41105,6 +41718,7 @@
       <c r="Q601" s="8"/>
       <c r="R601" s="8"/>
       <c r="S601" s="8"/>
+      <c r="T601" s="8"/>
     </row>
     <row r="602">
       <c r="A602" s="8"/>
@@ -41126,6 +41740,7 @@
       <c r="Q602" s="8"/>
       <c r="R602" s="8"/>
       <c r="S602" s="8"/>
+      <c r="T602" s="8"/>
     </row>
     <row r="603">
       <c r="A603" s="8"/>
@@ -41147,6 +41762,7 @@
       <c r="Q603" s="8"/>
       <c r="R603" s="8"/>
       <c r="S603" s="8"/>
+      <c r="T603" s="8"/>
     </row>
     <row r="604">
       <c r="A604" s="8"/>
@@ -41168,6 +41784,7 @@
       <c r="Q604" s="8"/>
       <c r="R604" s="8"/>
       <c r="S604" s="8"/>
+      <c r="T604" s="8"/>
     </row>
     <row r="605">
       <c r="A605" s="8"/>
@@ -41189,6 +41806,7 @@
       <c r="Q605" s="8"/>
       <c r="R605" s="8"/>
       <c r="S605" s="8"/>
+      <c r="T605" s="8"/>
     </row>
     <row r="606">
       <c r="A606" s="8"/>
@@ -41210,6 +41828,7 @@
       <c r="Q606" s="8"/>
       <c r="R606" s="8"/>
       <c r="S606" s="8"/>
+      <c r="T606" s="8"/>
     </row>
     <row r="607">
       <c r="A607" s="8"/>
@@ -41231,6 +41850,7 @@
       <c r="Q607" s="8"/>
       <c r="R607" s="8"/>
       <c r="S607" s="8"/>
+      <c r="T607" s="8"/>
     </row>
     <row r="608">
       <c r="A608" s="8"/>
@@ -41252,6 +41872,7 @@
       <c r="Q608" s="8"/>
       <c r="R608" s="8"/>
       <c r="S608" s="8"/>
+      <c r="T608" s="8"/>
     </row>
     <row r="609">
       <c r="A609" s="8"/>
@@ -41273,6 +41894,7 @@
       <c r="Q609" s="8"/>
       <c r="R609" s="8"/>
       <c r="S609" s="8"/>
+      <c r="T609" s="8"/>
     </row>
     <row r="610">
       <c r="A610" s="8"/>
@@ -41294,6 +41916,7 @@
       <c r="Q610" s="8"/>
       <c r="R610" s="8"/>
       <c r="S610" s="8"/>
+      <c r="T610" s="8"/>
     </row>
     <row r="611">
       <c r="A611" s="8"/>
@@ -41315,6 +41938,7 @@
       <c r="Q611" s="8"/>
       <c r="R611" s="8"/>
       <c r="S611" s="8"/>
+      <c r="T611" s="8"/>
     </row>
     <row r="612">
       <c r="A612" s="8"/>
@@ -41336,6 +41960,7 @@
       <c r="Q612" s="8"/>
       <c r="R612" s="8"/>
       <c r="S612" s="8"/>
+      <c r="T612" s="8"/>
     </row>
     <row r="613">
       <c r="A613" s="8"/>
@@ -41357,6 +41982,7 @@
       <c r="Q613" s="8"/>
       <c r="R613" s="8"/>
       <c r="S613" s="8"/>
+      <c r="T613" s="8"/>
     </row>
     <row r="614">
       <c r="A614" s="8"/>
@@ -41378,6 +42004,7 @@
       <c r="Q614" s="8"/>
       <c r="R614" s="8"/>
       <c r="S614" s="8"/>
+      <c r="T614" s="8"/>
     </row>
     <row r="615">
       <c r="A615" s="8"/>
@@ -41399,6 +42026,7 @@
       <c r="Q615" s="8"/>
       <c r="R615" s="8"/>
       <c r="S615" s="8"/>
+      <c r="T615" s="8"/>
     </row>
     <row r="616">
       <c r="A616" s="8"/>
@@ -41420,6 +42048,7 @@
       <c r="Q616" s="8"/>
       <c r="R616" s="8"/>
       <c r="S616" s="8"/>
+      <c r="T616" s="8"/>
     </row>
     <row r="617">
       <c r="A617" s="8"/>
@@ -41441,6 +42070,7 @@
       <c r="Q617" s="8"/>
       <c r="R617" s="8"/>
       <c r="S617" s="8"/>
+      <c r="T617" s="8"/>
     </row>
     <row r="618">
       <c r="A618" s="8"/>
@@ -41462,6 +42092,7 @@
       <c r="Q618" s="8"/>
       <c r="R618" s="8"/>
       <c r="S618" s="8"/>
+      <c r="T618" s="8"/>
     </row>
     <row r="619">
       <c r="A619" s="8"/>
@@ -41483,6 +42114,7 @@
       <c r="Q619" s="8"/>
       <c r="R619" s="8"/>
       <c r="S619" s="8"/>
+      <c r="T619" s="8"/>
     </row>
     <row r="620">
       <c r="A620" s="8"/>
@@ -41504,6 +42136,7 @@
       <c r="Q620" s="8"/>
       <c r="R620" s="8"/>
       <c r="S620" s="8"/>
+      <c r="T620" s="8"/>
     </row>
     <row r="621">
       <c r="A621" s="8"/>
@@ -41525,6 +42158,7 @@
       <c r="Q621" s="8"/>
       <c r="R621" s="8"/>
       <c r="S621" s="8"/>
+      <c r="T621" s="8"/>
     </row>
     <row r="622">
       <c r="A622" s="8"/>
@@ -41546,6 +42180,7 @@
       <c r="Q622" s="8"/>
       <c r="R622" s="8"/>
       <c r="S622" s="8"/>
+      <c r="T622" s="8"/>
     </row>
     <row r="623">
       <c r="A623" s="8"/>
@@ -41567,6 +42202,7 @@
       <c r="Q623" s="8"/>
       <c r="R623" s="8"/>
       <c r="S623" s="8"/>
+      <c r="T623" s="8"/>
     </row>
     <row r="624">
       <c r="A624" s="8"/>
@@ -41588,6 +42224,7 @@
       <c r="Q624" s="8"/>
       <c r="R624" s="8"/>
       <c r="S624" s="8"/>
+      <c r="T624" s="8"/>
     </row>
     <row r="625">
       <c r="A625" s="8"/>
@@ -41609,6 +42246,7 @@
       <c r="Q625" s="8"/>
       <c r="R625" s="8"/>
       <c r="S625" s="8"/>
+      <c r="T625" s="8"/>
     </row>
     <row r="626">
       <c r="A626" s="8"/>
@@ -41630,6 +42268,7 @@
       <c r="Q626" s="8"/>
       <c r="R626" s="8"/>
       <c r="S626" s="8"/>
+      <c r="T626" s="8"/>
     </row>
     <row r="627">
       <c r="A627" s="8"/>
@@ -41651,6 +42290,7 @@
       <c r="Q627" s="8"/>
       <c r="R627" s="8"/>
       <c r="S627" s="8"/>
+      <c r="T627" s="8"/>
     </row>
     <row r="628">
       <c r="A628" s="8"/>
@@ -41672,6 +42312,7 @@
       <c r="Q628" s="8"/>
       <c r="R628" s="8"/>
       <c r="S628" s="8"/>
+      <c r="T628" s="8"/>
     </row>
     <row r="629">
       <c r="A629" s="8"/>
@@ -41693,6 +42334,7 @@
       <c r="Q629" s="8"/>
       <c r="R629" s="8"/>
       <c r="S629" s="8"/>
+      <c r="T629" s="8"/>
     </row>
     <row r="630">
       <c r="A630" s="8"/>
@@ -41714,6 +42356,7 @@
       <c r="Q630" s="8"/>
       <c r="R630" s="8"/>
       <c r="S630" s="8"/>
+      <c r="T630" s="8"/>
     </row>
     <row r="631">
       <c r="A631" s="8"/>
@@ -41735,6 +42378,7 @@
       <c r="Q631" s="8"/>
       <c r="R631" s="8"/>
       <c r="S631" s="8"/>
+      <c r="T631" s="8"/>
     </row>
     <row r="632">
       <c r="A632" s="8"/>
@@ -41756,6 +42400,7 @@
       <c r="Q632" s="8"/>
       <c r="R632" s="8"/>
       <c r="S632" s="8"/>
+      <c r="T632" s="8"/>
     </row>
     <row r="633">
       <c r="A633" s="8"/>
@@ -41777,6 +42422,7 @@
       <c r="Q633" s="8"/>
       <c r="R633" s="8"/>
       <c r="S633" s="8"/>
+      <c r="T633" s="8"/>
     </row>
     <row r="634">
       <c r="A634" s="8"/>
@@ -41798,6 +42444,7 @@
       <c r="Q634" s="8"/>
       <c r="R634" s="8"/>
       <c r="S634" s="8"/>
+      <c r="T634" s="8"/>
     </row>
     <row r="635">
       <c r="A635" s="8"/>
@@ -41819,6 +42466,7 @@
       <c r="Q635" s="8"/>
       <c r="R635" s="8"/>
       <c r="S635" s="8"/>
+      <c r="T635" s="8"/>
     </row>
     <row r="636">
       <c r="A636" s="8"/>
@@ -41840,6 +42488,7 @@
       <c r="Q636" s="8"/>
       <c r="R636" s="8"/>
       <c r="S636" s="8"/>
+      <c r="T636" s="8"/>
     </row>
     <row r="637">
       <c r="A637" s="8"/>
@@ -41861,6 +42510,7 @@
       <c r="Q637" s="8"/>
       <c r="R637" s="8"/>
       <c r="S637" s="8"/>
+      <c r="T637" s="8"/>
     </row>
     <row r="638">
       <c r="A638" s="8"/>
@@ -41882,6 +42532,7 @@
       <c r="Q638" s="8"/>
       <c r="R638" s="8"/>
       <c r="S638" s="8"/>
+      <c r="T638" s="8"/>
     </row>
     <row r="639">
       <c r="A639" s="8"/>
@@ -41903,6 +42554,7 @@
       <c r="Q639" s="8"/>
       <c r="R639" s="8"/>
       <c r="S639" s="8"/>
+      <c r="T639" s="8"/>
     </row>
     <row r="640">
       <c r="A640" s="8"/>
@@ -41924,6 +42576,7 @@
       <c r="Q640" s="8"/>
       <c r="R640" s="8"/>
       <c r="S640" s="8"/>
+      <c r="T640" s="8"/>
     </row>
     <row r="641">
       <c r="A641" s="8"/>
@@ -41945,6 +42598,7 @@
       <c r="Q641" s="8"/>
       <c r="R641" s="8"/>
       <c r="S641" s="8"/>
+      <c r="T641" s="8"/>
     </row>
     <row r="642">
       <c r="A642" s="8"/>
@@ -41966,6 +42620,7 @@
       <c r="Q642" s="8"/>
       <c r="R642" s="8"/>
       <c r="S642" s="8"/>
+      <c r="T642" s="8"/>
     </row>
     <row r="643">
       <c r="A643" s="8"/>
@@ -41987,6 +42642,7 @@
       <c r="Q643" s="8"/>
       <c r="R643" s="8"/>
       <c r="S643" s="8"/>
+      <c r="T643" s="8"/>
     </row>
     <row r="644">
       <c r="A644" s="8"/>
@@ -42008,6 +42664,7 @@
       <c r="Q644" s="8"/>
       <c r="R644" s="8"/>
       <c r="S644" s="8"/>
+      <c r="T644" s="8"/>
     </row>
     <row r="645">
       <c r="A645" s="8"/>
@@ -42029,6 +42686,7 @@
       <c r="Q645" s="8"/>
       <c r="R645" s="8"/>
       <c r="S645" s="8"/>
+      <c r="T645" s="8"/>
     </row>
     <row r="646">
       <c r="A646" s="8"/>
@@ -42050,6 +42708,7 @@
       <c r="Q646" s="8"/>
       <c r="R646" s="8"/>
       <c r="S646" s="8"/>
+      <c r="T646" s="8"/>
     </row>
     <row r="647">
       <c r="A647" s="8"/>
@@ -42071,6 +42730,7 @@
       <c r="Q647" s="8"/>
       <c r="R647" s="8"/>
       <c r="S647" s="8"/>
+      <c r="T647" s="8"/>
     </row>
     <row r="648">
       <c r="A648" s="8"/>
@@ -42092,6 +42752,7 @@
       <c r="Q648" s="8"/>
       <c r="R648" s="8"/>
       <c r="S648" s="8"/>
+      <c r="T648" s="8"/>
     </row>
     <row r="649">
       <c r="A649" s="8"/>
@@ -42113,6 +42774,7 @@
       <c r="Q649" s="8"/>
       <c r="R649" s="8"/>
       <c r="S649" s="8"/>
+      <c r="T649" s="8"/>
     </row>
     <row r="650">
       <c r="A650" s="8"/>
@@ -42134,6 +42796,7 @@
       <c r="Q650" s="8"/>
       <c r="R650" s="8"/>
       <c r="S650" s="8"/>
+      <c r="T650" s="8"/>
     </row>
     <row r="651">
       <c r="A651" s="8"/>
@@ -42155,6 +42818,7 @@
       <c r="Q651" s="8"/>
       <c r="R651" s="8"/>
       <c r="S651" s="8"/>
+      <c r="T651" s="8"/>
     </row>
     <row r="652">
       <c r="A652" s="8"/>
@@ -42176,6 +42840,7 @@
       <c r="Q652" s="8"/>
       <c r="R652" s="8"/>
       <c r="S652" s="8"/>
+      <c r="T652" s="8"/>
     </row>
     <row r="653">
       <c r="A653" s="8"/>
@@ -42197,6 +42862,7 @@
       <c r="Q653" s="8"/>
       <c r="R653" s="8"/>
       <c r="S653" s="8"/>
+      <c r="T653" s="8"/>
     </row>
     <row r="654">
       <c r="A654" s="8"/>
@@ -42218,6 +42884,7 @@
       <c r="Q654" s="8"/>
       <c r="R654" s="8"/>
       <c r="S654" s="8"/>
+      <c r="T654" s="8"/>
     </row>
     <row r="655">
       <c r="A655" s="8"/>
@@ -42239,6 +42906,7 @@
       <c r="Q655" s="8"/>
       <c r="R655" s="8"/>
       <c r="S655" s="8"/>
+      <c r="T655" s="8"/>
     </row>
     <row r="656">
       <c r="A656" s="8"/>
@@ -42260,6 +42928,7 @@
       <c r="Q656" s="8"/>
       <c r="R656" s="8"/>
       <c r="S656" s="8"/>
+      <c r="T656" s="8"/>
     </row>
     <row r="657">
       <c r="A657" s="8"/>
@@ -42281,6 +42950,7 @@
       <c r="Q657" s="8"/>
       <c r="R657" s="8"/>
       <c r="S657" s="8"/>
+      <c r="T657" s="8"/>
     </row>
     <row r="658">
       <c r="A658" s="8"/>
@@ -42302,6 +42972,7 @@
       <c r="Q658" s="8"/>
       <c r="R658" s="8"/>
       <c r="S658" s="8"/>
+      <c r="T658" s="8"/>
     </row>
     <row r="659">
       <c r="A659" s="8"/>
@@ -42323,6 +42994,7 @@
       <c r="Q659" s="8"/>
       <c r="R659" s="8"/>
       <c r="S659" s="8"/>
+      <c r="T659" s="8"/>
     </row>
     <row r="660">
       <c r="A660" s="8"/>
@@ -42344,6 +43016,7 @@
       <c r="Q660" s="8"/>
       <c r="R660" s="8"/>
       <c r="S660" s="8"/>
+      <c r="T660" s="8"/>
     </row>
     <row r="661">
       <c r="A661" s="8"/>
@@ -42365,6 +43038,7 @@
       <c r="Q661" s="8"/>
       <c r="R661" s="8"/>
       <c r="S661" s="8"/>
+      <c r="T661" s="8"/>
     </row>
     <row r="662">
       <c r="A662" s="8"/>
@@ -42386,6 +43060,7 @@
       <c r="Q662" s="8"/>
       <c r="R662" s="8"/>
       <c r="S662" s="8"/>
+      <c r="T662" s="8"/>
     </row>
     <row r="663">
       <c r="A663" s="8"/>
@@ -42407,6 +43082,7 @@
       <c r="Q663" s="8"/>
       <c r="R663" s="8"/>
       <c r="S663" s="8"/>
+      <c r="T663" s="8"/>
     </row>
     <row r="664">
       <c r="A664" s="8"/>
@@ -42428,6 +43104,7 @@
       <c r="Q664" s="8"/>
       <c r="R664" s="8"/>
       <c r="S664" s="8"/>
+      <c r="T664" s="8"/>
     </row>
     <row r="665">
       <c r="A665" s="8"/>
@@ -42449,6 +43126,7 @@
       <c r="Q665" s="8"/>
       <c r="R665" s="8"/>
       <c r="S665" s="8"/>
+      <c r="T665" s="8"/>
     </row>
     <row r="666">
       <c r="A666" s="8"/>
@@ -42470,6 +43148,7 @@
       <c r="Q666" s="8"/>
       <c r="R666" s="8"/>
       <c r="S666" s="8"/>
+      <c r="T666" s="8"/>
     </row>
     <row r="667">
       <c r="A667" s="8"/>
@@ -42491,6 +43170,7 @@
       <c r="Q667" s="8"/>
       <c r="R667" s="8"/>
       <c r="S667" s="8"/>
+      <c r="T667" s="8"/>
     </row>
     <row r="668">
       <c r="A668" s="8"/>
@@ -42512,6 +43192,7 @@
       <c r="Q668" s="8"/>
       <c r="R668" s="8"/>
       <c r="S668" s="8"/>
+      <c r="T668" s="8"/>
     </row>
     <row r="669">
       <c r="A669" s="8"/>
@@ -42533,6 +43214,7 @@
       <c r="Q669" s="8"/>
       <c r="R669" s="8"/>
       <c r="S669" s="8"/>
+      <c r="T669" s="8"/>
     </row>
     <row r="670">
       <c r="A670" s="8"/>
@@ -42554,6 +43236,7 @@
       <c r="Q670" s="8"/>
       <c r="R670" s="8"/>
       <c r="S670" s="8"/>
+      <c r="T670" s="8"/>
     </row>
     <row r="671">
       <c r="A671" s="8"/>
@@ -42575,6 +43258,7 @@
       <c r="Q671" s="8"/>
       <c r="R671" s="8"/>
       <c r="S671" s="8"/>
+      <c r="T671" s="8"/>
     </row>
     <row r="672">
       <c r="A672" s="8"/>
@@ -42596,6 +43280,7 @@
       <c r="Q672" s="8"/>
       <c r="R672" s="8"/>
       <c r="S672" s="8"/>
+      <c r="T672" s="8"/>
     </row>
     <row r="673">
       <c r="A673" s="8"/>
@@ -42617,6 +43302,7 @@
       <c r="Q673" s="8"/>
       <c r="R673" s="8"/>
       <c r="S673" s="8"/>
+      <c r="T673" s="8"/>
     </row>
     <row r="674">
       <c r="A674" s="8"/>
@@ -42638,6 +43324,7 @@
       <c r="Q674" s="8"/>
       <c r="R674" s="8"/>
       <c r="S674" s="8"/>
+      <c r="T674" s="8"/>
     </row>
     <row r="675">
       <c r="A675" s="8"/>
@@ -42659,6 +43346,7 @@
       <c r="Q675" s="8"/>
       <c r="R675" s="8"/>
       <c r="S675" s="8"/>
+      <c r="T675" s="8"/>
     </row>
     <row r="676">
       <c r="A676" s="8"/>
@@ -42680,6 +43368,7 @@
       <c r="Q676" s="8"/>
       <c r="R676" s="8"/>
       <c r="S676" s="8"/>
+      <c r="T676" s="8"/>
     </row>
     <row r="677">
       <c r="A677" s="8"/>
@@ -42701,6 +43390,7 @@
       <c r="Q677" s="8"/>
       <c r="R677" s="8"/>
       <c r="S677" s="8"/>
+      <c r="T677" s="8"/>
     </row>
     <row r="678">
       <c r="A678" s="8"/>
@@ -42722,6 +43412,7 @@
       <c r="Q678" s="8"/>
       <c r="R678" s="8"/>
       <c r="S678" s="8"/>
+      <c r="T678" s="8"/>
     </row>
     <row r="679">
       <c r="A679" s="8"/>
@@ -42743,6 +43434,7 @@
       <c r="Q679" s="8"/>
       <c r="R679" s="8"/>
       <c r="S679" s="8"/>
+      <c r="T679" s="8"/>
     </row>
     <row r="680">
       <c r="A680" s="8"/>
@@ -42764,6 +43456,7 @@
       <c r="Q680" s="8"/>
       <c r="R680" s="8"/>
       <c r="S680" s="8"/>
+      <c r="T680" s="8"/>
     </row>
     <row r="681">
       <c r="A681" s="8"/>
@@ -42785,6 +43478,7 @@
       <c r="Q681" s="8"/>
       <c r="R681" s="8"/>
       <c r="S681" s="8"/>
+      <c r="T681" s="8"/>
     </row>
     <row r="682">
       <c r="A682" s="8"/>
@@ -42806,6 +43500,7 @@
       <c r="Q682" s="8"/>
       <c r="R682" s="8"/>
       <c r="S682" s="8"/>
+      <c r="T682" s="8"/>
     </row>
     <row r="683">
       <c r="A683" s="8"/>
@@ -42827,6 +43522,7 @@
       <c r="Q683" s="8"/>
       <c r="R683" s="8"/>
       <c r="S683" s="8"/>
+      <c r="T683" s="8"/>
     </row>
     <row r="684">
       <c r="A684" s="8"/>
@@ -42848,6 +43544,7 @@
       <c r="Q684" s="8"/>
       <c r="R684" s="8"/>
       <c r="S684" s="8"/>
+      <c r="T684" s="8"/>
     </row>
     <row r="685">
       <c r="A685" s="8"/>
@@ -42869,6 +43566,7 @@
       <c r="Q685" s="8"/>
       <c r="R685" s="8"/>
       <c r="S685" s="8"/>
+      <c r="T685" s="8"/>
     </row>
     <row r="686">
       <c r="A686" s="8"/>
@@ -42890,6 +43588,7 @@
       <c r="Q686" s="8"/>
       <c r="R686" s="8"/>
       <c r="S686" s="8"/>
+      <c r="T686" s="8"/>
     </row>
     <row r="687">
       <c r="A687" s="8"/>
@@ -42911,6 +43610,7 @@
       <c r="Q687" s="8"/>
       <c r="R687" s="8"/>
       <c r="S687" s="8"/>
+      <c r="T687" s="8"/>
     </row>
     <row r="688">
       <c r="A688" s="8"/>
@@ -42932,6 +43632,7 @@
       <c r="Q688" s="8"/>
       <c r="R688" s="8"/>
       <c r="S688" s="8"/>
+      <c r="T688" s="8"/>
     </row>
     <row r="689">
       <c r="A689" s="8"/>
@@ -42953,6 +43654,7 @@
       <c r="Q689" s="8"/>
       <c r="R689" s="8"/>
       <c r="S689" s="8"/>
+      <c r="T689" s="8"/>
     </row>
     <row r="690">
       <c r="A690" s="8"/>
@@ -42974,6 +43676,7 @@
       <c r="Q690" s="8"/>
       <c r="R690" s="8"/>
       <c r="S690" s="8"/>
+      <c r="T690" s="8"/>
     </row>
     <row r="691">
       <c r="A691" s="8"/>
@@ -42995,6 +43698,7 @@
       <c r="Q691" s="8"/>
       <c r="R691" s="8"/>
       <c r="S691" s="8"/>
+      <c r="T691" s="8"/>
     </row>
     <row r="692">
       <c r="A692" s="8"/>
@@ -43016,6 +43720,7 @@
       <c r="Q692" s="8"/>
       <c r="R692" s="8"/>
       <c r="S692" s="8"/>
+      <c r="T692" s="8"/>
     </row>
     <row r="693">
       <c r="A693" s="8"/>
@@ -43037,6 +43742,7 @@
       <c r="Q693" s="8"/>
       <c r="R693" s="8"/>
       <c r="S693" s="8"/>
+      <c r="T693" s="8"/>
     </row>
     <row r="694">
       <c r="A694" s="8"/>
@@ -43058,6 +43764,7 @@
       <c r="Q694" s="8"/>
       <c r="R694" s="8"/>
       <c r="S694" s="8"/>
+      <c r="T694" s="8"/>
     </row>
     <row r="695">
       <c r="A695" s="8"/>
@@ -43079,6 +43786,7 @@
       <c r="Q695" s="8"/>
       <c r="R695" s="8"/>
       <c r="S695" s="8"/>
+      <c r="T695" s="8"/>
     </row>
     <row r="696">
       <c r="A696" s="8"/>
@@ -43100,6 +43808,7 @@
       <c r="Q696" s="8"/>
       <c r="R696" s="8"/>
       <c r="S696" s="8"/>
+      <c r="T696" s="8"/>
     </row>
     <row r="697">
       <c r="A697" s="8"/>
@@ -43121,6 +43830,7 @@
       <c r="Q697" s="8"/>
       <c r="R697" s="8"/>
       <c r="S697" s="8"/>
+      <c r="T697" s="8"/>
     </row>
     <row r="698">
       <c r="A698" s="8"/>
@@ -43142,6 +43852,7 @@
       <c r="Q698" s="8"/>
       <c r="R698" s="8"/>
       <c r="S698" s="8"/>
+      <c r="T698" s="8"/>
     </row>
     <row r="699">
       <c r="A699" s="8"/>
@@ -43163,6 +43874,7 @@
       <c r="Q699" s="8"/>
       <c r="R699" s="8"/>
       <c r="S699" s="8"/>
+      <c r="T699" s="8"/>
     </row>
     <row r="700">
       <c r="A700" s="8"/>
@@ -43184,6 +43896,7 @@
       <c r="Q700" s="8"/>
       <c r="R700" s="8"/>
       <c r="S700" s="8"/>
+      <c r="T700" s="8"/>
     </row>
     <row r="701">
       <c r="A701" s="8"/>
@@ -43205,6 +43918,7 @@
       <c r="Q701" s="8"/>
       <c r="R701" s="8"/>
       <c r="S701" s="8"/>
+      <c r="T701" s="8"/>
     </row>
     <row r="702">
       <c r="A702" s="8"/>
@@ -43226,6 +43940,7 @@
       <c r="Q702" s="8"/>
       <c r="R702" s="8"/>
       <c r="S702" s="8"/>
+      <c r="T702" s="8"/>
     </row>
     <row r="703">
       <c r="A703" s="8"/>
@@ -43247,6 +43962,7 @@
       <c r="Q703" s="8"/>
       <c r="R703" s="8"/>
       <c r="S703" s="8"/>
+      <c r="T703" s="8"/>
     </row>
     <row r="704">
       <c r="A704" s="8"/>
@@ -43268,6 +43984,7 @@
       <c r="Q704" s="8"/>
       <c r="R704" s="8"/>
       <c r="S704" s="8"/>
+      <c r="T704" s="8"/>
     </row>
     <row r="705">
       <c r="A705" s="8"/>
@@ -43289,6 +44006,7 @@
       <c r="Q705" s="8"/>
       <c r="R705" s="8"/>
       <c r="S705" s="8"/>
+      <c r="T705" s="8"/>
     </row>
     <row r="706">
       <c r="A706" s="8"/>
@@ -43310,6 +44028,7 @@
       <c r="Q706" s="8"/>
       <c r="R706" s="8"/>
       <c r="S706" s="8"/>
+      <c r="T706" s="8"/>
     </row>
     <row r="707">
       <c r="A707" s="8"/>
@@ -43331,6 +44050,7 @@
       <c r="Q707" s="8"/>
       <c r="R707" s="8"/>
       <c r="S707" s="8"/>
+      <c r="T707" s="8"/>
     </row>
     <row r="708">
       <c r="A708" s="8"/>
@@ -43352,6 +44072,7 @@
       <c r="Q708" s="8"/>
       <c r="R708" s="8"/>
       <c r="S708" s="8"/>
+      <c r="T708" s="8"/>
     </row>
     <row r="709">
       <c r="A709" s="8"/>
@@ -43373,6 +44094,7 @@
       <c r="Q709" s="8"/>
       <c r="R709" s="8"/>
       <c r="S709" s="8"/>
+      <c r="T709" s="8"/>
     </row>
     <row r="710">
       <c r="A710" s="8"/>
@@ -43394,6 +44116,7 @@
       <c r="Q710" s="8"/>
       <c r="R710" s="8"/>
       <c r="S710" s="8"/>
+      <c r="T710" s="8"/>
     </row>
     <row r="711">
       <c r="A711" s="8"/>
@@ -43415,6 +44138,7 @@
       <c r="Q711" s="8"/>
       <c r="R711" s="8"/>
       <c r="S711" s="8"/>
+      <c r="T711" s="8"/>
     </row>
     <row r="712">
       <c r="A712" s="8"/>
@@ -43436,6 +44160,7 @@
       <c r="Q712" s="8"/>
       <c r="R712" s="8"/>
       <c r="S712" s="8"/>
+      <c r="T712" s="8"/>
     </row>
     <row r="713">
       <c r="A713" s="8"/>
@@ -43457,6 +44182,7 @@
       <c r="Q713" s="8"/>
       <c r="R713" s="8"/>
       <c r="S713" s="8"/>
+      <c r="T713" s="8"/>
     </row>
     <row r="714">
       <c r="A714" s="8"/>
@@ -43478,6 +44204,7 @@
       <c r="Q714" s="8"/>
       <c r="R714" s="8"/>
       <c r="S714" s="8"/>
+      <c r="T714" s="8"/>
     </row>
     <row r="715">
       <c r="A715" s="8"/>
@@ -43499,6 +44226,7 @@
       <c r="Q715" s="8"/>
       <c r="R715" s="8"/>
       <c r="S715" s="8"/>
+      <c r="T715" s="8"/>
     </row>
     <row r="716">
       <c r="A716" s="8"/>
@@ -43520,6 +44248,7 @@
       <c r="Q716" s="8"/>
       <c r="R716" s="8"/>
       <c r="S716" s="8"/>
+      <c r="T716" s="8"/>
     </row>
     <row r="717">
       <c r="A717" s="8"/>
@@ -43541,6 +44270,7 @@
       <c r="Q717" s="8"/>
       <c r="R717" s="8"/>
       <c r="S717" s="8"/>
+      <c r="T717" s="8"/>
     </row>
     <row r="718">
       <c r="A718" s="8"/>
@@ -43562,6 +44292,7 @@
       <c r="Q718" s="8"/>
       <c r="R718" s="8"/>
       <c r="S718" s="8"/>
+      <c r="T718" s="8"/>
     </row>
     <row r="719">
       <c r="A719" s="8"/>
@@ -43583,6 +44314,7 @@
       <c r="Q719" s="8"/>
       <c r="R719" s="8"/>
       <c r="S719" s="8"/>
+      <c r="T719" s="8"/>
     </row>
     <row r="720">
       <c r="A720" s="8"/>
@@ -43604,6 +44336,7 @@
       <c r="Q720" s="8"/>
       <c r="R720" s="8"/>
       <c r="S720" s="8"/>
+      <c r="T720" s="8"/>
     </row>
     <row r="721">
       <c r="A721" s="8"/>
@@ -43625,6 +44358,7 @@
       <c r="Q721" s="8"/>
       <c r="R721" s="8"/>
       <c r="S721" s="8"/>
+      <c r="T721" s="8"/>
     </row>
     <row r="722">
       <c r="A722" s="8"/>
@@ -43646,6 +44380,7 @@
       <c r="Q722" s="8"/>
       <c r="R722" s="8"/>
       <c r="S722" s="8"/>
+      <c r="T722" s="8"/>
     </row>
     <row r="723">
       <c r="A723" s="8"/>
@@ -43667,6 +44402,7 @@
       <c r="Q723" s="8"/>
       <c r="R723" s="8"/>
       <c r="S723" s="8"/>
+      <c r="T723" s="8"/>
     </row>
     <row r="724">
       <c r="A724" s="8"/>
@@ -43688,6 +44424,7 @@
       <c r="Q724" s="8"/>
       <c r="R724" s="8"/>
       <c r="S724" s="8"/>
+      <c r="T724" s="8"/>
     </row>
     <row r="725">
       <c r="A725" s="8"/>
@@ -43709,6 +44446,7 @@
       <c r="Q725" s="8"/>
       <c r="R725" s="8"/>
       <c r="S725" s="8"/>
+      <c r="T725" s="8"/>
     </row>
     <row r="726">
       <c r="A726" s="8"/>
@@ -43730,6 +44468,7 @@
       <c r="Q726" s="8"/>
       <c r="R726" s="8"/>
       <c r="S726" s="8"/>
+      <c r="T726" s="8"/>
     </row>
     <row r="727">
       <c r="A727" s="8"/>
@@ -43751,6 +44490,7 @@
       <c r="Q727" s="8"/>
       <c r="R727" s="8"/>
       <c r="S727" s="8"/>
+      <c r="T727" s="8"/>
     </row>
     <row r="728">
       <c r="A728" s="8"/>
@@ -43772,6 +44512,7 @@
       <c r="Q728" s="8"/>
       <c r="R728" s="8"/>
       <c r="S728" s="8"/>
+      <c r="T728" s="8"/>
     </row>
     <row r="729">
       <c r="A729" s="8"/>
@@ -43793,6 +44534,7 @@
       <c r="Q729" s="8"/>
       <c r="R729" s="8"/>
       <c r="S729" s="8"/>
+      <c r="T729" s="8"/>
     </row>
     <row r="730">
       <c r="A730" s="8"/>
@@ -43814,6 +44556,7 @@
       <c r="Q730" s="8"/>
       <c r="R730" s="8"/>
       <c r="S730" s="8"/>
+      <c r="T730" s="8"/>
     </row>
     <row r="731">
       <c r="A731" s="8"/>
@@ -43835,6 +44578,7 @@
       <c r="Q731" s="8"/>
       <c r="R731" s="8"/>
       <c r="S731" s="8"/>
+      <c r="T731" s="8"/>
     </row>
     <row r="732">
       <c r="A732" s="8"/>
@@ -43856,6 +44600,7 @@
       <c r="Q732" s="8"/>
       <c r="R732" s="8"/>
       <c r="S732" s="8"/>
+      <c r="T732" s="8"/>
     </row>
     <row r="733">
       <c r="A733" s="8"/>
@@ -43877,6 +44622,7 @@
       <c r="Q733" s="8"/>
       <c r="R733" s="8"/>
       <c r="S733" s="8"/>
+      <c r="T733" s="8"/>
     </row>
     <row r="734">
       <c r="A734" s="8"/>
@@ -43898,6 +44644,7 @@
       <c r="Q734" s="8"/>
       <c r="R734" s="8"/>
       <c r="S734" s="8"/>
+      <c r="T734" s="8"/>
     </row>
     <row r="735">
       <c r="A735" s="8"/>
@@ -43919,6 +44666,7 @@
       <c r="Q735" s="8"/>
       <c r="R735" s="8"/>
       <c r="S735" s="8"/>
+      <c r="T735" s="8"/>
     </row>
     <row r="736">
       <c r="A736" s="8"/>
@@ -43940,6 +44688,7 @@
       <c r="Q736" s="8"/>
       <c r="R736" s="8"/>
       <c r="S736" s="8"/>
+      <c r="T736" s="8"/>
     </row>
     <row r="737">
       <c r="A737" s="8"/>
@@ -43961,6 +44710,7 @@
       <c r="Q737" s="8"/>
       <c r="R737" s="8"/>
       <c r="S737" s="8"/>
+      <c r="T737" s="8"/>
     </row>
     <row r="738">
       <c r="A738" s="8"/>
@@ -43982,6 +44732,7 @@
       <c r="Q738" s="8"/>
       <c r="R738" s="8"/>
       <c r="S738" s="8"/>
+      <c r="T738" s="8"/>
     </row>
     <row r="739">
       <c r="A739" s="8"/>
@@ -44003,6 +44754,7 @@
       <c r="Q739" s="8"/>
       <c r="R739" s="8"/>
       <c r="S739" s="8"/>
+      <c r="T739" s="8"/>
     </row>
     <row r="740">
       <c r="A740" s="8"/>
@@ -44024,6 +44776,7 @@
       <c r="Q740" s="8"/>
       <c r="R740" s="8"/>
       <c r="S740" s="8"/>
+      <c r="T740" s="8"/>
     </row>
     <row r="741">
       <c r="A741" s="8"/>
@@ -44045,6 +44798,7 @@
       <c r="Q741" s="8"/>
       <c r="R741" s="8"/>
       <c r="S741" s="8"/>
+      <c r="T741" s="8"/>
     </row>
     <row r="742">
       <c r="A742" s="8"/>
@@ -44066,6 +44820,7 @@
       <c r="Q742" s="8"/>
       <c r="R742" s="8"/>
       <c r="S742" s="8"/>
+      <c r="T742" s="8"/>
     </row>
     <row r="743">
       <c r="A743" s="8"/>
@@ -44087,6 +44842,7 @@
       <c r="Q743" s="8"/>
       <c r="R743" s="8"/>
       <c r="S743" s="8"/>
+      <c r="T743" s="8"/>
     </row>
     <row r="744">
       <c r="A744" s="8"/>
@@ -44108,6 +44864,7 @@
       <c r="Q744" s="8"/>
       <c r="R744" s="8"/>
       <c r="S744" s="8"/>
+      <c r="T744" s="8"/>
     </row>
     <row r="745">
       <c r="A745" s="8"/>
@@ -44129,6 +44886,7 @@
       <c r="Q745" s="8"/>
       <c r="R745" s="8"/>
       <c r="S745" s="8"/>
+      <c r="T745" s="8"/>
     </row>
     <row r="746">
       <c r="A746" s="8"/>
@@ -44150,6 +44908,7 @@
       <c r="Q746" s="8"/>
       <c r="R746" s="8"/>
       <c r="S746" s="8"/>
+      <c r="T746" s="8"/>
     </row>
     <row r="747">
       <c r="A747" s="8"/>
@@ -44171,6 +44930,7 @@
       <c r="Q747" s="8"/>
       <c r="R747" s="8"/>
       <c r="S747" s="8"/>
+      <c r="T747" s="8"/>
     </row>
     <row r="748">
       <c r="A748" s="8"/>
@@ -44192,6 +44952,7 @@
       <c r="Q748" s="8"/>
       <c r="R748" s="8"/>
       <c r="S748" s="8"/>
+      <c r="T748" s="8"/>
     </row>
     <row r="749">
       <c r="A749" s="8"/>
@@ -44213,6 +44974,7 @@
       <c r="Q749" s="8"/>
       <c r="R749" s="8"/>
       <c r="S749" s="8"/>
+      <c r="T749" s="8"/>
     </row>
     <row r="750">
       <c r="A750" s="8"/>
@@ -44234,6 +44996,7 @@
       <c r="Q750" s="8"/>
       <c r="R750" s="8"/>
       <c r="S750" s="8"/>
+      <c r="T750" s="8"/>
     </row>
     <row r="751">
       <c r="A751" s="8"/>
@@ -44255,6 +45018,7 @@
       <c r="Q751" s="8"/>
       <c r="R751" s="8"/>
       <c r="S751" s="8"/>
+      <c r="T751" s="8"/>
     </row>
     <row r="752">
       <c r="A752" s="8"/>
@@ -44276,6 +45040,7 @@
       <c r="Q752" s="8"/>
       <c r="R752" s="8"/>
       <c r="S752" s="8"/>
+      <c r="T752" s="8"/>
     </row>
     <row r="753">
       <c r="A753" s="8"/>
@@ -44297,6 +45062,7 @@
       <c r="Q753" s="8"/>
       <c r="R753" s="8"/>
       <c r="S753" s="8"/>
+      <c r="T753" s="8"/>
     </row>
     <row r="754">
       <c r="A754" s="8"/>
@@ -44318,6 +45084,7 @@
       <c r="Q754" s="8"/>
       <c r="R754" s="8"/>
       <c r="S754" s="8"/>
+      <c r="T754" s="8"/>
     </row>
     <row r="755">
       <c r="A755" s="8"/>
@@ -44339,6 +45106,7 @@
       <c r="Q755" s="8"/>
       <c r="R755" s="8"/>
       <c r="S755" s="8"/>
+      <c r="T755" s="8"/>
     </row>
     <row r="756">
       <c r="A756" s="8"/>
@@ -44360,6 +45128,7 @@
       <c r="Q756" s="8"/>
       <c r="R756" s="8"/>
       <c r="S756" s="8"/>
+      <c r="T756" s="8"/>
     </row>
     <row r="757">
       <c r="A757" s="8"/>
@@ -44381,6 +45150,7 @@
       <c r="Q757" s="8"/>
       <c r="R757" s="8"/>
       <c r="S757" s="8"/>
+      <c r="T757" s="8"/>
     </row>
     <row r="758">
       <c r="A758" s="8"/>
@@ -44402,6 +45172,7 @@
       <c r="Q758" s="8"/>
       <c r="R758" s="8"/>
       <c r="S758" s="8"/>
+      <c r="T758" s="8"/>
     </row>
     <row r="759">
       <c r="A759" s="8"/>
@@ -44423,6 +45194,7 @@
       <c r="Q759" s="8"/>
       <c r="R759" s="8"/>
       <c r="S759" s="8"/>
+      <c r="T759" s="8"/>
     </row>
     <row r="760">
       <c r="A760" s="8"/>
@@ -44444,6 +45216,7 @@
       <c r="Q760" s="8"/>
       <c r="R760" s="8"/>
       <c r="S760" s="8"/>
+      <c r="T760" s="8"/>
     </row>
     <row r="761">
       <c r="A761" s="8"/>
@@ -44465,6 +45238,7 @@
       <c r="Q761" s="8"/>
       <c r="R761" s="8"/>
       <c r="S761" s="8"/>
+      <c r="T761" s="8"/>
     </row>
     <row r="762">
       <c r="A762" s="8"/>
@@ -44486,6 +45260,7 @@
       <c r="Q762" s="8"/>
       <c r="R762" s="8"/>
       <c r="S762" s="8"/>
+      <c r="T762" s="8"/>
     </row>
     <row r="763">
       <c r="A763" s="8"/>
@@ -44507,6 +45282,7 @@
       <c r="Q763" s="8"/>
       <c r="R763" s="8"/>
       <c r="S763" s="8"/>
+      <c r="T763" s="8"/>
     </row>
     <row r="764">
       <c r="A764" s="8"/>
@@ -44528,6 +45304,7 @@
       <c r="Q764" s="8"/>
       <c r="R764" s="8"/>
       <c r="S764" s="8"/>
+      <c r="T764" s="8"/>
     </row>
     <row r="765">
       <c r="A765" s="8"/>
@@ -44549,6 +45326,7 @@
       <c r="Q765" s="8"/>
       <c r="R765" s="8"/>
       <c r="S765" s="8"/>
+      <c r="T765" s="8"/>
     </row>
     <row r="766">
       <c r="A766" s="8"/>
@@ -44570,6 +45348,7 @@
       <c r="Q766" s="8"/>
       <c r="R766" s="8"/>
       <c r="S766" s="8"/>
+      <c r="T766" s="8"/>
     </row>
     <row r="767">
       <c r="A767" s="8"/>
@@ -44591,6 +45370,7 @@
       <c r="Q767" s="8"/>
       <c r="R767" s="8"/>
       <c r="S767" s="8"/>
+      <c r="T767" s="8"/>
     </row>
     <row r="768">
       <c r="A768" s="8"/>
@@ -44612,6 +45392,7 @@
       <c r="Q768" s="8"/>
       <c r="R768" s="8"/>
       <c r="S768" s="8"/>
+      <c r="T768" s="8"/>
     </row>
     <row r="769">
       <c r="A769" s="8"/>
@@ -44633,6 +45414,7 @@
       <c r="Q769" s="8"/>
       <c r="R769" s="8"/>
       <c r="S769" s="8"/>
+      <c r="T769" s="8"/>
     </row>
     <row r="770">
       <c r="A770" s="8"/>
@@ -44654,6 +45436,7 @@
       <c r="Q770" s="8"/>
       <c r="R770" s="8"/>
       <c r="S770" s="8"/>
+      <c r="T770" s="8"/>
     </row>
     <row r="771">
       <c r="A771" s="8"/>
@@ -44675,6 +45458,7 @@
       <c r="Q771" s="8"/>
       <c r="R771" s="8"/>
       <c r="S771" s="8"/>
+      <c r="T771" s="8"/>
     </row>
     <row r="772">
       <c r="A772" s="8"/>
@@ -44696,6 +45480,7 @@
       <c r="Q772" s="8"/>
       <c r="R772" s="8"/>
       <c r="S772" s="8"/>
+      <c r="T772" s="8"/>
     </row>
     <row r="773">
       <c r="A773" s="8"/>
@@ -44717,6 +45502,7 @@
       <c r="Q773" s="8"/>
       <c r="R773" s="8"/>
       <c r="S773" s="8"/>
+      <c r="T773" s="8"/>
     </row>
     <row r="774">
       <c r="A774" s="8"/>
@@ -44738,6 +45524,7 @@
       <c r="Q774" s="8"/>
       <c r="R774" s="8"/>
       <c r="S774" s="8"/>
+      <c r="T774" s="8"/>
     </row>
     <row r="775">
       <c r="A775" s="8"/>
@@ -44759,6 +45546,7 @@
       <c r="Q775" s="8"/>
       <c r="R775" s="8"/>
       <c r="S775" s="8"/>
+      <c r="T775" s="8"/>
     </row>
     <row r="776">
       <c r="A776" s="8"/>
@@ -44780,6 +45568,7 @@
       <c r="Q776" s="8"/>
       <c r="R776" s="8"/>
       <c r="S776" s="8"/>
+      <c r="T776" s="8"/>
     </row>
     <row r="777">
       <c r="A777" s="8"/>
@@ -44801,6 +45590,7 @@
       <c r="Q777" s="8"/>
       <c r="R777" s="8"/>
       <c r="S777" s="8"/>
+      <c r="T777" s="8"/>
     </row>
     <row r="778">
       <c r="A778" s="8"/>
@@ -44822,6 +45612,7 @@
       <c r="Q778" s="8"/>
       <c r="R778" s="8"/>
       <c r="S778" s="8"/>
+      <c r="T778" s="8"/>
     </row>
     <row r="779">
       <c r="A779" s="8"/>
@@ -44843,6 +45634,7 @@
       <c r="Q779" s="8"/>
       <c r="R779" s="8"/>
       <c r="S779" s="8"/>
+      <c r="T779" s="8"/>
     </row>
     <row r="780">
       <c r="A780" s="8"/>
@@ -44864,6 +45656,7 @@
       <c r="Q780" s="8"/>
       <c r="R780" s="8"/>
       <c r="S780" s="8"/>
+      <c r="T780" s="8"/>
     </row>
     <row r="781">
       <c r="A781" s="8"/>
@@ -44885,6 +45678,7 @@
       <c r="Q781" s="8"/>
       <c r="R781" s="8"/>
       <c r="S781" s="8"/>
+      <c r="T781" s="8"/>
     </row>
     <row r="782">
       <c r="A782" s="8"/>
@@ -44906,6 +45700,7 @@
       <c r="Q782" s="8"/>
       <c r="R782" s="8"/>
       <c r="S782" s="8"/>
+      <c r="T782" s="8"/>
     </row>
     <row r="783">
       <c r="A783" s="8"/>
@@ -44927,6 +45722,7 @@
       <c r="Q783" s="8"/>
       <c r="R783" s="8"/>
       <c r="S783" s="8"/>
+      <c r="T783" s="8"/>
     </row>
     <row r="784">
       <c r="A784" s="8"/>
@@ -44948,6 +45744,7 @@
       <c r="Q784" s="8"/>
       <c r="R784" s="8"/>
       <c r="S784" s="8"/>
+      <c r="T784" s="8"/>
     </row>
     <row r="785">
       <c r="A785" s="8"/>
@@ -44969,6 +45766,7 @@
       <c r="Q785" s="8"/>
       <c r="R785" s="8"/>
       <c r="S785" s="8"/>
+      <c r="T785" s="8"/>
     </row>
     <row r="786">
       <c r="A786" s="8"/>
@@ -44990,6 +45788,7 @@
       <c r="Q786" s="8"/>
       <c r="R786" s="8"/>
       <c r="S786" s="8"/>
+      <c r="T786" s="8"/>
     </row>
     <row r="787">
       <c r="A787" s="8"/>
@@ -45011,6 +45810,7 @@
       <c r="Q787" s="8"/>
       <c r="R787" s="8"/>
       <c r="S787" s="8"/>
+      <c r="T787" s="8"/>
     </row>
     <row r="788">
       <c r="A788" s="8"/>
@@ -45032,6 +45832,7 @@
       <c r="Q788" s="8"/>
       <c r="R788" s="8"/>
       <c r="S788" s="8"/>
+      <c r="T788" s="8"/>
     </row>
     <row r="789">
       <c r="A789" s="8"/>
@@ -45053,6 +45854,7 @@
       <c r="Q789" s="8"/>
       <c r="R789" s="8"/>
       <c r="S789" s="8"/>
+      <c r="T789" s="8"/>
     </row>
     <row r="790">
       <c r="A790" s="8"/>
@@ -45074,6 +45876,7 @@
       <c r="Q790" s="8"/>
       <c r="R790" s="8"/>
       <c r="S790" s="8"/>
+      <c r="T790" s="8"/>
     </row>
     <row r="791">
       <c r="A791" s="8"/>
@@ -45095,6 +45898,7 @@
       <c r="Q791" s="8"/>
       <c r="R791" s="8"/>
       <c r="S791" s="8"/>
+      <c r="T791" s="8"/>
     </row>
     <row r="792">
       <c r="A792" s="8"/>
@@ -45116,6 +45920,7 @@
       <c r="Q792" s="8"/>
       <c r="R792" s="8"/>
       <c r="S792" s="8"/>
+      <c r="T792" s="8"/>
     </row>
     <row r="793">
       <c r="A793" s="8"/>
@@ -45137,6 +45942,7 @@
       <c r="Q793" s="8"/>
       <c r="R793" s="8"/>
       <c r="S793" s="8"/>
+      <c r="T793" s="8"/>
     </row>
     <row r="794">
       <c r="A794" s="8"/>
@@ -45158,6 +45964,7 @@
       <c r="Q794" s="8"/>
       <c r="R794" s="8"/>
       <c r="S794" s="8"/>
+      <c r="T794" s="8"/>
     </row>
     <row r="795">
       <c r="A795" s="8"/>
@@ -45179,6 +45986,7 @@
       <c r="Q795" s="8"/>
       <c r="R795" s="8"/>
       <c r="S795" s="8"/>
+      <c r="T795" s="8"/>
     </row>
     <row r="796">
       <c r="A796" s="8"/>
@@ -45200,6 +46008,7 @@
       <c r="Q796" s="8"/>
       <c r="R796" s="8"/>
       <c r="S796" s="8"/>
+      <c r="T796" s="8"/>
     </row>
     <row r="797">
       <c r="A797" s="8"/>
@@ -45221,6 +46030,7 @@
       <c r="Q797" s="8"/>
       <c r="R797" s="8"/>
       <c r="S797" s="8"/>
+      <c r="T797" s="8"/>
     </row>
     <row r="798">
       <c r="A798" s="8"/>
@@ -45242,6 +46052,7 @@
       <c r="Q798" s="8"/>
       <c r="R798" s="8"/>
       <c r="S798" s="8"/>
+      <c r="T798" s="8"/>
     </row>
     <row r="799">
       <c r="A799" s="8"/>
@@ -45263,6 +46074,7 @@
       <c r="Q799" s="8"/>
       <c r="R799" s="8"/>
       <c r="S799" s="8"/>
+      <c r="T799" s="8"/>
     </row>
     <row r="800">
       <c r="A800" s="8"/>
@@ -45284,6 +46096,7 @@
       <c r="Q800" s="8"/>
       <c r="R800" s="8"/>
       <c r="S800" s="8"/>
+      <c r="T800" s="8"/>
     </row>
     <row r="801">
       <c r="A801" s="8"/>
@@ -45305,6 +46118,7 @@
       <c r="Q801" s="8"/>
       <c r="R801" s="8"/>
       <c r="S801" s="8"/>
+      <c r="T801" s="8"/>
     </row>
     <row r="802">
       <c r="A802" s="8"/>
@@ -45326,6 +46140,7 @@
       <c r="Q802" s="8"/>
       <c r="R802" s="8"/>
       <c r="S802" s="8"/>
+      <c r="T802" s="8"/>
     </row>
     <row r="803">
       <c r="A803" s="8"/>
@@ -45347,6 +46162,7 @@
       <c r="Q803" s="8"/>
       <c r="R803" s="8"/>
       <c r="S803" s="8"/>
+      <c r="T803" s="8"/>
     </row>
     <row r="804">
       <c r="A804" s="8"/>
@@ -45368,6 +46184,7 @@
       <c r="Q804" s="8"/>
       <c r="R804" s="8"/>
       <c r="S804" s="8"/>
+      <c r="T804" s="8"/>
     </row>
     <row r="805">
       <c r="A805" s="8"/>
@@ -45389,6 +46206,7 @@
       <c r="Q805" s="8"/>
       <c r="R805" s="8"/>
       <c r="S805" s="8"/>
+      <c r="T805" s="8"/>
     </row>
     <row r="806">
       <c r="A806" s="8"/>
@@ -45410,6 +46228,7 @@
       <c r="Q806" s="8"/>
       <c r="R806" s="8"/>
       <c r="S806" s="8"/>
+      <c r="T806" s="8"/>
     </row>
     <row r="807">
       <c r="A807" s="8"/>
@@ -45431,6 +46250,7 @@
       <c r="Q807" s="8"/>
       <c r="R807" s="8"/>
       <c r="S807" s="8"/>
+      <c r="T807" s="8"/>
     </row>
     <row r="808">
       <c r="A808" s="8"/>
@@ -45452,6 +46272,7 @@
       <c r="Q808" s="8"/>
       <c r="R808" s="8"/>
       <c r="S808" s="8"/>
+      <c r="T808" s="8"/>
     </row>
     <row r="809">
       <c r="A809" s="8"/>
@@ -45473,6 +46294,7 @@
       <c r="Q809" s="8"/>
       <c r="R809" s="8"/>
       <c r="S809" s="8"/>
+      <c r="T809" s="8"/>
     </row>
     <row r="810">
       <c r="A810" s="8"/>
@@ -45494,6 +46316,7 @@
       <c r="Q810" s="8"/>
       <c r="R810" s="8"/>
       <c r="S810" s="8"/>
+      <c r="T810" s="8"/>
     </row>
     <row r="811">
       <c r="A811" s="8"/>
@@ -45515,6 +46338,7 @@
       <c r="Q811" s="8"/>
       <c r="R811" s="8"/>
       <c r="S811" s="8"/>
+      <c r="T811" s="8"/>
     </row>
     <row r="812">
       <c r="A812" s="8"/>
@@ -45536,6 +46360,7 @@
       <c r="Q812" s="8"/>
       <c r="R812" s="8"/>
       <c r="S812" s="8"/>
+      <c r="T812" s="8"/>
     </row>
     <row r="813">
       <c r="A813" s="8"/>
@@ -45557,6 +46382,7 @@
       <c r="Q813" s="8"/>
       <c r="R813" s="8"/>
       <c r="S813" s="8"/>
+      <c r="T813" s="8"/>
     </row>
     <row r="814">
       <c r="A814" s="8"/>
@@ -45578,6 +46404,7 @@
       <c r="Q814" s="8"/>
       <c r="R814" s="8"/>
       <c r="S814" s="8"/>
+      <c r="T814" s="8"/>
     </row>
     <row r="815">
       <c r="A815" s="8"/>
@@ -45599,6 +46426,7 @@
       <c r="Q815" s="8"/>
       <c r="R815" s="8"/>
       <c r="S815" s="8"/>
+      <c r="T815" s="8"/>
     </row>
     <row r="816">
       <c r="A816" s="8"/>
@@ -45620,6 +46448,7 @@
       <c r="Q816" s="8"/>
       <c r="R816" s="8"/>
       <c r="S816" s="8"/>
+      <c r="T816" s="8"/>
     </row>
     <row r="817">
       <c r="A817" s="8"/>
@@ -45641,6 +46470,7 @@
       <c r="Q817" s="8"/>
       <c r="R817" s="8"/>
       <c r="S817" s="8"/>
+      <c r="T817" s="8"/>
     </row>
     <row r="818">
       <c r="A818" s="8"/>
@@ -45662,6 +46492,7 @@
       <c r="Q818" s="8"/>
       <c r="R818" s="8"/>
       <c r="S818" s="8"/>
+      <c r="T818" s="8"/>
     </row>
     <row r="819">
       <c r="A819" s="8"/>
@@ -45683,6 +46514,7 @@
       <c r="Q819" s="8"/>
       <c r="R819" s="8"/>
       <c r="S819" s="8"/>
+      <c r="T819" s="8"/>
     </row>
     <row r="820">
       <c r="A820" s="8"/>
@@ -45704,6 +46536,7 @@
       <c r="Q820" s="8"/>
       <c r="R820" s="8"/>
       <c r="S820" s="8"/>
+      <c r="T820" s="8"/>
     </row>
     <row r="821">
       <c r="A821" s="8"/>
@@ -45725,6 +46558,7 @@
       <c r="Q821" s="8"/>
       <c r="R821" s="8"/>
       <c r="S821" s="8"/>
+      <c r="T821" s="8"/>
     </row>
     <row r="822">
       <c r="A822" s="8"/>
@@ -45746,6 +46580,7 @@
       <c r="Q822" s="8"/>
       <c r="R822" s="8"/>
       <c r="S822" s="8"/>
+      <c r="T822" s="8"/>
     </row>
     <row r="823">
       <c r="A823" s="8"/>
@@ -45767,6 +46602,7 @@
       <c r="Q823" s="8"/>
       <c r="R823" s="8"/>
       <c r="S823" s="8"/>
+      <c r="T823" s="8"/>
     </row>
     <row r="824">
       <c r="A824" s="8"/>
@@ -45788,6 +46624,7 @@
       <c r="Q824" s="8"/>
       <c r="R824" s="8"/>
       <c r="S824" s="8"/>
+      <c r="T824" s="8"/>
     </row>
     <row r="825">
       <c r="A825" s="8"/>
@@ -45809,6 +46646,7 @@
       <c r="Q825" s="8"/>
       <c r="R825" s="8"/>
       <c r="S825" s="8"/>
+      <c r="T825" s="8"/>
     </row>
     <row r="826">
       <c r="A826" s="8"/>
@@ -45830,6 +46668,7 @@
       <c r="Q826" s="8"/>
       <c r="R826" s="8"/>
       <c r="S826" s="8"/>
+      <c r="T826" s="8"/>
     </row>
     <row r="827">
       <c r="A827" s="8"/>
@@ -45851,6 +46690,7 @@
       <c r="Q827" s="8"/>
       <c r="R827" s="8"/>
       <c r="S827" s="8"/>
+      <c r="T827" s="8"/>
     </row>
     <row r="828">
       <c r="A828" s="8"/>
@@ -45872,6 +46712,7 @@
       <c r="Q828" s="8"/>
       <c r="R828" s="8"/>
       <c r="S828" s="8"/>
+      <c r="T828" s="8"/>
     </row>
     <row r="829">
       <c r="A829" s="8"/>
@@ -45893,6 +46734,7 @@
       <c r="Q829" s="8"/>
       <c r="R829" s="8"/>
       <c r="S829" s="8"/>
+      <c r="T829" s="8"/>
     </row>
     <row r="830">
       <c r="A830" s="8"/>
@@ -45914,6 +46756,7 @@
       <c r="Q830" s="8"/>
       <c r="R830" s="8"/>
       <c r="S830" s="8"/>
+      <c r="T830" s="8"/>
     </row>
     <row r="831">
       <c r="A831" s="8"/>
@@ -45935,6 +46778,7 @@
       <c r="Q831" s="8"/>
       <c r="R831" s="8"/>
       <c r="S831" s="8"/>
+      <c r="T831" s="8"/>
     </row>
     <row r="832">
       <c r="A832" s="8"/>
@@ -45956,6 +46800,7 @@
       <c r="Q832" s="8"/>
       <c r="R832" s="8"/>
       <c r="S832" s="8"/>
+      <c r="T832" s="8"/>
     </row>
     <row r="833">
       <c r="A833" s="8"/>
@@ -45977,6 +46822,7 @@
       <c r="Q833" s="8"/>
       <c r="R833" s="8"/>
       <c r="S833" s="8"/>
+      <c r="T833" s="8"/>
     </row>
     <row r="834">
       <c r="A834" s="8"/>
@@ -45998,6 +46844,7 @@
       <c r="Q834" s="8"/>
       <c r="R834" s="8"/>
       <c r="S834" s="8"/>
+      <c r="T834" s="8"/>
     </row>
     <row r="835">
       <c r="A835" s="8"/>
@@ -46019,6 +46866,7 @@
       <c r="Q835" s="8"/>
       <c r="R835" s="8"/>
       <c r="S835" s="8"/>
+      <c r="T835" s="8"/>
     </row>
     <row r="836">
       <c r="A836" s="8"/>
@@ -46040,6 +46888,7 @@
       <c r="Q836" s="8"/>
       <c r="R836" s="8"/>
       <c r="S836" s="8"/>
+      <c r="T836" s="8"/>
     </row>
     <row r="837">
       <c r="A837" s="8"/>
@@ -46061,6 +46910,7 @@
       <c r="Q837" s="8"/>
       <c r="R837" s="8"/>
       <c r="S837" s="8"/>
+      <c r="T837" s="8"/>
     </row>
     <row r="838">
       <c r="A838" s="8"/>
@@ -46082,6 +46932,7 @@
       <c r="Q838" s="8"/>
       <c r="R838" s="8"/>
       <c r="S838" s="8"/>
+      <c r="T838" s="8"/>
     </row>
     <row r="839">
       <c r="A839" s="8"/>
@@ -46103,6 +46954,7 @@
       <c r="Q839" s="8"/>
       <c r="R839" s="8"/>
       <c r="S839" s="8"/>
+      <c r="T839" s="8"/>
     </row>
     <row r="840">
       <c r="A840" s="8"/>
@@ -46124,6 +46976,7 @@
       <c r="Q840" s="8"/>
       <c r="R840" s="8"/>
       <c r="S840" s="8"/>
+      <c r="T840" s="8"/>
     </row>
     <row r="841">
       <c r="A841" s="8"/>
@@ -46145,6 +46998,7 @@
       <c r="Q841" s="8"/>
       <c r="R841" s="8"/>
       <c r="S841" s="8"/>
+      <c r="T841" s="8"/>
     </row>
     <row r="842">
       <c r="A842" s="8"/>
@@ -46166,6 +47020,7 @@
       <c r="Q842" s="8"/>
       <c r="R842" s="8"/>
       <c r="S842" s="8"/>
+      <c r="T842" s="8"/>
     </row>
     <row r="843">
       <c r="A843" s="8"/>
@@ -46187,6 +47042,7 @@
       <c r="Q843" s="8"/>
       <c r="R843" s="8"/>
       <c r="S843" s="8"/>
+      <c r="T843" s="8"/>
     </row>
     <row r="844">
       <c r="A844" s="8"/>
@@ -46208,6 +47064,7 @@
       <c r="Q844" s="8"/>
       <c r="R844" s="8"/>
       <c r="S844" s="8"/>
+      <c r="T844" s="8"/>
     </row>
     <row r="845">
       <c r="A845" s="8"/>
@@ -46229,6 +47086,7 @@
       <c r="Q845" s="8"/>
       <c r="R845" s="8"/>
       <c r="S845" s="8"/>
+      <c r="T845" s="8"/>
     </row>
     <row r="846">
       <c r="A846" s="8"/>
@@ -46250,6 +47108,7 @@
       <c r="Q846" s="8"/>
       <c r="R846" s="8"/>
       <c r="S846" s="8"/>
+      <c r="T846" s="8"/>
     </row>
     <row r="847">
       <c r="A847" s="8"/>
@@ -46271,6 +47130,7 @@
       <c r="Q847" s="8"/>
       <c r="R847" s="8"/>
       <c r="S847" s="8"/>
+      <c r="T847" s="8"/>
     </row>
     <row r="848">
       <c r="A848" s="8"/>
@@ -46292,6 +47152,7 @@
       <c r="Q848" s="8"/>
       <c r="R848" s="8"/>
       <c r="S848" s="8"/>
+      <c r="T848" s="8"/>
     </row>
     <row r="849">
       <c r="A849" s="8"/>
@@ -46313,6 +47174,7 @@
       <c r="Q849" s="8"/>
       <c r="R849" s="8"/>
       <c r="S849" s="8"/>
+      <c r="T849" s="8"/>
     </row>
     <row r="850">
       <c r="A850" s="8"/>
@@ -46334,6 +47196,7 @@
       <c r="Q850" s="8"/>
       <c r="R850" s="8"/>
       <c r="S850" s="8"/>
+      <c r="T850" s="8"/>
     </row>
     <row r="851">
       <c r="A851" s="8"/>
@@ -46355,6 +47218,7 @@
       <c r="Q851" s="8"/>
       <c r="R851" s="8"/>
       <c r="S851" s="8"/>
+      <c r="T851" s="8"/>
     </row>
     <row r="852">
       <c r="A852" s="8"/>
@@ -46376,6 +47240,7 @@
       <c r="Q852" s="8"/>
       <c r="R852" s="8"/>
       <c r="S852" s="8"/>
+      <c r="T852" s="8"/>
     </row>
     <row r="853">
       <c r="A853" s="8"/>
@@ -46397,6 +47262,7 @@
       <c r="Q853" s="8"/>
       <c r="R853" s="8"/>
       <c r="S853" s="8"/>
+      <c r="T853" s="8"/>
     </row>
     <row r="854">
       <c r="A854" s="8"/>
@@ -46418,6 +47284,7 @@
       <c r="Q854" s="8"/>
       <c r="R854" s="8"/>
       <c r="S854" s="8"/>
+      <c r="T854" s="8"/>
     </row>
     <row r="855">
       <c r="A855" s="8"/>
@@ -46439,6 +47306,7 @@
       <c r="Q855" s="8"/>
       <c r="R855" s="8"/>
       <c r="S855" s="8"/>
+      <c r="T855" s="8"/>
     </row>
     <row r="856">
       <c r="A856" s="8"/>
@@ -46460,6 +47328,7 @@
       <c r="Q856" s="8"/>
       <c r="R856" s="8"/>
       <c r="S856" s="8"/>
+      <c r="T856" s="8"/>
     </row>
     <row r="857">
       <c r="A857" s="8"/>
@@ -46481,6 +47350,7 @@
       <c r="Q857" s="8"/>
       <c r="R857" s="8"/>
       <c r="S857" s="8"/>
+      <c r="T857" s="8"/>
     </row>
     <row r="858">
       <c r="A858" s="8"/>
@@ -46502,6 +47372,7 @@
       <c r="Q858" s="8"/>
       <c r="R858" s="8"/>
       <c r="S858" s="8"/>
+      <c r="T858" s="8"/>
     </row>
     <row r="859">
       <c r="A859" s="8"/>
@@ -46523,6 +47394,7 @@
       <c r="Q859" s="8"/>
       <c r="R859" s="8"/>
       <c r="S859" s="8"/>
+      <c r="T859" s="8"/>
     </row>
     <row r="860">
       <c r="A860" s="8"/>
@@ -46544,6 +47416,7 @@
       <c r="Q860" s="8"/>
       <c r="R860" s="8"/>
       <c r="S860" s="8"/>
+      <c r="T860" s="8"/>
     </row>
     <row r="861">
       <c r="A861" s="8"/>
@@ -46565,6 +47438,7 @@
       <c r="Q861" s="8"/>
       <c r="R861" s="8"/>
       <c r="S861" s="8"/>
+      <c r="T861" s="8"/>
     </row>
     <row r="862">
       <c r="A862" s="8"/>
@@ -46586,6 +47460,7 @@
       <c r="Q862" s="8"/>
       <c r="R862" s="8"/>
       <c r="S862" s="8"/>
+      <c r="T862" s="8"/>
     </row>
     <row r="863">
       <c r="A863" s="8"/>
@@ -46607,6 +47482,7 @@
       <c r="Q863" s="8"/>
       <c r="R863" s="8"/>
       <c r="S863" s="8"/>
+      <c r="T863" s="8"/>
     </row>
     <row r="864">
       <c r="A864" s="8"/>
@@ -46628,6 +47504,7 @@
       <c r="Q864" s="8"/>
       <c r="R864" s="8"/>
       <c r="S864" s="8"/>
+      <c r="T864" s="8"/>
     </row>
     <row r="865">
       <c r="A865" s="8"/>
@@ -46649,6 +47526,7 @@
       <c r="Q865" s="8"/>
       <c r="R865" s="8"/>
       <c r="S865" s="8"/>
+      <c r="T865" s="8"/>
     </row>
     <row r="866">
       <c r="A866" s="8"/>
@@ -46670,6 +47548,7 @@
       <c r="Q866" s="8"/>
       <c r="R866" s="8"/>
       <c r="S866" s="8"/>
+      <c r="T866" s="8"/>
     </row>
     <row r="867">
       <c r="A867" s="8"/>
@@ -46691,6 +47570,7 @@
       <c r="Q867" s="8"/>
       <c r="R867" s="8"/>
       <c r="S867" s="8"/>
+      <c r="T867" s="8"/>
     </row>
     <row r="868">
       <c r="A868" s="8"/>
@@ -46712,6 +47592,7 @@
       <c r="Q868" s="8"/>
       <c r="R868" s="8"/>
       <c r="S868" s="8"/>
+      <c r="T868" s="8"/>
     </row>
     <row r="869">
       <c r="A869" s="8"/>
@@ -46733,6 +47614,7 @@
       <c r="Q869" s="8"/>
       <c r="R869" s="8"/>
       <c r="S869" s="8"/>
+      <c r="T869" s="8"/>
     </row>
     <row r="870">
       <c r="A870" s="8"/>
@@ -46754,6 +47636,7 @@
       <c r="Q870" s="8"/>
       <c r="R870" s="8"/>
       <c r="S870" s="8"/>
+      <c r="T870" s="8"/>
     </row>
     <row r="871">
       <c r="A871" s="8"/>
@@ -46775,6 +47658,7 @@
       <c r="Q871" s="8"/>
       <c r="R871" s="8"/>
       <c r="S871" s="8"/>
+      <c r="T871" s="8"/>
     </row>
     <row r="872">
       <c r="A872" s="8"/>
@@ -46796,6 +47680,7 @@
       <c r="Q872" s="8"/>
       <c r="R872" s="8"/>
       <c r="S872" s="8"/>
+      <c r="T872" s="8"/>
     </row>
     <row r="873">
       <c r="A873" s="8"/>
@@ -46817,6 +47702,7 @@
       <c r="Q873" s="8"/>
       <c r="R873" s="8"/>
       <c r="S873" s="8"/>
+      <c r="T873" s="8"/>
     </row>
     <row r="874">
       <c r="A874" s="8"/>
@@ -46838,6 +47724,7 @@
       <c r="Q874" s="8"/>
       <c r="R874" s="8"/>
       <c r="S874" s="8"/>
+      <c r="T874" s="8"/>
     </row>
     <row r="875">
       <c r="A875" s="8"/>
@@ -46859,6 +47746,7 @@
       <c r="Q875" s="8"/>
       <c r="R875" s="8"/>
       <c r="S875" s="8"/>
+      <c r="T875" s="8"/>
     </row>
     <row r="876">
       <c r="A876" s="8"/>
@@ -46880,6 +47768,7 @@
       <c r="Q876" s="8"/>
       <c r="R876" s="8"/>
       <c r="S876" s="8"/>
+      <c r="T876" s="8"/>
     </row>
     <row r="877">
       <c r="A877" s="8"/>
@@ -46901,6 +47790,7 @@
       <c r="Q877" s="8"/>
       <c r="R877" s="8"/>
       <c r="S877" s="8"/>
+      <c r="T877" s="8"/>
     </row>
     <row r="878">
       <c r="A878" s="8"/>
@@ -46922,6 +47812,7 @@
       <c r="Q878" s="8"/>
       <c r="R878" s="8"/>
       <c r="S878" s="8"/>
+      <c r="T878" s="8"/>
     </row>
     <row r="879">
       <c r="A879" s="8"/>
@@ -46943,6 +47834,7 @@
       <c r="Q879" s="8"/>
       <c r="R879" s="8"/>
       <c r="S879" s="8"/>
+      <c r="T879" s="8"/>
     </row>
     <row r="880">
       <c r="A880" s="8"/>
@@ -46964,6 +47856,7 @@
       <c r="Q880" s="8"/>
       <c r="R880" s="8"/>
       <c r="S880" s="8"/>
+      <c r="T880" s="8"/>
     </row>
     <row r="881">
       <c r="A881" s="8"/>
@@ -46985,6 +47878,7 @@
       <c r="Q881" s="8"/>
       <c r="R881" s="8"/>
       <c r="S881" s="8"/>
+      <c r="T881" s="8"/>
     </row>
     <row r="882">
       <c r="A882" s="8"/>
@@ -47006,6 +47900,7 @@
       <c r="Q882" s="8"/>
       <c r="R882" s="8"/>
       <c r="S882" s="8"/>
+      <c r="T882" s="8"/>
     </row>
     <row r="883">
       <c r="A883" s="8"/>
@@ -47027,6 +47922,7 @@
       <c r="Q883" s="8"/>
       <c r="R883" s="8"/>
       <c r="S883" s="8"/>
+      <c r="T883" s="8"/>
     </row>
     <row r="884">
       <c r="A884" s="8"/>
@@ -47048,6 +47944,7 @@
       <c r="Q884" s="8"/>
       <c r="R884" s="8"/>
       <c r="S884" s="8"/>
+      <c r="T884" s="8"/>
     </row>
     <row r="885">
       <c r="A885" s="8"/>
@@ -47069,6 +47966,7 @@
       <c r="Q885" s="8"/>
       <c r="R885" s="8"/>
       <c r="S885" s="8"/>
+      <c r="T885" s="8"/>
     </row>
     <row r="886">
       <c r="A886" s="8"/>
@@ -47090,6 +47988,7 @@
       <c r="Q886" s="8"/>
       <c r="R886" s="8"/>
       <c r="S886" s="8"/>
+      <c r="T886" s="8"/>
     </row>
     <row r="887">
       <c r="A887" s="8"/>
@@ -47111,6 +48010,7 @@
       <c r="Q887" s="8"/>
       <c r="R887" s="8"/>
       <c r="S887" s="8"/>
+      <c r="T887" s="8"/>
     </row>
     <row r="888">
       <c r="A888" s="8"/>
@@ -47132,6 +48032,7 @@
       <c r="Q888" s="8"/>
       <c r="R888" s="8"/>
       <c r="S888" s="8"/>
+      <c r="T888" s="8"/>
     </row>
     <row r="889">
       <c r="A889" s="8"/>
@@ -47153,6 +48054,7 @@
       <c r="Q889" s="8"/>
       <c r="R889" s="8"/>
       <c r="S889" s="8"/>
+      <c r="T889" s="8"/>
     </row>
     <row r="890">
       <c r="A890" s="8"/>
@@ -47174,6 +48076,7 @@
       <c r="Q890" s="8"/>
       <c r="R890" s="8"/>
       <c r="S890" s="8"/>
+      <c r="T890" s="8"/>
     </row>
     <row r="891">
       <c r="A891" s="8"/>
@@ -47195,6 +48098,7 @@
       <c r="Q891" s="8"/>
       <c r="R891" s="8"/>
       <c r="S891" s="8"/>
+      <c r="T891" s="8"/>
     </row>
     <row r="892">
       <c r="A892" s="8"/>
@@ -47216,6 +48120,7 @@
       <c r="Q892" s="8"/>
       <c r="R892" s="8"/>
       <c r="S892" s="8"/>
+      <c r="T892" s="8"/>
     </row>
     <row r="893">
       <c r="A893" s="8"/>
@@ -47237,6 +48142,7 @@
       <c r="Q893" s="8"/>
       <c r="R893" s="8"/>
       <c r="S893" s="8"/>
+      <c r="T893" s="8"/>
     </row>
     <row r="894">
       <c r="A894" s="8"/>
@@ -47258,6 +48164,7 @@
       <c r="Q894" s="8"/>
       <c r="R894" s="8"/>
       <c r="S894" s="8"/>
+      <c r="T894" s="8"/>
     </row>
     <row r="895">
       <c r="A895" s="8"/>
@@ -47279,6 +48186,7 @@
       <c r="Q895" s="8"/>
       <c r="R895" s="8"/>
       <c r="S895" s="8"/>
+      <c r="T895" s="8"/>
     </row>
     <row r="896">
       <c r="A896" s="8"/>
@@ -47300,6 +48208,7 @@
       <c r="Q896" s="8"/>
       <c r="R896" s="8"/>
       <c r="S896" s="8"/>
+      <c r="T896" s="8"/>
     </row>
     <row r="897">
       <c r="A897" s="8"/>
@@ -47321,6 +48230,7 @@
       <c r="Q897" s="8"/>
       <c r="R897" s="8"/>
       <c r="S897" s="8"/>
+      <c r="T897" s="8"/>
     </row>
     <row r="898">
       <c r="A898" s="8"/>
@@ -47342,6 +48252,7 @@
       <c r="Q898" s="8"/>
       <c r="R898" s="8"/>
       <c r="S898" s="8"/>
+      <c r="T898" s="8"/>
     </row>
     <row r="899">
       <c r="A899" s="8"/>
@@ -47363,6 +48274,7 @@
       <c r="Q899" s="8"/>
       <c r="R899" s="8"/>
       <c r="S899" s="8"/>
+      <c r="T899" s="8"/>
     </row>
     <row r="900">
       <c r="A900" s="8"/>
@@ -47384,6 +48296,7 @@
       <c r="Q900" s="8"/>
       <c r="R900" s="8"/>
       <c r="S900" s="8"/>
+      <c r="T900" s="8"/>
     </row>
     <row r="901">
       <c r="A901" s="8"/>
@@ -47405,6 +48318,7 @@
       <c r="Q901" s="8"/>
       <c r="R901" s="8"/>
       <c r="S901" s="8"/>
+      <c r="T901" s="8"/>
     </row>
     <row r="902">
       <c r="A902" s="8"/>
@@ -47426,6 +48340,7 @@
       <c r="Q902" s="8"/>
       <c r="R902" s="8"/>
       <c r="S902" s="8"/>
+      <c r="T902" s="8"/>
     </row>
     <row r="903">
       <c r="A903" s="8"/>
@@ -47447,6 +48362,7 @@
       <c r="Q903" s="8"/>
       <c r="R903" s="8"/>
       <c r="S903" s="8"/>
+      <c r="T903" s="8"/>
     </row>
     <row r="904">
       <c r="A904" s="8"/>
@@ -47468,6 +48384,7 @@
       <c r="Q904" s="8"/>
       <c r="R904" s="8"/>
       <c r="S904" s="8"/>
+      <c r="T904" s="8"/>
     </row>
     <row r="905">
       <c r="A905" s="8"/>
@@ -47489,6 +48406,7 @@
       <c r="Q905" s="8"/>
       <c r="R905" s="8"/>
       <c r="S905" s="8"/>
+      <c r="T905" s="8"/>
     </row>
     <row r="906">
       <c r="A906" s="8"/>
@@ -47510,6 +48428,7 @@
       <c r="Q906" s="8"/>
       <c r="R906" s="8"/>
       <c r="S906" s="8"/>
+      <c r="T906" s="8"/>
     </row>
     <row r="907">
       <c r="A907" s="8"/>
@@ -47531,6 +48450,7 @@
       <c r="Q907" s="8"/>
       <c r="R907" s="8"/>
       <c r="S907" s="8"/>
+      <c r="T907" s="8"/>
     </row>
     <row r="908">
       <c r="A908" s="8"/>
@@ -47552,6 +48472,7 @@
       <c r="Q908" s="8"/>
       <c r="R908" s="8"/>
       <c r="S908" s="8"/>
+      <c r="T908" s="8"/>
     </row>
     <row r="909">
       <c r="A909" s="8"/>
@@ -47573,6 +48494,7 @@
       <c r="Q909" s="8"/>
       <c r="R909" s="8"/>
       <c r="S909" s="8"/>
+      <c r="T909" s="8"/>
     </row>
     <row r="910">
       <c r="A910" s="8"/>
@@ -47594,6 +48516,7 @@
       <c r="Q910" s="8"/>
       <c r="R910" s="8"/>
       <c r="S910" s="8"/>
+      <c r="T910" s="8"/>
     </row>
     <row r="911">
       <c r="A911" s="8"/>
@@ -47615,6 +48538,7 @@
       <c r="Q911" s="8"/>
       <c r="R911" s="8"/>
       <c r="S911" s="8"/>
+      <c r="T911" s="8"/>
     </row>
     <row r="912">
       <c r="A912" s="8"/>
@@ -47636,6 +48560,7 @@
       <c r="Q912" s="8"/>
       <c r="R912" s="8"/>
       <c r="S912" s="8"/>
+      <c r="T912" s="8"/>
     </row>
     <row r="913">
       <c r="A913" s="8"/>
@@ -47657,6 +48582,7 @@
       <c r="Q913" s="8"/>
       <c r="R913" s="8"/>
       <c r="S913" s="8"/>
+      <c r="T913" s="8"/>
     </row>
     <row r="914">
       <c r="A914" s="8"/>
@@ -47678,6 +48604,7 @@
       <c r="Q914" s="8"/>
       <c r="R914" s="8"/>
       <c r="S914" s="8"/>
+      <c r="T914" s="8"/>
     </row>
     <row r="915">
       <c r="A915" s="8"/>
@@ -47699,6 +48626,7 @@
       <c r="Q915" s="8"/>
       <c r="R915" s="8"/>
       <c r="S915" s="8"/>
+      <c r="T915" s="8"/>
     </row>
     <row r="916">
       <c r="A916" s="8"/>
@@ -47720,6 +48648,7 @@
       <c r="Q916" s="8"/>
       <c r="R916" s="8"/>
       <c r="S916" s="8"/>
+      <c r="T916" s="8"/>
     </row>
     <row r="917">
       <c r="A917" s="8"/>
@@ -47741,6 +48670,7 @@
       <c r="Q917" s="8"/>
       <c r="R917" s="8"/>
       <c r="S917" s="8"/>
+      <c r="T917" s="8"/>
     </row>
     <row r="918">
       <c r="A918" s="8"/>
@@ -47762,6 +48692,7 @@
       <c r="Q918" s="8"/>
       <c r="R918" s="8"/>
       <c r="S918" s="8"/>
+      <c r="T918" s="8"/>
     </row>
     <row r="919">
       <c r="A919" s="8"/>
@@ -47783,6 +48714,7 @@
       <c r="Q919" s="8"/>
       <c r="R919" s="8"/>
       <c r="S919" s="8"/>
+      <c r="T919" s="8"/>
     </row>
     <row r="920">
       <c r="A920" s="8"/>
@@ -47804,6 +48736,7 @@
       <c r="Q920" s="8"/>
       <c r="R920" s="8"/>
       <c r="S920" s="8"/>
+      <c r="T920" s="8"/>
     </row>
     <row r="921">
       <c r="A921" s="8"/>
@@ -47825,6 +48758,7 @@
       <c r="Q921" s="8"/>
       <c r="R921" s="8"/>
       <c r="S921" s="8"/>
+      <c r="T921" s="8"/>
     </row>
     <row r="922">
       <c r="A922" s="8"/>
@@ -47846,6 +48780,7 @@
       <c r="Q922" s="8"/>
       <c r="R922" s="8"/>
       <c r="S922" s="8"/>
+      <c r="T922" s="8"/>
     </row>
     <row r="923">
       <c r="A923" s="8"/>
@@ -47867,6 +48802,7 @@
       <c r="Q923" s="8"/>
       <c r="R923" s="8"/>
       <c r="S923" s="8"/>
+      <c r="T923" s="8"/>
     </row>
     <row r="924">
       <c r="A924" s="8"/>
@@ -47888,6 +48824,7 @@
       <c r="Q924" s="8"/>
       <c r="R924" s="8"/>
       <c r="S924" s="8"/>
+      <c r="T924" s="8"/>
     </row>
     <row r="925">
       <c r="A925" s="8"/>
@@ -47909,6 +48846,7 @@
       <c r="Q925" s="8"/>
       <c r="R925" s="8"/>
       <c r="S925" s="8"/>
+      <c r="T925" s="8"/>
     </row>
     <row r="926">
       <c r="A926" s="8"/>
@@ -47930,6 +48868,7 @@
       <c r="Q926" s="8"/>
       <c r="R926" s="8"/>
       <c r="S926" s="8"/>
+      <c r="T926" s="8"/>
     </row>
     <row r="927">
       <c r="A927" s="8"/>
@@ -47951,6 +48890,7 @@
       <c r="Q927" s="8"/>
       <c r="R927" s="8"/>
       <c r="S927" s="8"/>
+      <c r="T927" s="8"/>
     </row>
     <row r="928">
       <c r="A928" s="8"/>
@@ -47972,6 +48912,7 @@
       <c r="Q928" s="8"/>
       <c r="R928" s="8"/>
       <c r="S928" s="8"/>
+      <c r="T928" s="8"/>
     </row>
     <row r="929">
       <c r="A929" s="8"/>
@@ -47993,6 +48934,7 @@
       <c r="Q929" s="8"/>
       <c r="R929" s="8"/>
       <c r="S929" s="8"/>
+      <c r="T929" s="8"/>
     </row>
     <row r="930">
       <c r="A930" s="8"/>
@@ -48014,6 +48956,7 @@
       <c r="Q930" s="8"/>
       <c r="R930" s="8"/>
       <c r="S930" s="8"/>
+      <c r="T930" s="8"/>
     </row>
     <row r="931">
       <c r="A931" s="8"/>
@@ -48035,6 +48978,7 @@
       <c r="Q931" s="8"/>
       <c r="R931" s="8"/>
       <c r="S931" s="8"/>
+      <c r="T931" s="8"/>
     </row>
     <row r="932">
       <c r="A932" s="8"/>
@@ -48056,6 +49000,7 @@
       <c r="Q932" s="8"/>
       <c r="R932" s="8"/>
       <c r="S932" s="8"/>
+      <c r="T932" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -48074,83 +49019,83 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="H1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="I1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="19" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="4">
-      <c r="A4" s="18" t="s">
-        <v>38</v>
+      <c r="A4" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="F4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>59</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -48189,14 +49134,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>60</v>
+      <c r="A1" s="22" t="s">
+        <v>62</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>61</v>
+      <c r="B1" s="23" t="s">
+        <v>63</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>62</v>
+      <c r="C1" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -48223,13 +49168,13 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>63</v>
+      <c r="A2" s="23" t="s">
+        <v>65</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>64</v>
+      <c r="B2" s="25" t="s">
+        <v>66</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -48255,13 +49200,13 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>65</v>
+      <c r="A3" s="23" t="s">
+        <v>67</v>
       </c>
-      <c r="B3" s="25">
-        <v>2.0160101003E10</v>
+      <c r="B3" s="26">
+        <v>2.0160101004E10</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -48287,12 +49232,12 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>66</v>
+      <c r="A4" s="23" t="s">
+        <v>68</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
-        <v>67</v>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
